--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.812</v>
+        <v>15.104</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3527224563.25</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586300.001</v>
+        <v>29.987</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.049</v>
+        <v>6.091</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1923117.122561835</v>
+        <v>22.11968605424083</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2289248.184562738</v>
+        <v>22.11106801982952</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-395076.0735033497</v>
+        <v>22.13958654962163</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2730985.627500564</v>
+        <v>22.09278893657216</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-582127.3219363624</v>
+        <v>22.13096484557992</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-187377.6033459333</v>
+        <v>22.12952263305219</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2594956.502627959</v>
+        <v>22.10260276483508</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1210694.536764781</v>
+        <v>22.154986890865</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1307475.428763571</v>
+        <v>22.16089215899243</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1328212.605888603</v>
+        <v>22.10330536871707</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1076707.195520484</v>
+        <v>22.12037093815748</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1023159.481718864</v>
+        <v>22.13041920901289</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-68403.75018148022</v>
+        <v>22.14397881526587</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-840552.6085634495</v>
+        <v>22.11303420228758</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>830494.482966189</v>
+        <v>22.15009077885074</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-822406.3950644284</v>
+        <v>22.13016615916464</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-175601.0321310704</v>
+        <v>22.16585671786375</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>934592.1176636672</v>
+        <v>22.19083408694583</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1065265.960586692</v>
+        <v>22.08929441507188</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-565471.561766781</v>
+        <v>22.12458723014774</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-394987.3338272916</v>
+        <v>22.13077436349119</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1766151.994166521</v>
+        <v>22.07403646048606</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-409009.043818504</v>
+        <v>22.15340990336731</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-557863.0910580737</v>
+        <v>22.12630375406954</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-437522.889500031</v>
+        <v>22.13889070796878</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-56059.16019480013</v>
+        <v>22.14957365692585</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2421425.827181241</v>
+        <v>22.0875084570677</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>652898.3883456719</v>
+        <v>22.16742192644403</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>512818.3077211879</v>
+        <v>22.16126561766931</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2320024.623843561</v>
+        <v>22.09238275508777</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1160415.379280137</v>
+        <v>22.19094935141169</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1084660.62001678</v>
+        <v>22.18746721426079</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>974611.3598717558</v>
+        <v>22.19773737612305</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1156167.564990707</v>
+        <v>22.212711802858</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1467167.017706027</v>
+        <v>22.21626267488168</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>509829.4675573542</v>
+        <v>22.15906617837213</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1197834.472403491</v>
+        <v>22.20100820689549</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1330704.800257697</v>
+        <v>22.21606075785663</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-368218.1395707516</v>
+        <v>22.13310725456051</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>654332.2587343649</v>
+        <v>22.20934429880693</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>948442.2608378459</v>
+        <v>22.23461528973079</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-848772.9663221587</v>
+        <v>22.09771024598071</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>701292.4224401659</v>
+        <v>22.20284038278762</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1083806.288869208</v>
+        <v>22.23354467363764</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1878216.320981003</v>
+        <v>22.26434546705078</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2496474.16481276</v>
+        <v>22.10999698516038</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1128205.619912163</v>
+        <v>22.12670661445018</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-390263.934591177</v>
+        <v>22.13899897512471</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2718692.421236254</v>
+        <v>22.08749586837511</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>764720.4755772088</v>
+        <v>22.16319311676859</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>763496.7699947465</v>
+        <v>22.1611442029228</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2194208.174454182</v>
+        <v>22.09135300595796</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2127860.619406765</v>
+        <v>22.19115537659757</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2419649.719648506</v>
+        <v>22.19481645769361</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1613288.955905015</v>
+        <v>22.20581340515306</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1634747.080090936</v>
+        <v>22.21351919077585</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2210515.724403671</v>
+        <v>22.23130649930714</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-957444.3946890896</v>
+        <v>22.12177212457003</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>150518.0686103832</v>
+        <v>22.17127377118857</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>682512.1465468721</v>
+        <v>22.18892744940739</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-795238.2944909059</v>
+        <v>22.11018286183191</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>554884.7262275055</v>
+        <v>22.18184473763116</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>895213.4396935191</v>
+        <v>22.22261582384989</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1127591.320629077</v>
+        <v>22.08682548110852</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>141695.4512697145</v>
+        <v>22.17992275965298</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>961749.6775539208</v>
+        <v>22.23194516858486</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1466230.334935475</v>
+        <v>22.08973853200842</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1355672.673512665</v>
+        <v>22.24926893815926</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-4140758.4164086</v>
+        <v>22.10121173085894</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2911891.246314751</v>
+        <v>22.12217455607882</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-745483.34026434</v>
+        <v>22.14375427234537</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-3587208.705781532</v>
+        <v>22.09719969825461</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>421116.6756755662</v>
+        <v>22.15951314739686</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1650434.876491436</v>
+        <v>22.17294764879331</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-3999156.543015967</v>
+        <v>22.0960456379451</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2461906.26544585</v>
+        <v>22.18193418960448</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3248955.903312895</v>
+        <v>22.1913528185941</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1781133.009929491</v>
+        <v>22.17291154772539</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1896688.295192415</v>
+        <v>22.18152482122186</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2696017.120245897</v>
+        <v>22.19992977243797</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-1559310.248654724</v>
+        <v>22.1226542321352</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-512929.9869339404</v>
+        <v>22.16174052634123</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1394521.466130534</v>
+        <v>22.19682462192805</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1805432.984190864</v>
+        <v>22.10607024860656</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>285705.2666651612</v>
+        <v>22.17093782189657</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1341752.564246452</v>
+        <v>22.21248114702921</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1324138.100703945</v>
+        <v>22.10063811193145</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>334058.4804623275</v>
+        <v>22.16788206728157</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1629130.685094415</v>
+        <v>22.22007753913345</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-2202147.203324228</v>
+        <v>22.0920453138861</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1293130.043698561</v>
+        <v>22.21265893785651</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-38602.10262841747</v>
+        <v>22.18784818058359</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-75848.96645583307</v>
+        <v>22.15991856629726</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>885068.6546686991</v>
+        <v>22.24267675290121</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1043029.708423552</v>
+        <v>22.27815050787812</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-874727.333859091</v>
+        <v>22.09553082025782</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-405254.2612766604</v>
+        <v>22.16043724953084</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>44232.73846870698</v>
+        <v>22.18397107570045</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-939224.9788036222</v>
+        <v>22.12109011321818</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-369358.7749000116</v>
+        <v>22.14056334508097</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>456742.3148254862</v>
+        <v>22.19346110989336</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>-1124280.223144492</v>
+        <v>22.06332021893106</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-543942.2435074165</v>
+        <v>22.10077874590335</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-324606.3901453545</v>
+        <v>22.12656102028542</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-1538585.84804596</v>
+        <v>22.04944187480006</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-377890.6626487334</v>
+        <v>22.14364297774339</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>457658.1984666296</v>
+        <v>22.21268901206224</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>-140384.2507296948</v>
+        <v>22.16113977335842</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>992619.6662304344</v>
+        <v>22.26348056254783</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1298962.951795072</v>
+        <v>22.32125816829873</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>-919993.6612491097</v>
+        <v>22.05520638844867</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-186044.0291355577</v>
+        <v>22.14769045172617</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>109487.401927557</v>
+        <v>22.19490047661473</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2481137.25279717</v>
+        <v>22.31804774269359</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1298930.964995628</v>
+        <v>22.30318356847836</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1903912.777217718</v>
+        <v>22.36926585288915</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2109163.283265477</v>
+        <v>22.40407340099536</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-176795.2312135898</v>
+        <v>22.15161279222277</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1658252.97385762</v>
+        <v>22.36211247633608</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1654766.352864817</v>
+        <v>22.3724512900662</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-56555.39691509429</v>
+        <v>22.14800698372235</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>804896.3289514991</v>
+        <v>22.228691594423</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1305736.978911853</v>
+        <v>22.26066342503821</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-698720.3627118211</v>
+        <v>22.09434668927416</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>806118.8190944459</v>
+        <v>22.23988076710427</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1229611.41706828</v>
+        <v>22.26824689968991</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-918148.5296655507</v>
+        <v>22.09596060243372</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2141009.55979059</v>
+        <v>22.3121553105759</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2806573.543487478</v>
+        <v>22.36554338129938</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1754260.825469674</v>
+        <v>22.42395757802327</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2270243.235534636</v>
+        <v>22.48486521135774</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2538998.244537306</v>
+        <v>22.52269479802421</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>56614.5359166112</v>
+        <v>22.1786101625555</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1962649.901317545</v>
+        <v>22.44760760287321</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1975424.34547795</v>
+        <v>22.46411139201977</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>2800082.611707872</v>
+        <v>22.32727767424065</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>736232.7489561347</v>
+        <v>22.26318258674468</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1260344.142212528</v>
+        <v>22.31324512440504</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2111671.936013711</v>
+        <v>22.38079280425852</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-584055.4085022362</v>
+        <v>22.10610321221343</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1341151.524907755</v>
+        <v>22.32485889988295</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-623399.1207357643</v>
+        <v>22.11921968654319</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>496908.0924563509</v>
+        <v>22.20768777992072</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1217400.293823144</v>
+        <v>22.25153984342525</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-912537.6199420246</v>
+        <v>22.07862056296172</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>727646.5793511453</v>
+        <v>22.22512658011083</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1299985.968624638</v>
+        <v>22.27114120441247</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-1255800.821692923</v>
+        <v>22.08370790116435</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1992787.644917162</v>
+        <v>22.30669698587668</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3157274.696806654</v>
+        <v>22.37855023614528</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1555400.309912226</v>
+        <v>22.40080842284559</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2014408.470930884</v>
+        <v>22.45199743760462</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2685827.310683927</v>
+        <v>22.52023104913773</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-401905.9050174244</v>
+        <v>22.12077439348184</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1521586.618296462</v>
+        <v>22.41817846358297</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1869353.544311731</v>
+        <v>22.45385488028358</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3265976.673795395</v>
+        <v>22.27962868249272</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>45523.52237216302</v>
+        <v>22.183719757139</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>476855.3450624603</v>
+        <v>22.22797935465614</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1598626.522690418</v>
+        <v>22.29205867238579</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-989078.6470065803</v>
+        <v>22.10440305294243</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1306614.854276237</v>
+        <v>22.27122751656969</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1902550.596859068</v>
+        <v>22.30652561489829</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-1280600.384688599</v>
+        <v>22.11368147934238</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>719810.2671534751</v>
+        <v>22.19858176695649</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2104673.650808837</v>
+        <v>22.25180852190101</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-997873.8885669799</v>
+        <v>22.09687751615621</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1088436.090201618</v>
+        <v>22.20317253008498</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2154660.724342051</v>
+        <v>22.26348265077479</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-1780875.213780229</v>
+        <v>22.08394242961814</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2162462.66636831</v>
+        <v>22.25968535138961</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>4278392.877006752</v>
+        <v>22.33698551552904</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1801165.058895104</v>
+        <v>22.31202883977767</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>2483443.14850846</v>
+        <v>22.36999975312214</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3730747.583372298</v>
+        <v>22.45170177223663</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-621709.0671140612</v>
+        <v>22.11198383742514</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2017084.297197128</v>
+        <v>22.35547110453187</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2792925.378092383</v>
+        <v>22.40881211462467</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>-542150.2884263115</v>
+        <v>22.12846989783115</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>838098.036755666</v>
+        <v>22.22902081706079</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1948501.870165596</v>
+        <v>22.283371841481</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1505989.892193247</v>
+        <v>22.09259946818199</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1296999.45211666</v>
+        <v>22.27124608197542</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1767125.829493254</v>
+        <v>22.28906805467746</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-1257580.367693551</v>
+        <v>22.14341742580868</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>4557316.511937106</v>
+        <v>22.37753123955821</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>4470243.893782723</v>
+        <v>22.40134266275724</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>786564.8475604276</v>
+        <v>22.29727492480452</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1055237.428208322</v>
+        <v>22.32681398270222</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>937816.7862716038</v>
+        <v>22.33834290906766</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-211074.1248046401</v>
+        <v>22.16590016938359</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>762336.2443215487</v>
+        <v>22.23413686927232</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>2196686.733115171</v>
+        <v>22.32369163501993</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-277762.4234764035</v>
+        <v>22.10950984455416</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>409937.1305414523</v>
+        <v>22.22318337022142</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>662517.3677501987</v>
+        <v>22.23765548838249</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-1091150.999149461</v>
+        <v>22.00450263590071</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-301186.6782865949</v>
+        <v>22.14897351403429</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-156568.5678821427</v>
+        <v>22.14499585374654</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-1118669.099341816</v>
+        <v>22.02360622108882</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>522727.324890563</v>
+        <v>22.2643586138418</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>829125.8739311099</v>
+        <v>22.1646242970256</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2541866.568961979</v>
+        <v>22.3059194554858</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>2450389.36882868</v>
+        <v>22.32158286835175</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-933415.2874405516</v>
+        <v>22.11719784815335</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2373234.848663234</v>
+        <v>22.36775631323922</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2161081.300135537</v>
+        <v>22.35950427943231</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-919298.8899730144</v>
+        <v>22.15445133646019</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4610491.315413889</v>
+        <v>22.46559974294438</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>3921305.713448422</v>
+        <v>22.45836066522811</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2430294.500028409</v>
+        <v>22.49171956310617</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2934855.980061498</v>
+        <v>22.51806689205497</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>2649356.161729836</v>
+        <v>22.50281837985586</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>391367.0437426138</v>
+        <v>22.22106865094936</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1958943.904984692</v>
+        <v>22.39317819074886</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2313461.824073549</v>
+        <v>22.43725223213385</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>142760.573025204</v>
+        <v>22.14174067960868</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1022813.270534132</v>
+        <v>22.31672962844939</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>937664.9253408471</v>
+        <v>22.30594706878233</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>-737565.5511145382</v>
+        <v>22.03299817332123</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>552899.0071538235</v>
+        <v>22.28566944565489</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>626002.5810926838</v>
+        <v>22.27866506226814</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-674213.4631815843</v>
+        <v>22.06174901308384</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1662137.793281676</v>
+        <v>22.42887896375198</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-975105.8433331469</v>
+        <v>22.11915829617045</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1394417.080592631</v>
+        <v>22.26137863764098</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1498245.570915334</v>
+        <v>22.27696611946616</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-1298562.315487377</v>
+        <v>22.09962367984488</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2284376.430959832</v>
+        <v>22.34201824793736</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>2077499.477641836</v>
+        <v>22.33511770460656</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-1297947.507520036</v>
+        <v>22.13096231860067</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4607716.838512442</v>
+        <v>22.43700972820678</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>4038802.010512176</v>
+        <v>22.43639744490221</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3321232.485907061</v>
+        <v>22.49225945501209</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3827705.339988855</v>
+        <v>22.51048045193782</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3398504.385516979</v>
+        <v>22.50776248490378</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-788429.377924318</v>
+        <v>22.15008752400631</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1014534.872507313</v>
+        <v>22.32952400616385</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1541395.748172234</v>
+        <v>22.37109490603427</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-193638.0873841076</v>
+        <v>22.09545450236526</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>909627.9963094973</v>
+        <v>22.26370270068438</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>866263.4112340769</v>
+        <v>22.27011888961481</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-805252.0066505453</v>
+        <v>22.01058970521768</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>515482.8054963365</v>
+        <v>22.24926034490856</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>708729.0688058111</v>
+        <v>22.26359504002806</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-718010.4736517075</v>
+        <v>22.03655605224661</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1673244.412984155</v>
+        <v>22.39121052400428</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1853539.385967185</v>
+        <v>22.09167054435657</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1271318.49275047</v>
+        <v>22.22075593695888</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2272387.22778816</v>
+        <v>22.25787214613282</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1395631.075534425</v>
+        <v>22.10514922979902</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3237786.620859303</v>
+        <v>22.31016120044508</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3781454.682979906</v>
+        <v>22.33294300547798</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-1544376.097169806</v>
+        <v>22.12596738328633</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>7000716.740964262</v>
+        <v>22.38599273323235</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>6695682.975146975</v>
+        <v>22.40518790188356</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>4240650.408055474</v>
+        <v>22.40039498825169</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4865847.709394762</v>
+        <v>22.4255991082547</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4831910.29190994</v>
+        <v>22.4348154866645</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-969216.3629957947</v>
+        <v>22.13341033810076</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1334714.242951914</v>
+        <v>22.29204432860119</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>2538719.748213273</v>
+        <v>22.35926497387358</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-593457.7035419126</v>
+        <v>22.07152353495215</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>987607.1292505626</v>
+        <v>22.22063175717596</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1291381.678332337</v>
+        <v>22.24802943081659</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-1050014.413117754</v>
+        <v>22.03800185014795</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>685880.7141533596</v>
+        <v>22.22796960975932</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1162236.026161689</v>
+        <v>22.2638600478281</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-983727.9792517512</v>
+        <v>22.04829941957466</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>2028099.526483916</v>
+        <v>22.3296939906193</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>676081.9979995736</v>
+        <v>22.28504430317198</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>292683.1009826926</v>
+        <v>22.23380120581342</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>718788.4318314879</v>
+        <v>22.32976362836977</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>761437.4734901346</v>
+        <v>22.34093724144965</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-288319.0775225926</v>
+        <v>22.06987729802347</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>315990.3392443591</v>
+        <v>22.23099564176132</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>614071.2421498175</v>
+        <v>22.27914580062283</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-302805.2846005844</v>
+        <v>22.10564303987969</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>291914.7073976937</v>
+        <v>22.20808027515652</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>733399.4027431335</v>
+        <v>22.25957708736258</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-798157.0740943092</v>
+        <v>21.99948642973807</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-150200.3230517667</v>
+        <v>22.15287853920206</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>205595.5931613474</v>
+        <v>22.17153250620299</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-592776.1930092892</v>
+        <v>22.02507382130101</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>825229.9444235223</v>
+        <v>22.29540029242795</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1555830.58804777</v>
+        <v>22.3614554664169</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>467027.9368613717</v>
+        <v>22.28598776431255</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>874314.8395211252</v>
+        <v>22.38060330264738</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>1040260.037520527</v>
+        <v>22.41904055238361</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-224037.8577528639</v>
+        <v>22.04983099199228</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>320069.9910691202</v>
+        <v>22.25035955037036</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>745378.0679259871</v>
+        <v>22.34032600553039</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1735712.187206056</v>
+        <v>22.44377085770111</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1107201.027493664</v>
+        <v>22.47091776161761</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1376062.646039751</v>
+        <v>22.54666265896725</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1321197.935003388</v>
+        <v>22.53093610629989</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>52411.69361188664</v>
+        <v>22.16153978204723</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1258746.177521163</v>
+        <v>22.51796393162792</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1226808.01588473</v>
+        <v>22.51457926587643</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>129888.4726830635</v>
+        <v>22.13064179796124</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>876346.4109322579</v>
+        <v>22.32374967615157</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>789867.4171308435</v>
+        <v>22.3126848727107</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-623392.0043518229</v>
+        <v>22.02148463274456</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>627593.7952403949</v>
+        <v>22.3343571948261</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>605967.9645603821</v>
+        <v>22.3118454380723</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-548184.3033674241</v>
+        <v>22.05190117442745</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1690271.099780288</v>
+        <v>22.49712104595952</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1708026.474885714</v>
+        <v>22.50130197339233</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1253811.566925224</v>
+        <v>22.6249551937568</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1407441.600303992</v>
+        <v>22.66715715253515</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1354198.747763076</v>
+        <v>22.65104538530564</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60615.74345393456</v>
+        <v>22.1908526754481</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1271877.347773438</v>
+        <v>22.62601063509922</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1259554.429944023</v>
+        <v>22.63158404102046</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>2002645.298460049</v>
+        <v>22.43409660283407</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1123674.569503446</v>
+        <v>22.42658973590328</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1415687.648506741</v>
+        <v>22.48706223272341</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1479488.04318058</v>
+        <v>22.50573942723041</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-247487.7607286196</v>
+        <v>22.08978940436176</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1229766.624882201</v>
+        <v>22.46108099477529</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>1230088.063474738</v>
+        <v>22.47047597936272</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-230748.4681964801</v>
+        <v>22.07061993725558</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>727913.1456347572</v>
+        <v>22.27369158932608</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>674438.8622014674</v>
+        <v>22.2722180212076</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-743152.167067182</v>
+        <v>21.98695357657252</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>690266.3770927386</v>
+        <v>22.30386190235058</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>649688.2907585102</v>
+        <v>22.29487066282756</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-728385.0801244413</v>
+        <v>22.01548961643224</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>1725402.958656169</v>
+        <v>22.46643587511873</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1814126.250815086</v>
+        <v>22.48780934918402</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1367793.552109709</v>
+        <v>22.59726938262826</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1533457.148827096</v>
+        <v>22.63224003624337</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1541610.381109907</v>
+        <v>22.64710899495276</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-288229.0286564</v>
+        <v>22.09614263359956</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1236367.951058209</v>
+        <v>22.57581749675217</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1256707.163468066</v>
+        <v>22.59327950171074</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2758408.398313228</v>
+        <v>22.38308315738556</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>894004.8034237095</v>
+        <v>22.29731719639163</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1431248.084816212</v>
+        <v>22.36213334055531</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>1587020.076348047</v>
+        <v>22.39221635699229</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-339543.2595086836</v>
+        <v>22.08035136982891</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>1561501.71644581</v>
+        <v>22.38605114872185</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>1835339.312432224</v>
+        <v>22.42484572888125</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-758090.432413169</v>
+        <v>22.05599069113778</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>779934.549804661</v>
+        <v>22.24326151772027</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1085422.622097925</v>
+        <v>22.27672448716613</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-993430.9753940961</v>
+        <v>22.03179712912151</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>799424.0483967627</v>
+        <v>22.28280651199784</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1085602.602229532</v>
+        <v>22.31593534261156</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1054227.317555312</v>
+        <v>22.03772803624121</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>2110330.777207057</v>
+        <v>22.40355672423146</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>2702645.930936823</v>
+        <v>22.45991858956024</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1546933.625294692</v>
+        <v>22.48017700769602</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1935637.664373204</v>
+        <v>22.53465082992258</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>2180734.029080471</v>
+        <v>22.58200344699083</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-476288.9031564399</v>
+        <v>22.08272320576129</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1588167.027945225</v>
+        <v>22.50097532875309</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1861452.250753581</v>
+        <v>22.56064783149581</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-1101854.629256692</v>
+        <v>22.12776014334777</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-1541020.305532271</v>
+        <v>22.118033914517</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-439902.4150628286</v>
+        <v>22.14967593103425</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2368901.953511901</v>
+        <v>22.08032680686781</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-1452020.258058778</v>
+        <v>22.11917867377168</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1162408.992343104</v>
+        <v>22.12008268625388</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-2056007.731559167</v>
+        <v>22.10819840683145</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>44682.3221613031</v>
+        <v>22.15583572980616</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>122637.1297811822</v>
+        <v>22.16608111923221</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>-1052072.355059973</v>
+        <v>22.11217038349835</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-744421.2552228316</v>
+        <v>22.132416584821</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-571319.1315700123</v>
+        <v>22.1467214329334</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-123008.900927346</v>
+        <v>22.15242689568651</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-336264.9557388034</v>
+        <v>22.13464783624324</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>525154.8428351029</v>
+        <v>22.18101371223538</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-837975.0352438423</v>
+        <v>22.11489606642593</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-321236.8874826026</v>
+        <v>22.1425087925955</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>475461.9658627537</v>
+        <v>22.1754131234644</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1440971.82656087</v>
+        <v>22.05381295580578</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-1073422.80435907</v>
+        <v>22.0755887654041</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-899282.3876481893</v>
+        <v>22.09165627857239</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1614905.274847171</v>
+        <v>22.05066722855474</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-699062.9508344297</v>
+        <v>22.1101333586249</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-466501.5662341401</v>
+        <v>22.13156095572606</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-330482.0835140098</v>
+        <v>22.14578656539215</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-217758.3836231479</v>
+        <v>22.16084909199611</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-2099419.638579793</v>
+        <v>22.0749239653111</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-187072.221069153</v>
+        <v>22.16085268638252</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-239895.2824197762</v>
+        <v>22.16020693309289</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-1889193.615881356</v>
+        <v>22.09870053232674</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>516490.7853157661</v>
+        <v>22.19757280456386</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>434483.9514564374</v>
+        <v>22.20151507269699</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>568650.7042329799</v>
+        <v>22.22062080748002</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>932477.494119296</v>
+        <v>22.24330768658029</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1142139.291596265</v>
+        <v>22.25063218220737</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>275527.4354737034</v>
+        <v>22.17218768285258</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1383501.746931053</v>
+        <v>22.24217484661582</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1307243.594784885</v>
+        <v>22.26551153940814</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-501819.4588692238</v>
+        <v>22.11521108247921</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>400799.3318214442</v>
+        <v>22.18765445580569</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>761174.2749078209</v>
+        <v>22.22801378520562</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>-1025424.356897069</v>
+        <v>22.06412267556876</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>211593.4364820938</v>
+        <v>22.1635456397976</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>741425.9290027061</v>
+        <v>22.21463735056204</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-981066.3884066734</v>
+        <v>22.08046395069222</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1309747.670709373</v>
+        <v>22.2357423968598</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1887499.304811769</v>
+        <v>22.10902508784028</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-999904.4457375293</v>
+        <v>22.1257791367347</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-549928.1840005927</v>
+        <v>22.14403808751963</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2284799.451599291</v>
+        <v>22.07116665929999</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-215685.8882840075</v>
+        <v>22.15033396199453</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-32649.59037148972</v>
+        <v>22.1557588979785</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1861104.925929945</v>
+        <v>22.09255017204245</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>956897.5765398956</v>
+        <v>22.19082325887258</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>1296595.180183133</v>
+        <v>22.20433363540177</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>984466.4460452467</v>
+        <v>22.22155502710599</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1129795.082885743</v>
+        <v>22.23606012031808</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1521469.60221098</v>
+        <v>22.25976611679839</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-645470.2640713457</v>
+        <v>22.12324241756466</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>456203.8272281328</v>
+        <v>22.19820761341539</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>847566.0357339696</v>
+        <v>22.22534239783228</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-945057.8395501275</v>
+        <v>22.08372004683301</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>54285.74500949204</v>
+        <v>22.14810695852298</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>624049.9939101315</v>
+        <v>22.20884728429457</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-1364030.950491037</v>
+        <v>22.04589880996638</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-445746.799532954</v>
+        <v>22.12898060523028</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>573435.3547837108</v>
+        <v>22.20696214354201</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-1400710.525200119</v>
+        <v>22.06393216627663</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>491332.3782351203</v>
+        <v>22.2089779370294</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-2859983.700168008</v>
+        <v>22.0972286482931</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-2227626.605723908</v>
+        <v>22.11773424654229</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-889846.0716674223</v>
+        <v>22.14369909400321</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-3170247.429132125</v>
+        <v>22.07941675516606</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-1107498.326384775</v>
+        <v>22.14322422430689</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>63084.38387960726</v>
+        <v>22.16258750823098</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-3232677.580776771</v>
+        <v>22.09178726774615</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>603027.5894386502</v>
+        <v>22.17511901184148</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1377005.908078595</v>
+        <v>22.19168544120392</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>613072.2271611468</v>
+        <v>22.17613489129497</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>850714.7203643343</v>
+        <v>22.18718723205235</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1306836.359757056</v>
+        <v>22.20984490194597</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-880423.3687550818</v>
+        <v>22.11550400373558</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>219017.6331573313</v>
+        <v>22.17202826327532</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1181935.141342141</v>
+        <v>22.21551046367083</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1608029.408545498</v>
+        <v>22.08347255426354</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-188658.1785639105</v>
+        <v>22.14019531482629</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>973622.8425368286</v>
+        <v>22.19664448215903</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1656931.119582861</v>
+        <v>22.0668085959889</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-567676.0759312086</v>
+        <v>22.1220121078809</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>871057.7110361762</v>
+        <v>22.19391266665194</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-1859671.767820844</v>
+        <v>22.06917085318794</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>315165.2571614308</v>
+        <v>22.17294447904877</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-313574.1134763378</v>
+        <v>22.15779386424318</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-206698.6579325611</v>
+        <v>22.11963605455277</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>432580.5477021955</v>
+        <v>22.20659051956877</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>673040.4848635342</v>
+        <v>22.25274552697146</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-941790.739557145</v>
+        <v>22.05486020554795</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-559417.4529774586</v>
+        <v>22.10640718123815</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-142960.4391011952</v>
+        <v>22.15039832944793</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-697236.0629282964</v>
+        <v>22.11753640361201</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-261844.3465706689</v>
+        <v>22.13130901134743</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>229770.6443156559</v>
+        <v>22.18256556657728</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-1323521.329544133</v>
+        <v>22.03143800756753</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-928534.8432783869</v>
+        <v>22.05944096367866</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-729968.4958464825</v>
+        <v>22.08448385999225</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-1267616.880074526</v>
+        <v>22.03792239714724</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-462360.466251805</v>
+        <v>22.11991857899125</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23862.61655965857</v>
+        <v>22.19245344328221</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>-190935.4956845947</v>
+        <v>22.13729229920018</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>472166.811702718</v>
+        <v>22.23878637103686</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>696188.1836287839</v>
+        <v>22.30484476557397</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-720041.8559536159</v>
+        <v>22.04732119179394</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-285884.6700907613</v>
+        <v>22.11700102998129</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-97721.10596925337</v>
+        <v>22.17726527219523</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1995918.474222629</v>
+        <v>22.31345817469141</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>939518.2597398595</v>
+        <v>22.27836407467594</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1426118.907139796</v>
+        <v>22.3549133309063</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1661403.890954622</v>
+        <v>22.40206123970035</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>-329374.848829312</v>
+        <v>22.11986740095908</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1283463.839663939</v>
+        <v>22.33923132396195</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1440898.387899068</v>
+        <v>22.37318075042868</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-6065.089784647342</v>
+        <v>22.14883721959741</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>728203.0897399532</v>
+        <v>22.23061842332369</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1016849.031706752</v>
+        <v>22.26539496957809</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-787505.1601199795</v>
+        <v>22.07004226822681</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>389466.0201354523</v>
+        <v>22.21800730827069</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>788122.4085654551</v>
+        <v>22.25403823659638</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-592495.8805462363</v>
+        <v>22.09588853330083</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1725862.99330424</v>
+        <v>22.31381314217049</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>2054035.605052728</v>
+        <v>22.37646121721336</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1509510.634826584</v>
+        <v>22.43865252928663</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1753849.620622982</v>
+        <v>22.5003040786085</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1932683.590524536</v>
+        <v>22.54553251628846</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>135241.5220371155</v>
+        <v>22.19865055798827</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1592400.134524734</v>
+        <v>22.46632542890414</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1654196.067357185</v>
+        <v>22.49802523161406</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2062126.558607723</v>
+        <v>22.31736921657251</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>307936.8233945481</v>
+        <v>22.22225897083856</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>819888.450803081</v>
+        <v>22.28163501021244</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1591221.108932691</v>
+        <v>22.36670612584362</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-735712.5786220243</v>
+        <v>22.05963393650693</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>905262.5380574183</v>
+        <v>22.28460040495031</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>1343621.217420764</v>
+        <v>22.33961372902533</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-528438.1743716818</v>
+        <v>22.11045891398384</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>369524.1955812069</v>
+        <v>22.198524921073</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>900051.5404022996</v>
+        <v>22.25043150103115</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-1052029.16056736</v>
+        <v>22.04538004973399</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>213103.1859677408</v>
+        <v>22.19213445365141</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>802474.2654414203</v>
+        <v>22.25174508907179</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-994577.3858012438</v>
+        <v>22.07412309288829</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1403871.783257298</v>
+        <v>22.29746683669261</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>2219997.992640981</v>
+        <v>22.38500432962208</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1184602.653152726</v>
+        <v>22.40101161132085</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1484008.360461289</v>
+        <v>22.4528301253629</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>2013442.57337143</v>
+        <v>22.53432546689617</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-314743.2529859239</v>
+        <v>22.12173835534952</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1241354.984517765</v>
+        <v>22.41892374981778</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1570329.763962685</v>
+        <v>22.47570737588608</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>2494201.570008565</v>
+        <v>22.26287620430191</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-296794.9569314867</v>
+        <v>22.14073306708824</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>117991.1474893221</v>
+        <v>22.18659256258481</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1150472.777996799</v>
+        <v>22.26389257383196</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-1055138.763582114</v>
+        <v>22.06064790770674</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>594114.1193041506</v>
+        <v>22.22411516346352</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1437879.465001148</v>
+        <v>22.28333009079387</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-997695.2448075193</v>
+        <v>22.10121034872375</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>508788.8192579208</v>
+        <v>22.18601267392696</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1497456.265687394</v>
+        <v>22.24435386634976</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-1304424.635200345</v>
+        <v>22.06547765400473</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>247271.3252200753</v>
+        <v>22.16978529108232</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>1195878.56693769</v>
+        <v>22.23938826100426</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-1437531.2512276</v>
+        <v>22.07061285668969</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1390277.834310075</v>
+        <v>22.24355947910942</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>2923950.101943949</v>
+        <v>22.33275782748794</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1082590.047227594</v>
+        <v>22.29913289523022</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1626648.932532897</v>
+        <v>22.35308024496998</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2586395.22495188</v>
+        <v>22.44714013568951</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-531608.217237689</v>
+        <v>22.09838526512809</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1502464.137960074</v>
+        <v>22.33912590413233</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>2068651.776834075</v>
+        <v>22.41029367874599</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1473420.395348126</v>
+        <v>22.12661450350798</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1885020.082276001</v>
+        <v>22.11417697819779</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-861432.0226806263</v>
+        <v>22.13953345175963</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2815861.645388532</v>
+        <v>22.08195631811142</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2068211.50789186</v>
+        <v>22.10685479326365</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1763091.416209907</v>
+        <v>22.10873730420425</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2582552.250181824</v>
+        <v>22.10528621659471</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-639809.7923451633</v>
+        <v>22.14127922638541</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-497350.0926862251</v>
+        <v>22.14943158452151</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1406945.519182609</v>
+        <v>22.10313281760802</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-1009022.496591201</v>
+        <v>22.1229184954371</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-708517.5661199116</v>
+        <v>22.13471192778954</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1035645.625142274</v>
+        <v>22.11604889686794</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1252487.99015406</v>
+        <v>22.09985113626731</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-682153.5119278927</v>
+        <v>22.13230368085721</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-922782.6397859785</v>
+        <v>22.12688860971272</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-197421.9721061655</v>
+        <v>22.15507812886674</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>568043.6907335836</v>
+        <v>22.18323853169154</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1680025.669694245</v>
+        <v>22.06651083155198</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1160073.280905293</v>
+        <v>22.08953807343377</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-944882.1259599508</v>
+        <v>22.10827284979094</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-1760762.876079908</v>
+        <v>22.07184738390158</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-539797.9059514282</v>
+        <v>22.13011802135964</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-819430.6462410762</v>
+        <v>22.12491394463143</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-564391.6260555077</v>
+        <v>22.13182904074514</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-562044.2806352847</v>
+        <v>22.14350125239172</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-2478514.884978706</v>
+        <v>22.07324469714558</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-605883.4831201162</v>
+        <v>22.13676957080385</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-647607.6280446576</v>
+        <v>22.13783742442169</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-2308215.958351644</v>
+        <v>22.09214467055985</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>128459.5396312949</v>
+        <v>22.17039693455479</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24130.09847370952</v>
+        <v>22.17298571020215</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>214468.3967501831</v>
+        <v>22.18636336763439</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>738917.6609183977</v>
+        <v>22.20795359645506</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>893899.1591983001</v>
+        <v>22.21303290812358</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-588137.6878016648</v>
+        <v>22.12330355161524</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>460838.1274099251</v>
+        <v>22.17769155276548</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>301471.0596029757</v>
+        <v>22.1915757935345</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-611248.7317045199</v>
+        <v>22.12463199755562</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>521362.4199442986</v>
+        <v>22.19145723832141</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>883394.9035354297</v>
+        <v>22.22573509054724</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1228415.888573785</v>
+        <v>22.0731274994067</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>205941.4595989232</v>
+        <v>22.16285410395328</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>779706.9601335033</v>
+        <v>22.21088637084092</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-1129495.521379318</v>
+        <v>22.09421017705485</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>1501696.917043091</v>
+        <v>22.23418921935584</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-2448617.738252435</v>
+        <v>22.10515813052437</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1568567.984952261</v>
+        <v>22.11340540623029</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-1118493.08404938</v>
+        <v>22.12866189895999</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-2738824.279571648</v>
+        <v>22.0700638513298</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-806152.2624753234</v>
+        <v>22.1274856210869</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-557577.3256017383</v>
+        <v>22.13435503276094</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-2395603.549575178</v>
+        <v>22.08703594758323</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>243254.5548845078</v>
+        <v>22.16385403492542</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>669421.4453953817</v>
+        <v>22.17531732960766</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>627828.3692351884</v>
+        <v>22.1880065330849</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>920011.8366502987</v>
+        <v>22.20275086752867</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1208466.180854617</v>
+        <v>22.22181931552136</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1530589.976002729</v>
+        <v>22.08336670461658</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-647484.0694260754</v>
+        <v>22.14086476936751</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-266682.3490566089</v>
+        <v>22.15885956183664</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-1168574.224686279</v>
+        <v>22.09753542236786</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-29366.40051220431</v>
+        <v>22.15672895201234</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>664624.3486103007</v>
+        <v>22.20919568453062</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1621112.883668085</v>
+        <v>22.05837758218865</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-541378.2883980706</v>
+        <v>22.13393024019823</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>593279.5353980273</v>
+        <v>22.20518983607257</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1633602.107399416</v>
+        <v>22.08071995581538</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>448503.168323872</v>
+        <v>22.21093851339728</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-3628037.541246632</v>
+        <v>22.09909955916627</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-3044212.679394774</v>
+        <v>22.11131943399511</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1673714.80267347</v>
+        <v>22.13336020706549</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3870678.443711009</v>
+        <v>22.0812580491316</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-2053396.589560737</v>
+        <v>22.1276182610415</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-742040.9836111149</v>
+        <v>22.14552793999919</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-3984445.15755762</v>
+        <v>22.09137014567328</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-456442.9968570137</v>
+        <v>22.15630729096766</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>515377.2351689757</v>
+        <v>22.1710407807232</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-47153.21789094787</v>
+        <v>22.15747676489081</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>359299.0164825937</v>
+        <v>22.17053306019567</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>728595.4657260504</v>
+        <v>22.18906716260506</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-2067113.379550818</v>
+        <v>22.08731800078095</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-1088754.467608512</v>
+        <v>22.13281448012493</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-426452.7107388101</v>
+        <v>22.16377278657365</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-1835500.754696178</v>
+        <v>22.09907867367808</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-255692.9562660867</v>
+        <v>22.15040544868791</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1063085.170864605</v>
+        <v>22.19958182112745</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-1990511.373674124</v>
+        <v>22.07951416454165</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-712306.6032995433</v>
+        <v>22.13064974515923</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>868292.0569615121</v>
+        <v>22.19568844038748</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-2069208.606118837</v>
+        <v>22.08829399569621</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>322471.3590437786</v>
+        <v>22.1816600383712</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-96993.70828923001</v>
+        <v>22.16998623566875</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-132055.9664326573</v>
+        <v>22.14463890603191</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>610354.9252712562</v>
+        <v>22.22551006896834</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>949095.4759921123</v>
+        <v>22.2626954885827</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-1043499.908503665</v>
+        <v>22.07324928169179</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-424238.9548288076</v>
+        <v>22.13444822228075</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>424.1841847998837</v>
+        <v>22.16907888176002</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-869399.7792723402</v>
+        <v>22.12210033543975</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-256023.1896779319</v>
+        <v>22.14102933086801</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>267125.1487497627</v>
+        <v>22.18757598368967</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-1596401.774369004</v>
+        <v>22.04048920130854</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-1120930.286717813</v>
+        <v>22.07048169162465</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-851043.2172962598</v>
+        <v>22.09981355891616</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-1507611.692808487</v>
+        <v>22.05445232714372</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-451411.0099333758</v>
+        <v>22.13394727331577</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>50914.22612122355</v>
+        <v>22.19696648530329</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-141580.3650780613</v>
+        <v>22.15392705769542</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>650108.9341482604</v>
+        <v>22.24935313262216</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>857735.6775430347</v>
+        <v>22.30142092076514</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-828172.7639234243</v>
+        <v>22.05757757281951</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-259612.9337321918</v>
+        <v>22.13701208349374</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-56327.77577931781</v>
+        <v>22.18947017249314</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>2248404.166987921</v>
+        <v>22.29828054707945</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1030806.308641408</v>
+        <v>22.27553593141189</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1608147.269421919</v>
+        <v>22.34832829972719</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1892423.900022153</v>
+        <v>22.38504877757545</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-439493.8639377653</v>
+        <v>22.1235430142748</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1481750.523671574</v>
+        <v>22.32538248609263</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1603521.795319005</v>
+        <v>22.35134390370238</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-135230.7692286198</v>
+        <v>22.1467085931536</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>831676.0639125016</v>
+        <v>22.22482630304735</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1141558.169162774</v>
+        <v>22.25685697500106</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-929883.2284844632</v>
+        <v>22.07433513548359</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>447748.9207805946</v>
+        <v>22.20733709613433</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>908298.6866448843</v>
+        <v>22.24566878133096</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-679310.7172164569</v>
+        <v>22.10274772202797</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1974291.311248244</v>
+        <v>22.29884977437984</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2306288.650511845</v>
+        <v>22.35178389157885</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1641035.491822911</v>
+        <v>22.40750057803174</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>2027532.96078903</v>
+        <v>22.47112313385488</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>2139619.362909654</v>
+        <v>22.50392754338306</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>97858.4283028895</v>
+        <v>22.18604463791095</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1810672.454754389</v>
+        <v>22.43254819923063</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1871357.258742348</v>
+        <v>22.46073062876542</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>2243755.389163824</v>
+        <v>22.30184430625481</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>365518.1049587196</v>
+        <v>22.22974557455968</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>984418.413940137</v>
+        <v>22.2884342896306</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1814179.038366104</v>
+        <v>22.35726990395396</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-893412.978675209</v>
+        <v>22.07423575988647</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>1053133.494928495</v>
+        <v>22.27973813755783</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1508197.788916575</v>
+        <v>22.32445445577157</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-716977.8385104622</v>
+        <v>22.11445438030743</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>392869.1624357394</v>
+        <v>22.19717837695506</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1019227.211367782</v>
+        <v>22.24453965830134</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>-1206499.061523227</v>
+        <v>22.05523940174406</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>269161.3950768876</v>
+        <v>22.18698710934201</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>967732.4673133228</v>
+        <v>22.24567586866798</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-1102121.112723661</v>
+        <v>22.08590799944967</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1587477.765423581</v>
+        <v>22.28562597892318</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2511249.06479875</v>
+        <v>22.36036498678088</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1359700.71355895</v>
+        <v>22.37855758338439</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1770272.661118577</v>
+        <v>22.43424813953608</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2257222.465289535</v>
+        <v>22.49798830596607</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-393130.3039153138</v>
+        <v>22.12394011454494</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1463988.654589758</v>
+        <v>22.39477670023389</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1825284.670183152</v>
+        <v>22.44496194548712</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2818207.960483214</v>
+        <v>22.25823256760447</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>-253836.6392110821</v>
+        <v>22.16255493349513</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>380529.5276136857</v>
+        <v>22.21086711723587</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1454018.331806571</v>
+        <v>22.27332327772501</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>-1199232.744794229</v>
+        <v>22.07941763802165</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>778491.7806693385</v>
+        <v>22.23321535492491</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1727794.458081278</v>
+        <v>22.2809564724544</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>-1192794.717345728</v>
+        <v>22.11030702748686</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>602774.5449883731</v>
+        <v>22.18845736783905</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1718072.018325417</v>
+        <v>22.24134212607113</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>-1483801.103015369</v>
+        <v>22.07657789738236</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>331867.5616408426</v>
+        <v>22.17177547544873</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1398472.698337106</v>
+        <v>22.23710254010748</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>-1508816.325668035</v>
+        <v>22.08786839472762</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1742356.064262124</v>
+        <v>22.24265519706312</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>3398011.852150292</v>
+        <v>22.31995123759044</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1331378.911132103</v>
+        <v>22.2962790486456</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2078417.123677444</v>
+        <v>22.35345526551324</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>3000634.350531432</v>
+        <v>22.42849240628539</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>-583766.2148717516</v>
+        <v>22.10744189490496</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1873925.186185985</v>
+        <v>22.33109821183789</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2434360.951829507</v>
+        <v>22.39217928241615</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-1390292.877306344</v>
+        <v>22.12318593203785</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-844861.2998191495</v>
+        <v>22.14485567348445</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>881611.8972891797</v>
+        <v>22.17735975776288</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-3057258.897934627</v>
+        <v>22.08093448829718</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1519434.100160886</v>
+        <v>22.13702756761311</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-697242.1387348949</v>
+        <v>22.14315620244356</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-2966278.146991787</v>
+        <v>22.10486569976656</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2014762.559588138</v>
+        <v>22.19764785814933</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>2343303.952418406</v>
+        <v>22.20893527467699</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-186416.1239714889</v>
+        <v>22.159345431858</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>43838.7927680377</v>
+        <v>22.17724682278402</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>155130.0190790859</v>
+        <v>22.18183294980865</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-1365276.743191819</v>
+        <v>22.1191878994665</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-329625.6030713905</v>
+        <v>22.14100607125754</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>939119.637788129</v>
+        <v>22.1849529604465</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-834400.2123038594</v>
+        <v>22.12235599379666</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>92795.43273408663</v>
+        <v>22.16211021096644</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>585476.1059295465</v>
+        <v>22.17543137143265</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-1699443.235619922</v>
+        <v>22.05560825862498</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-916454.2251721709</v>
+        <v>22.10001357542065</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-942489.3470089934</v>
+        <v>22.09519601071172</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-2003909.77709123</v>
+        <v>22.05422371696721</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-60579.96818428668</v>
+        <v>22.15015201221969</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-5896.022189703795</v>
+        <v>22.13663974594964</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>1431213.208929114</v>
+        <v>22.18937276238742</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1721289.317850758</v>
+        <v>22.2019416495062</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>-2030447.471867233</v>
+        <v>22.09607674146792</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>1240864.775627815</v>
+        <v>22.2050580493669</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>1375856.956348669</v>
+        <v>22.20322874331913</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-2061897.979092218</v>
+        <v>22.10896776310713</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3383861.071647519</v>
+        <v>22.25911291864817</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>3219573.462264317</v>
+        <v>22.25747680595085</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2281458.261322699</v>
+        <v>22.28594590368603</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2688080.863053157</v>
+        <v>22.30460526923835</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2795413.91514186</v>
+        <v>22.3021805622571</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-287708.6682604902</v>
+        <v>22.15186839677152</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>2497340.625822309</v>
+        <v>22.26183292640953</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2716405.157066844</v>
+        <v>22.28298727022141</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-397964.3706662405</v>
+        <v>22.12933097692462</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>981450.660318376</v>
+        <v>22.21841216250472</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>997391.7224992112</v>
+        <v>22.22745767489461</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>-1191000.403907205</v>
+        <v>22.07490922311468</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>666648.4818312322</v>
+        <v>22.20280019658031</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>745982.0716764599</v>
+        <v>22.2134991081296</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-1271912.510377203</v>
+        <v>22.08351090571389</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>2139459.676486923</v>
+        <v>22.27685315471956</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-2145661.184079057</v>
+        <v>22.11564139705863</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>81625.80122946278</v>
+        <v>22.1684155711057</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>896297.4998488697</v>
+        <v>22.1847994695435</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-2433844.339061664</v>
+        <v>22.09310186734424</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>973112.9167288622</v>
+        <v>22.19495257207213</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1463524.388367485</v>
+        <v>22.19922030492415</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-2207698.329442949</v>
+        <v>22.10373216335318</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3487172.077666552</v>
+        <v>22.25024724246208</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3811624.583012685</v>
+        <v>22.25789477804437</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>2906118.689809007</v>
+        <v>22.29157345227609</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3143094.730303219</v>
+        <v>22.30152469418103</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3372460.882229539</v>
+        <v>22.31557828926543</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-1684946.880633035</v>
+        <v>22.11164097373067</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>1197982.053511518</v>
+        <v>22.22304827528796</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1749668.235402002</v>
+        <v>22.24808010214203</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-850822.2508018265</v>
+        <v>22.10509284003603</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>610125.2964367921</v>
+        <v>22.18577417586086</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>898048.1560851093</v>
+        <v>22.21398970273629</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1334241.507841153</v>
+        <v>22.06353232013717</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>250848.3368557163</v>
+        <v>22.17671884923812</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>789320.5514713301</v>
+        <v>22.21152921982777</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1386461.338997621</v>
+        <v>22.07342233891251</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1606434.58639395</v>
+        <v>22.25514683504666</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-3488258.612079117</v>
+        <v>22.10486203976329</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-1245078.153774322</v>
+        <v>22.15075501140664</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1302032.212919558</v>
+        <v>22.17997941937909</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-3708468.144509082</v>
+        <v>22.09436490157953</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-860971.944230889</v>
+        <v>22.17340201588752</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2138199.332339356</v>
+        <v>22.1969061799704</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-3895856.296993963</v>
+        <v>22.10205228007795</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>3684882.522500564</v>
+        <v>22.22102044571768</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>5199086.057042925</v>
+        <v>22.23921619951464</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2998626.426223209</v>
+        <v>22.23647078382522</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3393146.241645603</v>
+        <v>22.24837661618358</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>4110113.645136287</v>
+        <v>22.26536486672011</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-2354604.596277204</v>
+        <v>22.10691564602244</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>897349.1461675363</v>
+        <v>22.19334464149871</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2603327.131954934</v>
+        <v>22.23777437104041</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1740978.404574908</v>
+        <v>22.0935727928804</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>121019.4477455844</v>
+        <v>22.15846413174631</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1141081.105296721</v>
+        <v>22.19452485448811</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-2014439.739097015</v>
+        <v>22.07033322481488</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-376935.4054948114</v>
+        <v>22.14647474416929</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>893197.1488863645</v>
+        <v>22.19043874357573</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-2293797.104973154</v>
+        <v>22.07112737863588</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1063039.424246949</v>
+        <v>22.20140457239875</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>80766.29759185936</v>
+        <v>22.17104404675896</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-34594.33084431359</v>
+        <v>22.14964491736725</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>595921.2171418954</v>
+        <v>22.21007469427658</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>659178.4066637998</v>
+        <v>22.2176407572917</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-891297.6562696258</v>
+        <v>22.0664256734732</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-465265.0610149832</v>
+        <v>22.11678274994253</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42957.04467420087</v>
+        <v>22.1545065804886</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-880360.2164253875</v>
+        <v>22.11100275248508</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-279742.2326155323</v>
+        <v>22.13600839734269</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>467812.5529281289</v>
+        <v>22.18304774368513</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1557155.421256489</v>
+        <v>22.03659550103116</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-914882.4527566158</v>
+        <v>22.0858824915827</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-558065.4049611108</v>
+        <v>22.10625871498728</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1550794.749024278</v>
+        <v>22.04385004773937</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-142876.6237752491</v>
+        <v>22.15644224052689</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>830145.9675144433</v>
+        <v>22.21702827046155</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>63993.82772602088</v>
+        <v>22.16772861728065</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>805080.5930365471</v>
+        <v>22.24449712448022</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1084707.22478453</v>
+        <v>22.29777635774433</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-853691.6760954746</v>
+        <v>22.04600562620452</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-168503.3428680399</v>
+        <v>22.12737915891574</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>352205.5063474189</v>
+        <v>22.19549613359008</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2411598.318188285</v>
+        <v>22.31042257409957</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1313001.681937436</v>
+        <v>22.31103107190144</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1790024.223498166</v>
+        <v>22.36024772866504</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1738017.798699172</v>
+        <v>22.36415566247499</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-319014.2661788858</v>
+        <v>22.12555071492197</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1566465.837878915</v>
+        <v>22.33518996813741</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1631117.031458441</v>
+        <v>22.35384182265018</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-146506.9036570169</v>
+        <v>22.13240543497074</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>873884.2083285395</v>
+        <v>22.22881976157647</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1131487.064082658</v>
+        <v>22.24649194813029</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-1048761.039134052</v>
+        <v>22.0688259413566</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>753739.9426085147</v>
+        <v>22.24062420317304</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>960018.7440137224</v>
+        <v>22.25170771807064</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-1024398.254871314</v>
+        <v>22.08371632201313</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2104410.976983532</v>
+        <v>22.33107656076667</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2492071.496451815</v>
+        <v>22.36429252910789</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1792936.360552551</v>
+        <v>22.43501608683504</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2163369.338990418</v>
+        <v>22.47640500643013</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2284961.358390318</v>
+        <v>22.50980544427069</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-243950.4340663927</v>
+        <v>22.16379276180986</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1851794.175999353</v>
+        <v>22.43473615216426</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1918531.7620775</v>
+        <v>22.46271879928845</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2727184.566390865</v>
+        <v>22.31686213176954</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1039411.281011962</v>
+        <v>22.27353629607506</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1443378.586854013</v>
+        <v>22.30695082632061</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1860507.642083572</v>
+        <v>22.34702997195124</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-680866.3920435202</v>
+        <v>22.07938242155943</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1270257.757141526</v>
+        <v>22.29359427006887</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1621590.701826514</v>
+        <v>22.33037413985028</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-667676.8624387159</v>
+        <v>22.09830788160627</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>522264.2275587036</v>
+        <v>22.19873931257081</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>1055101.058167866</v>
+        <v>22.23166142537979</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-1232733.678048628</v>
+        <v>22.04675719867099</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>674311.0360222246</v>
+        <v>22.21687296259521</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>1070805.767661769</v>
+        <v>22.24812413449708</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1264441.241307497</v>
+        <v>22.0641449384274</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1946301.130527558</v>
+        <v>22.31352298119012</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2812926.877164313</v>
+        <v>22.36856850386001</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1693576.738591311</v>
+        <v>22.4075808315065</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1971449.928409228</v>
+        <v>22.43907785499773</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2520099.58204734</v>
+        <v>22.50721454567849</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-643498.5811878352</v>
+        <v>22.09684864902991</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1576688.976405529</v>
+        <v>22.39356575052452</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1900936.860066084</v>
+        <v>22.44225207247409</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>2985082.892113032</v>
+        <v>22.26146897273152</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>98472.08031044721</v>
+        <v>22.17499187383898</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>598603.3119918585</v>
+        <v>22.20614310151111</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1254911.890339821</v>
+        <v>22.24689922073561</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-1299188.409174719</v>
+        <v>22.07091351118153</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1207.13152629272</v>
+        <v>22.2250606535622</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1739610.827330168</v>
+        <v>22.27634834510172</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-1459592.517170154</v>
+        <v>22.08635500075194</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>390628.4613998163</v>
+        <v>22.17447054717325</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1612866.659010851</v>
+        <v>22.2249207735532</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-1739871.51002204</v>
+        <v>22.06043687196406</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>404479.457754315</v>
+        <v>22.18046025247634</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1432611.921355457</v>
+        <v>22.23478875129087</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1979093.138868832</v>
+        <v>22.06257036279719</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1826299.753439551</v>
+        <v>22.25187871669155</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3672840.803017294</v>
+        <v>22.32367866321304</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1497180.886982859</v>
+        <v>22.305326486189</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2153007.021755989</v>
+        <v>22.3449509764182</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3217194.671836791</v>
+        <v>22.4263415403848</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>-1005015.691578752</v>
+        <v>22.07760127483836</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1670773.373860118</v>
+        <v>22.31633744649116</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>2632599.372134869</v>
+        <v>22.39008414978084</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.675</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.104</v>
+        <v>14.812</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.26</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.987</v>
+        <v>12.357</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.951</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.091</v>
+        <v>4.049</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.11968605424083</v>
+        <v>11.77870325629035</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.11106801982952</v>
+        <v>9.216480110163246</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.13958654962163</v>
+        <v>22.4720930023914</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.09278893657216</v>
+        <v>3.224904100707672</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.13096484557992</v>
+        <v>20.54486042080467</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.12952263305219</v>
+        <v>23.72657224687223</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.10260276483508</v>
+        <v>6.335576303982098</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.154986890865</v>
+        <v>34.05539535089532</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.16089215899243</v>
+        <v>34.76033355611565</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.10330536871707</v>
+        <v>10.81486933137549</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.12037093815748</v>
+        <v>13.54574861579347</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.13041920901289</v>
+        <v>14.12717683292257</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.14397881526587</v>
+        <v>24.47988802054953</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.11303420228758</v>
+        <v>15.93608134527676</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.15009077885074</v>
+        <v>34.426173171903</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.13016615916464</v>
+        <v>15.07368368563052</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.16585671786375</v>
+        <v>23.06671494884444</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.19083408694583</v>
+        <v>36.78615678258243</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.08929441507188</v>
+        <v>10.07476024971456</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.12458723014774</v>
+        <v>17.18833537638199</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.13077436349119</v>
+        <v>19.61483788665947</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.07403646048606</v>
+        <v>2.519934930278652</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.15340990336731</v>
+        <v>19.97592747241821</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.12630375406954</v>
+        <v>20.74374772661382</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.13889070796878</v>
+        <v>21.71298337703831</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.14957365692585</v>
+        <v>24.78534191557949</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>22.0875084570677</v>
+        <v>2.774817233680533</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.16742192644403</v>
+        <v>31.29333500413733</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.16126561766931</v>
+        <v>29.99390267738292</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.09238275508777</v>
+        <v>5.788064561521388</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.19094935141169</v>
+        <v>34.96460872017128</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.18746721426079</v>
+        <v>34.32955623344812</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22.19773737612305</v>
+        <v>37.41611000213798</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.212711802858</v>
+        <v>39.68495349176164</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.21626267488168</v>
+        <v>43.57140332754447</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.15906617837213</v>
+        <v>31.72925585997771</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.20100820689549</v>
+        <v>40.49079180939167</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22.21606075785663</v>
+        <v>42.18285530588708</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.13310725456051</v>
+        <v>19.99970878322343</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.20934429880693</v>
+        <v>34.54293944658002</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>22.23461528973079</v>
+        <v>38.72592114418739</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.09771024598071</v>
+        <v>11.33306893031877</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.20284038278762</v>
+        <v>36.72436254191679</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.23354467363764</v>
+        <v>42.99024136446372</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.26434546705078</v>
+        <v>53.04039469169052</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>22.10999698516038</v>
+        <v>6.069694918396443</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.12670661445018</v>
+        <v>16.57484187236561</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.13899897512471</v>
+        <v>22.2405321907229</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.08749586837511</v>
+        <v>1.19599722067203</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.16319311676859</v>
+        <v>31.9990941639658</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.1611442029228</v>
+        <v>31.9882731895919</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.09135300595796</v>
+        <v>7.702501295987936</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.19115537659757</v>
+        <v>42.2410048718122</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22.19481645769361</v>
+        <v>44.57274908106621</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.20581340515306</v>
+        <v>44.45517522207027</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22.21351919077585</v>
+        <v>44.71079669886885</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>22.23130649930714</v>
+        <v>51.56968286608824</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.12177212457003</v>
+        <v>13.61385052335905</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.17127377118857</v>
+        <v>27.06396065535097</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.18892744940739</v>
+        <v>33.52210267264139</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.11018286183191</v>
+        <v>14.4550516230792</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.18184473763116</v>
+        <v>32.7597111818906</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22.22261582384989</v>
+        <v>37.37381015101182</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22.08682548110852</v>
+        <v>7.629119172640468</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.17992275965298</v>
+        <v>27.44925862976087</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22.23194516858486</v>
+        <v>40.25455171813019</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.08973853200842</v>
+        <v>4.546169127289179</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.24926893815926</v>
+        <v>44.36710377854683</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22.10121173085894</v>
+        <v>2.334902136995254</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.12217455607882</v>
+        <v>9.13161107356353</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.14375427234537</v>
+        <v>21.11373927557205</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.09719969825461</v>
+        <v>2.385692088549774</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.15951314739686</v>
+        <v>27.9194853153079</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.17294764879331</v>
+        <v>35.75047550755443</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.0960456379451</v>
+        <v>2.214900348805717</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.18193418960448</v>
+        <v>39.40940215931509</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.1913528185941</v>
+        <v>43.94022317877133</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.17291154772539</v>
+        <v>40.5218165210919</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.18152482122186</v>
+        <v>41.51346634780428</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.19992977243797</v>
+        <v>48.37299067892508</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22.1226542321352</v>
+        <v>11.60054102711326</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.16174052634123</v>
+        <v>20.75121902320165</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.19682462192805</v>
+        <v>37.43203256555513</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>22.10607024860656</v>
+        <v>7.603545815500933</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.17093782189657</v>
+        <v>28.02722598562303</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.21248114702921</v>
+        <v>38.34140403745339</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.10063811193145</v>
+        <v>10.34167757212171</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.16788206728157</v>
+        <v>28.99455809439557</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.22007753913345</v>
+        <v>43.56269035029993</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>22.0920453138861</v>
+        <v>2.850685341374191</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.21265893785651</v>
+        <v>38.38221771389046</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.18784818058359</v>
+        <v>24.74021615793432</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.15991856629726</v>
+        <v>23.78224106609579</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.24267675290121</v>
+        <v>42.2068743742299</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.27815050787812</v>
+        <v>45.23561942835117</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.09553082025782</v>
+        <v>8.145043223367725</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.16043724953084</v>
+        <v>17.3181952563375</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.18397107570045</v>
+        <v>26.10083440287523</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.12109011321818</v>
+        <v>11.45897271663229</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.14056334508097</v>
+        <v>19.81847282492767</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.19346110989336</v>
+        <v>31.93674216906206</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.06332021893106</v>
+        <v>6.24156893684097</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.10077874590335</v>
+        <v>16.0465562878923</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.12656102028542</v>
+        <v>19.75230249666563</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.04944187480006</v>
+        <v>1.745197704957224</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.14364297774339</v>
+        <v>19.46694918985216</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.21268901206224</v>
+        <v>32.22429449158664</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.16113977335842</v>
+        <v>22.04125983414507</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.26348056254783</v>
+        <v>47.82901946650972</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.32125816829873</v>
+        <v>54.80155230145761</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>22.05520638844867</v>
+        <v>3.898048271898752</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.14769045172617</v>
+        <v>20.9213449280857</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.19490047661473</v>
+        <v>27.77592867891936</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.31804774269359</v>
+        <v>61.96558704957225</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22.30318356847836</v>
+        <v>53.90051195459344</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22.36926585288915</v>
+        <v>67.25088142214824</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>22.40407340099536</v>
+        <v>71.7802243441707</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.15161279222277</v>
+        <v>21.26075691156474</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.36211247633608</v>
+        <v>62.52687833138135</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>22.3724512900662</v>
+        <v>62.44847203947188</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.14800698372235</v>
+        <v>24.28181078403618</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.228691594423</v>
+        <v>38.82556819799019</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>22.26066342503821</v>
+        <v>47.28118410466487</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.09434668927416</v>
+        <v>11.6500584115963</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.23988076710427</v>
+        <v>40.91141154959741</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>22.26824689968991</v>
+        <v>49.14615623890484</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.09596060243372</v>
+        <v>9.102697890832882</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.3121553105759</v>
+        <v>62.85890896389292</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>22.36554338129938</v>
+        <v>74.55434834427389</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>22.42395757802327</v>
+        <v>71.18947322220264</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>22.48486521135774</v>
+        <v>84.70569687857773</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>22.52269479802421</v>
+        <v>91.74576789571364</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.1786101625555</v>
+        <v>26.74765473933939</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>22.44760760287321</v>
+        <v>77.62759999957873</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.46411139201977</v>
+        <v>77.96860260184405</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>22.32727767424065</v>
+        <v>64.7497156494358</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.26318258674468</v>
+        <v>40.72391230839545</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.31324512440504</v>
+        <v>51.74911824949156</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.38079280425852</v>
+        <v>69.65764756368854</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.10610321221343</v>
+        <v>12.71628019861897</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.32485889988295</v>
+        <v>53.98640051696592</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.11921968654319</v>
+        <v>15.20380404009004</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.20768777992072</v>
+        <v>33.23377189111253</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.25153984342525</v>
+        <v>44.82920845939253</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.07862056296172</v>
+        <v>8.321770789747948</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.22512658011083</v>
+        <v>38.72425574460559</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.27114120441247</v>
+        <v>49.3331493548224</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.08370790116435</v>
+        <v>4.200800997704835</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.30669698587668</v>
+        <v>58.61767266999081</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.37855023614528</v>
+        <v>78.12391149279644</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.40080842284559</v>
+        <v>64.07602714055223</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.45199743760462</v>
+        <v>75.53783235328189</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>22.52023104913773</v>
+        <v>92.30370409797477</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>22.12077439348184</v>
+        <v>15.0093176085777</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.41817846358297</v>
+        <v>63.95544396093833</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.45385488028358</v>
+        <v>72.80489031729313</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22.27962868249272</v>
+        <v>58.43735467419975</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.183719757139</v>
+        <v>25.92653201256865</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22.22797935465614</v>
+        <v>32.46291591235349</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.29205867238579</v>
+        <v>49.46218811758361</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.10440305294243</v>
+        <v>9.962687883898454</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>22.27122751656969</v>
+        <v>45.41423265046151</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.30652561489829</v>
+        <v>54.6170476797177</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.11368147934238</v>
+        <v>10.38990802473982</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.19858176695649</v>
+        <v>33.58199973286306</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.25180852190101</v>
+        <v>49.63764239172436</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.09687751615621</v>
+        <v>11.91208903621709</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.20317253008498</v>
+        <v>39.77062149888666</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.26348265077479</v>
+        <v>54.00793708716304</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.08394242961814</v>
+        <v>3.746803423529304</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.25968535138961</v>
+        <v>51.331335721401</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.33698551552904</v>
+        <v>76.86441264971454</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.31202883977767</v>
+        <v>57.63690192054426</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.36999975312214</v>
+        <v>69.91007848880125</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22.45170177223663</v>
+        <v>92.3472456740007</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>22.11198383742514</v>
+        <v>13.83992049195924</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.35547110453187</v>
+        <v>62.2121549140202</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.40881211462467</v>
+        <v>76.43424867357702</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.12846989783115</v>
+        <v>18.49233450469902</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>22.22902081706079</v>
+        <v>35.66276346007638</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.283371841481</v>
+        <v>49.47629960824037</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.09259946818199</v>
+        <v>3.659018152813104</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.27124608197542</v>
+        <v>43.81997035076311</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.28906805467746</v>
+        <v>50.55589426968405</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.14341742580868</v>
+        <v>8.953490151766211</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.37753123955821</v>
+        <v>84.24516996192612</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.40134266275724</v>
+        <v>83.11774778711975</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.29727492480452</v>
+        <v>40.41871470573162</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.32681398270222</v>
+        <v>45.6045898825671</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.33834290906766</v>
+        <v>43.33815543362044</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.16590016938359</v>
+        <v>21.08482831640103</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.23413686927232</v>
+        <v>40.23135003150156</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.32369163501993</v>
+        <v>68.44434595983375</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.10950984455416</v>
+        <v>19.1347411989627</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.22318337022142</v>
+        <v>34.24180917844249</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.23765548838249</v>
+        <v>39.79037583301191</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.00450263590071</v>
+        <v>-2.370949087043297</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.14897351403429</v>
+        <v>17.61604829988367</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.14499585374654</v>
+        <v>21.27505126801623</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.02360622108882</v>
+        <v>-0.3413799485458391</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.2643586138418</v>
+        <v>37.18839644843499</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.1646242970256</v>
+        <v>37.10756451787647</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.3059194554858</v>
+        <v>61.62944681334808</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.32158286835175</v>
+        <v>60.31973709436018</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.11719784815335</v>
+        <v>9.844612700027403</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.36775631323922</v>
+        <v>64.37129471211168</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.35950427943231</v>
+        <v>60.87288133235965</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.15445133646019</v>
+        <v>11.53732642567619</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.46559974294438</v>
+        <v>93.9420097557295</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.45836066522811</v>
+        <v>83.67179711180859</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.49171956310617</v>
+        <v>79.22432422984642</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.51806689205497</v>
+        <v>90.43291659184086</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.50281837985586</v>
+        <v>84.09067444744768</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.22106865094936</v>
+        <v>34.09612914267646</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.39317819074886</v>
+        <v>69.58245493281505</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.43725223213385</v>
+        <v>77.60792321209259</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.14174067960868</v>
+        <v>28.84575655407705</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.31672962844939</v>
+        <v>51.09567327811626</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.30594706878233</v>
+        <v>48.94291175019525</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.03299817332123</v>
+        <v>3.75905315995703</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.28566944565489</v>
+        <v>41.33625444768673</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.27866506226814</v>
+        <v>43.46496669720328</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.06174901308384</v>
+        <v>7.494568176792551</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.42887896375198</v>
+        <v>68.9752820313939</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.11915829617045</v>
+        <v>11.92830104921087</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.26137863764098</v>
+        <v>44.26794579883394</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.27696611946616</v>
+        <v>45.68501438172085</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.09962367984488</v>
+        <v>4.824176632136385</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.34201824793736</v>
+        <v>61.14543533515682</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.33511770460656</v>
+        <v>57.89347619433457</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.13096231860067</v>
+        <v>6.798749575522223</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.43700972820678</v>
+        <v>90.69144401832094</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.43639744490221</v>
+        <v>82.60974566350839</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.49225945501209</v>
+        <v>95.56777945798663</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22.51048045193782</v>
+        <v>106.292976988222</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.50776248490378</v>
+        <v>97.20410878970456</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.15008752400631</v>
+        <v>8.222480749780857</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.32952400616385</v>
+        <v>47.12981268164678</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.37109490603427</v>
+        <v>58.49928435392221</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.09545450236526</v>
+        <v>20.56960764533675</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.26370270068438</v>
+        <v>47.15922713061684</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.27011888961481</v>
+        <v>46.11410498525689</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.01058970521768</v>
+        <v>2.88404771996538</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.24926034490856</v>
+        <v>39.54520063062297</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.26359504002806</v>
+        <v>44.90935908502598</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.03655605224661</v>
+        <v>7.225176806970644</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.39121052400428</v>
+        <v>67.20964026565983</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.09167054435657</v>
+        <v>7.012998544326546</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.22075593695888</v>
+        <v>37.73627589474869</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.25787214613282</v>
+        <v>47.57867948144219</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.10514922979902</v>
+        <v>9.432784649319855</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.31016120044508</v>
+        <v>61.90112930888365</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.33294300547798</v>
+        <v>68.05757043568818</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.12596738328633</v>
+        <v>9.432635493396626</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.38599273323235</v>
+        <v>96.87766124493051</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.40518790188356</v>
+        <v>93.75614038936533</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.40039498825169</v>
+        <v>89.92776843348796</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.4255991082547</v>
+        <v>99.46515009525342</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.4348154866645</v>
+        <v>98.94743496360718</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.13341033810076</v>
+        <v>10.16961812729217</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.29204432860119</v>
+        <v>45.98558418310427</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.35926497387358</v>
+        <v>64.70256298278234</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.07152353495215</v>
+        <v>14.93311971921479</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.22063175717596</v>
+        <v>42.3832541046643</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.24802943081659</v>
+        <v>47.65732764182998</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.03800185014795</v>
+        <v>4.239961829997355</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>22.22796960975932</v>
+        <v>38.95174453337125</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.2638600478281</v>
+        <v>48.47717139831348</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.04829941957466</v>
+        <v>7.459907966097251</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.3296939906193</v>
+        <v>61.88584869645912</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>22.28504430317198</v>
+        <v>40.69478071139833</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.23380120581342</v>
+        <v>35.21213405570241</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.32976362836977</v>
+        <v>49.73569811303811</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.34093724144965</v>
+        <v>51.18936706216756</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.06987729802347</v>
+        <v>15.22177889646383</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.23099564176132</v>
+        <v>36.21170003485943</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.27914580062283</v>
+        <v>46.56516213763497</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.10564303987969</v>
+        <v>17.34026289790981</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.20808027515652</v>
+        <v>32.8485376005854</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.25957708736258</v>
+        <v>44.36095693163782</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.99948642973807</v>
+        <v>1.264643629496451</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.15287853920206</v>
+        <v>20.72521578544354</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.17153250620299</v>
+        <v>31.41110197941638</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.02507382130101</v>
+        <v>9.147601300701243</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.29540029242795</v>
+        <v>47.63425135479038</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.3614554664169</v>
+        <v>67.4637644705552</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.28598776431255</v>
+        <v>44.13197631729506</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.38060330264738</v>
+        <v>60.61079927986694</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.41904055238361</v>
+        <v>67.32493990521789</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.04983099199228</v>
+        <v>15.99876953079104</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.25035955037036</v>
+        <v>38.43272958933223</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.34032600553039</v>
+        <v>55.96848914405935</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.44377085770111</v>
+        <v>70.91138057281763</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.47091776161761</v>
+        <v>68.66917895121746</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.54666265896725</v>
+        <v>79.21604223498646</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.53093610629989</v>
+        <v>77.06381757185558</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.16153978204723</v>
+        <v>27.33120754882415</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.51796393162792</v>
+        <v>75.55456659926207</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.51457926587643</v>
+        <v>74.27783493275624</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.13064179796124</v>
+        <v>29.1344570493259</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.32374967615157</v>
+        <v>51.53685763964406</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.3126848727107</v>
+        <v>48.94148426022663</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.02148463274456</v>
+        <v>3.688075571554407</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.3343571948261</v>
+        <v>46.92952433020648</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.3118454380723</v>
+        <v>46.18200805182988</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.05190117442745</v>
+        <v>8.112593943438313</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.49712104595952</v>
+        <v>78.03537888023847</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.50130197339233</v>
+        <v>78.59000475003386</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.6249551937568</v>
+        <v>83.62020582395685</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.66715715253515</v>
+        <v>90.77406091926041</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.65104538530564</v>
+        <v>88.294782333157</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.1908526754481</v>
+        <v>28.11222478115896</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.62601063509922</v>
+        <v>85.58963252331603</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.63158404102046</v>
+        <v>85.00487909752628</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.43409660283407</v>
+        <v>75.47263869736879</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.42658973590328</v>
+        <v>67.25525347198007</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.48706223272341</v>
+        <v>78.17490941221254</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.50573942723041</v>
+        <v>80.56068734061014</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.08978940436176</v>
+        <v>15.80513814378333</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.46108099477529</v>
+        <v>72.09849502186748</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.47047597936272</v>
+        <v>72.11074400050003</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>22.07061993725558</v>
+        <v>18.63486802970713</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>22.27369158932608</v>
+        <v>46.06113501356584</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.2722180212076</v>
+        <v>44.53129387561648</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.98695357657252</v>
+        <v>0.7490991969604437</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.30386190235058</v>
+        <v>47.98073840896099</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.29487066282756</v>
+        <v>46.64367636141041</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.01548961643224</v>
+        <v>3.547105340932642</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>22.46643587511873</v>
+        <v>76.61379969749935</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.48780934918402</v>
+        <v>79.25572213253859</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.59726938262826</v>
+        <v>85.95103202038632</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.63224003624337</v>
+        <v>93.30468689940811</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.64710899495276</v>
+        <v>93.66660139084873</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.09614263359956</v>
+        <v>12.19796818658506</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.57581749675217</v>
+        <v>81.16259982400753</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.59327950171074</v>
+        <v>82.0826372570496</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.38308315738556</v>
+        <v>75.08306775941823</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.29731719639163</v>
+        <v>49.31930983044111</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.36213334055531</v>
+        <v>63.79171076114018</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.39221635699229</v>
+        <v>67.98793767230524</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.08035136982891</v>
+        <v>15.91541583636744</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.38605114872185</v>
+        <v>68.10179822161466</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.42484572888125</v>
+        <v>75.61902883759652</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.05599069113778</v>
+        <v>9.612781499047721</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.24326151772027</v>
+        <v>41.31047723654805</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.27672448716613</v>
+        <v>47.60638795252619</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.03179712912151</v>
+        <v>1.655539702525509</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.28280651199784</v>
+        <v>44.21225631403013</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.31593534261156</v>
+        <v>51.00523145933757</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.03772803624121</v>
+        <v>2.622395295751144</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.40355672423146</v>
+        <v>70.50498911593945</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.45991858956024</v>
+        <v>83.21067749016366</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.48017700769602</v>
+        <v>74.70269987678833</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.53465082992258</v>
+        <v>87.13232848388674</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.58200344699083</v>
+        <v>94.96979987595982</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.08272320576129</v>
+        <v>9.715764095289996</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.50097532875309</v>
+        <v>76.98862907007288</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.56064783149581</v>
+        <v>85.89396805872299</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.12776014334777</v>
+        <v>15.13175199540924</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.118033914517</v>
+        <v>11.10417924039506</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.14967593103425</v>
+        <v>21.20249214436359</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.08032680686781</v>
+        <v>0.2148607500116313</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.11917867377168</v>
+        <v>9.899577993356816</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.12008268625388</v>
+        <v>12.95864573661487</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.10819840683145</v>
+        <v>5.611308840702915</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.15583572980616</v>
+        <v>25.66332458275791</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.16608111923221</v>
+        <v>26.40743770253785</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.11217038349835</v>
+        <v>10.26622472108988</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.132416584821</v>
+        <v>14.64394766755019</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.1467214329334</v>
+        <v>17.10710524831905</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.15242689568651</v>
+        <v>23.45298809042585</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.13464783624324</v>
+        <v>20.36065420417289</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.18101371223538</v>
+        <v>32.85173041663564</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.11489606642593</v>
+        <v>11.66590175573832</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.1425087925955</v>
+        <v>20.03431375308882</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.1754131234644</v>
+        <v>32.93660144269727</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.05381295580578</v>
+        <v>-1.640780802544185</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.0755887654041</v>
+        <v>5.214834496797216</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.09165627857239</v>
+        <v>8.462944634284423</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.05066722855474</v>
+        <v>-1.984156825003318</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.1101333586249</v>
+        <v>13.45324796825756</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.13156095572606</v>
+        <v>20.31291880933254</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.14578656539215</v>
+        <v>21.74858804483432</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.16084909199611</v>
+        <v>22.93837310215807</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.0749239653111</v>
+        <v>-0.2850460815781304</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.16085268638252</v>
+        <v>22.96258511084136</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.16020693309289</v>
+        <v>22.32043659876227</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.09870053232674</v>
+        <v>4.48234631097376</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.19757280456386</v>
+        <v>30.91087466369218</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.20151507269699</v>
+        <v>30.0099585116445</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.22062080748002</v>
+        <v>34.54929762279644</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.24330768658029</v>
+        <v>40.50760283515937</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.25063218220737</v>
+        <v>43.9411844609958</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.17218768285258</v>
+        <v>29.83483466241064</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.24217484661582</v>
+        <v>48.32551841491984</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.26551153940814</v>
+        <v>47.0528667294926</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.11521108247921</v>
+        <v>15.8834239932649</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>22.18765445580569</v>
+        <v>32.70687819827575</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.22801378520562</v>
+        <v>39.42372412944445</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.06412267556876</v>
+        <v>3.223823742150604</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.1635456397976</v>
+        <v>29.77876743100551</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.21463735056204</v>
+        <v>41.15263131454495</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.08046395069222</v>
+        <v>6.204308274075935</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.2357423968598</v>
+        <v>50.64509031905598</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.10902508784028</v>
+        <v>6.245607264857814</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.1257791367347</v>
+        <v>15.17619819757511</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.14403808751963</v>
+        <v>19.70366236878112</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.07116665929999</v>
+        <v>-1.240444805381909</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.15033396199453</v>
+        <v>22.73730281169051</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.1557588979785</v>
+        <v>24.85840347717489</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.09255017204245</v>
+        <v>5.746542220585372</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.19082325887258</v>
+        <v>35.25780860579071</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.20433363540177</v>
+        <v>38.81525983684728</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.22155502710599</v>
+        <v>40.60550053115569</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.23606012031808</v>
+        <v>42.87427546310734</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.25976611679839</v>
+        <v>48.98884001313709</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.12324241756466</v>
+        <v>14.96804139118523</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.19820761341539</v>
+        <v>32.4942735040316</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.22534239783228</v>
+        <v>38.72034794895153</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.08372004683301</v>
+        <v>8.445420101536495</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.14810695852298</v>
+        <v>26.20111902309542</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.20884728429457</v>
+        <v>36.32432651254536</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.04589880996638</v>
+        <v>-2.676417913546718</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.12898060523028</v>
+        <v>16.11496189082633</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.20696214354201</v>
+        <v>36.97107590697428</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.06393216627663</v>
+        <v>-0.6665523073081232</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.2089779370294</v>
+        <v>34.32272534676382</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.0972286482931</v>
+        <v>4.507222496382258</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.11773424654229</v>
+        <v>9.090654102148537</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.14369909400321</v>
+        <v>18.78711459139836</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.07941675516606</v>
+        <v>-1.228661012854374</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.14322422430689</v>
+        <v>15.99134921471124</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.16258750823098</v>
+        <v>25.76347623496581</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.09178726774615</v>
+        <v>0.849108634265928</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.17511901184148</v>
+        <v>29.78618370251869</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.19168544120392</v>
+        <v>35.62518010964484</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.17613489129497</v>
+        <v>32.13145999919</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.18718723205235</v>
+        <v>34.80401872003399</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.20984490194597</v>
+        <v>39.93362264184864</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.11550400373558</v>
+        <v>15.14679255145253</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.17202826327532</v>
+        <v>27.74678525045988</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.21551046367083</v>
+        <v>38.78216918808806</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.08347255426354</v>
+        <v>4.655094954710091</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.14019531482629</v>
+        <v>22.82203916827014</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.19664448215903</v>
+        <v>37.69841120174417</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.0668085959889</v>
+        <v>0.8108707488900038</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.1220121078809</v>
+        <v>16.86822920376324</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.19391266665194</v>
+        <v>38.07746231506901</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.06917085318794</v>
+        <v>0.4623115922978513</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.17294447904877</v>
+        <v>29.4353242140376</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.15779386424318</v>
+        <v>19.95103374376782</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.11963605455277</v>
+        <v>20.04262167816742</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.20659051956877</v>
+        <v>36.10603756484064</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.25274552697146</v>
+        <v>42.14816742087208</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.05486020554795</v>
+        <v>1.120869051046373</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.10640718123815</v>
+        <v>10.9119372928497</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.15039832944793</v>
+        <v>21.575755048305</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.11753640361201</v>
+        <v>11.83295487041192</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.13130901134743</v>
+        <v>20.20289203801547</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.18256556657728</v>
+        <v>29.65366114954962</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.03143800756753</v>
+        <v>-4.067823843634969</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.05944096367866</v>
+        <v>4.677641263777023</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.08448385999225</v>
+        <v>9.074133608082459</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.03792239714724</v>
+        <v>-0.1270641152574825</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.11991857899125</v>
+        <v>15.98522631270109</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.19245344328221</v>
+        <v>25.7140125583697</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.13729229920018</v>
+        <v>19.54117199014114</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.23878637103686</v>
+        <v>39.31985504548566</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.30484476557397</v>
+        <v>46.00185217260614</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.04732119179394</v>
+        <v>3.350115124037192</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.11700102998129</v>
+        <v>16.54662337598768</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.17726527219523</v>
+        <v>22.2659851820361</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.31345817469141</v>
+        <v>63.95650117024059</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>22.27836407467594</v>
+        <v>52.40639711892511</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.3549133309063</v>
+        <v>66.4784765718826</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.40206123970035</v>
+        <v>73.28271944336583</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.11986740095908</v>
+        <v>15.52961748183175</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.33923132396195</v>
+        <v>63.06004678159242</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.37318075042868</v>
+        <v>67.69965005848316</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.14883721959741</v>
+        <v>25.10230539377054</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>22.23061842332369</v>
+        <v>41.34787765621489</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.26539496957809</v>
+        <v>47.73412540498586</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.07004226822681</v>
+        <v>5.168952307021801</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.21800730827069</v>
+        <v>35.16090714094267</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.25403823659638</v>
+        <v>45.31959632265389</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.09588853330083</v>
+        <v>11.59231520736206</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.31381314217049</v>
+        <v>64.98011505707427</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.37646121721336</v>
+        <v>72.53736338036107</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.43865252928663</v>
+        <v>77.05545530273008</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.5003040786085</v>
+        <v>85.44325149770208</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>22.54553251628846</v>
+        <v>91.58235732800156</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.19865055798827</v>
+        <v>29.96725084701782</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.46632542890414</v>
+        <v>80.94223955773198</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.49802523161406</v>
+        <v>83.10401312960524</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>22.31736921657251</v>
+        <v>63.37119650704737</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.22225897083856</v>
+        <v>33.72541257519748</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.28163501021244</v>
+        <v>47.83865064600921</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.36670612584362</v>
+        <v>69.10238114937579</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.05963393650693</v>
+        <v>4.568216616227279</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.28460040495031</v>
+        <v>50.66758162935723</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.33961372902533</v>
+        <v>62.98224536876545</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.11045891398384</v>
+        <v>14.09135232200983</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.198524921073</v>
+        <v>33.03007075869388</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.25043150103115</v>
+        <v>44.21930133531136</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.04538004973399</v>
+        <v>-0.3187354912888694</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.19213445365141</v>
+        <v>30.4129972734299</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.25174508907179</v>
+        <v>44.72959787513399</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.07412309288829</v>
+        <v>3.403565886197494</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.29746683669261</v>
+        <v>56.05425039964567</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.38500432962208</v>
+        <v>73.96982856896867</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.40101161132085</v>
+        <v>64.00124127272078</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.4528301253629</v>
+        <v>73.79901308946756</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.53432546689617</v>
+        <v>91.12425266723859</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.12173835534952</v>
+        <v>14.74033071855361</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.41892374981778</v>
+        <v>66.63221788299316</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.47570737588608</v>
+        <v>77.60268345095673</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.26287620430191</v>
+        <v>58.46427942775505</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.14073306708824</v>
+        <v>19.3424558626069</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.18659256258481</v>
+        <v>27.57975579588175</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.26389257383196</v>
+        <v>48.08396453248443</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.06064790770674</v>
+        <v>3.883219325288835</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.22411516346352</v>
+        <v>37.25989977437144</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.28333009079387</v>
+        <v>54.33556270609593</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.10121034872375</v>
+        <v>10.07827194824434</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.18601267392696</v>
+        <v>32.96690902542154</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.24435386634976</v>
+        <v>47.98814350849755</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.06547765400473</v>
+        <v>2.410442683971368</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.16978529108232</v>
+        <v>29.56362020147245</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.23938826100426</v>
+        <v>46.16332883367515</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.07061285668969</v>
+        <v>2.503811569450779</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.24355947910942</v>
+        <v>47.22223971551815</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.33275782748794</v>
+        <v>71.47543751821227</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>22.29913289523022</v>
+        <v>50.75725409947226</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.35308024496998</v>
+        <v>63.58280695157093</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.44714013568951</v>
+        <v>86.20770497362406</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.09838526512809</v>
+        <v>12.46567676301739</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.33912590413233</v>
+        <v>61.32998926154562</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.41029367874599</v>
+        <v>74.93145709922918</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.12661450350798</v>
+        <v>14.79267273244475</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.11417697819779</v>
+        <v>11.87508722114223</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.13953345175963</v>
+        <v>19.13069451887397</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.08195631811142</v>
+        <v>2.247930114765257</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.10685479326365</v>
+        <v>8.351804868340757</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.10873730420425</v>
+        <v>10.84282938772654</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.10528621659471</v>
+        <v>6.183192865035725</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.14127922638541</v>
+        <v>20.51644836688407</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.14943158452151</v>
+        <v>21.56749415305636</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.10313281760802</v>
+        <v>9.762845144169926</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.1229184954371</v>
+        <v>14.1392996767618</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.13471192778954</v>
+        <v>17.44432625316508</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.11604889686794</v>
+        <v>13.62950944785463</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.09985113626731</v>
+        <v>11.19919371973001</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.13230368085721</v>
+        <v>17.5913618398734</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.12688860971272</v>
+        <v>13.68611169080265</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.15507812886674</v>
+        <v>22.76557305681642</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.18323853169154</v>
+        <v>32.34703538643862</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.06651083155198</v>
+        <v>1.016326645629839</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.08953807343377</v>
+        <v>8.512304565676288</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>22.10827284979094</v>
+        <v>11.61464274286307</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.07184738390158</v>
+        <v>2.297009650960952</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.13011802135964</v>
+        <v>18.20408505411009</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.12491394463143</v>
+        <v>18.55188371476023</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.13182904074514</v>
+        <v>20.63250702464285</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.14350125239172</v>
+        <v>20.6516568064848</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.07324469714558</v>
+        <v>1.948558122663211</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.13676957080385</v>
+        <v>19.54390238720396</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.13783742442169</v>
+        <v>19.15186010202105</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.09214467055985</v>
+        <v>5.637368959126952</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.17039693455479</v>
+        <v>26.32761131779667</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.17298571020215</v>
+        <v>25.44173159171864</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.18636336763439</v>
+        <v>27.9514528011721</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.20795359645506</v>
+        <v>34.58987859770154</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.21303290812358</v>
+        <v>36.55161874390629</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.12330355161524</v>
+        <v>17.65032558330056</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.17769155276548</v>
+        <v>31.18108923862909</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.1915757935345</v>
+        <v>29.12540969133323</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.12463199755562</v>
+        <v>16.43102104369697</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.19145723832141</v>
+        <v>32.74745271198913</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.22573509054724</v>
+        <v>37.96290399164334</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.0731274994067</v>
+        <v>4.854558221037479</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.16285410395328</v>
+        <v>28.65364837071133</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.21088637084092</v>
+        <v>38.17365877076263</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.09421017705485</v>
+        <v>8.300710633154125</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.23418921935584</v>
+        <v>47.75352769107174</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.10515813052437</v>
+        <v>6.19453212046216</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.11340540623029</v>
+        <v>13.03847218423425</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.12866189895999</v>
+        <v>16.53859889233915</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.0700638513298</v>
+        <v>0.7054582257153932</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.1274856210869</v>
+        <v>18.01620362289015</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.13435503276094</v>
+        <v>20.24266388426528</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.08703594758323</v>
+        <v>5.846082339588666</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.16385403492542</v>
+        <v>27.20582732228094</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.17531732960766</v>
+        <v>30.65535577020894</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.1880065330849</v>
+        <v>32.8123077714149</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.20275086752867</v>
+        <v>36.33787829829387</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.22181931552136</v>
+        <v>39.81845214209848</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.08336670461658</v>
+        <v>6.416386333162954</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.14086476936751</v>
+        <v>17.2751846226323</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.15885956183664</v>
+        <v>21.95757779765406</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.09753542236786</v>
+        <v>9.189006284941449</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.15672895201234</v>
+        <v>24.83342588730631</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.20919568453062</v>
+        <v>34.36380502361769</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.05837758218865</v>
+        <v>-0.4039585334751656</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.13393024019823</v>
+        <v>16.67385044862081</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.20518983607257</v>
+        <v>34.62036217448131</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.08071995581538</v>
+        <v>1.88685621718033</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.21093851339728</v>
+        <v>31.64735696856968</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.09909955916627</v>
+        <v>4.911765029956335</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.11131943399511</v>
+        <v>8.182493553325003</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.13336020706549</v>
+        <v>15.86035516817658</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.0812580491316</v>
+        <v>0.2617665661166768</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.1276182610415</v>
+        <v>11.98757626267973</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.14552793999919</v>
+        <v>20.44895293067964</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.09137014567328</v>
+        <v>2.003610102595655</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.15630729096766</v>
+        <v>22.57538714135073</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.1710407807232</v>
+        <v>28.24206993358023</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.15747676489081</v>
+        <v>24.82696177780404</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.17053306019567</v>
+        <v>28.35998282532789</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.18906716260506</v>
+        <v>31.57003315255489</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.08731800078095</v>
+        <v>6.926497551153584</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.13281448012493</v>
+        <v>15.59272579330488</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.16377278657365</v>
+        <v>21.45934398438949</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.09907867367808</v>
+        <v>7.078552697607591</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.15040544868791</v>
+        <v>22.7072827943954</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.19958182112745</v>
+        <v>35.75369731833532</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.07951416454165</v>
+        <v>2.556781623339315</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.13064974515923</v>
+        <v>17.12070918451307</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.19568844038748</v>
+        <v>35.13012749124127</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.08829399569621</v>
+        <v>3.930653555333429</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.1816600383712</v>
+        <v>28.55720252486297</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.16998623566875</v>
+        <v>23.97306281626705</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.14463890603191</v>
+        <v>22.67184902498028</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.22551006896834</v>
+        <v>37.09051939649365</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.2626954885827</v>
+        <v>43.6693403659695</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.07324928169179</v>
+        <v>4.584249810027909</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.13444822228075</v>
+        <v>16.84027892883473</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.16907888176002</v>
+        <v>25.24494866709125</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.12210033543975</v>
+        <v>12.31868289252963</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.14102933086801</v>
+        <v>21.43255196898691</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>22.18757598368967</v>
+        <v>29.2057626602341</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.04048920130854</v>
+        <v>-2.08311058827211</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.07048169162465</v>
+        <v>6.053784308099114</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.09981355891616</v>
+        <v>10.67244762400296</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.05445232714372</v>
+        <v>1.921087175425267</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.13394727331577</v>
+        <v>18.25548340041266</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.19696648530329</v>
+        <v>26.02406334223879</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.15392705769542</v>
+        <v>21.97244660809796</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.24935313262216</v>
+        <v>40.22422387015974</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.30142092076514</v>
+        <v>45.010895962093</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.05757757281951</v>
+        <v>5.779878567805788</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.13701208349374</v>
+        <v>19.13727347964768</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.18947017249314</v>
+        <v>23.91312993362735</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.29828054707945</v>
+        <v>58.94985985503938</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>22.27553593141189</v>
+        <v>48.27721792082022</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.34832829972719</v>
+        <v>61.18202510628359</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.38504877757545</v>
+        <v>67.53621674421875</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.1235430142748</v>
+        <v>15.2257152501714</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>22.32538248609263</v>
+        <v>58.98769585570457</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.35134390370238</v>
+        <v>61.7613940184762</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.1467085931536</v>
+        <v>22.92408071783181</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.22482630304735</v>
+        <v>39.45886331403078</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.25685697500106</v>
+        <v>44.75806388345955</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.07433513548359</v>
+        <v>6.921809351703459</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>22.20733709613433</v>
+        <v>34.05530618644919</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.24566878133096</v>
+        <v>43.12617871289895</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.10274772202797</v>
+        <v>13.14557152083022</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>22.29884977437984</v>
+        <v>60.37695895576199</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.35178389157885</v>
+        <v>66.28617020519668</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.40750057803174</v>
+        <v>68.77820852095336</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.47112313385488</v>
+        <v>79.03320014827679</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.50392754338306</v>
+        <v>82.0072043981836</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.18604463791095</v>
+        <v>27.88232342471927</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.43254819923063</v>
+        <v>74.19438082015445</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.46073062876542</v>
+        <v>75.83521168790651</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>22.30184430625481</v>
+        <v>57.30773336268872</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.22974557455968</v>
+        <v>33.02477064186603</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.2884342896306</v>
+        <v>46.21195241026209</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.35726990395396</v>
+        <v>63.89202789216401</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.07423575988647</v>
+        <v>5.837531094973588</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>22.27973813755783</v>
+        <v>48.10354367072857</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.32445445577157</v>
+        <v>57.98450640822179</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.11445438030743</v>
+        <v>13.54886943908434</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.19717837695506</v>
+        <v>31.64097512332931</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.24453965830134</v>
+        <v>41.85151406049305</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.05523940174406</v>
+        <v>2.584314315616375</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.18698710934201</v>
+        <v>30.29013895569389</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.24567586866798</v>
+        <v>43.40595265080829</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.08590799944967</v>
+        <v>6.536849870842925</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>22.28562597892318</v>
+        <v>52.17148381950625</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.36036498678088</v>
+        <v>67.84518350825122</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.37855758338439</v>
+        <v>59.62736084112942</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.43424813953608</v>
+        <v>70.01196799991921</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.49798830596607</v>
+        <v>82.32840231166715</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>22.12394011454494</v>
+        <v>15.10353110130846</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.39477670023389</v>
+        <v>62.97047836644036</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.44496194548712</v>
+        <v>72.2828259930199</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>22.25823256760447</v>
+        <v>54.25519745965561</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.16255493349513</v>
+        <v>21.34040007519191</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.21086711723587</v>
+        <v>31.0776035721776</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.27332327772501</v>
+        <v>47.55512000481239</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.07941763802165</v>
+        <v>6.478382245023717</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.23321535492491</v>
+        <v>37.41374701649081</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.2809564724544</v>
+        <v>52.26264241428947</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.11030702748686</v>
+        <v>11.2294494546923</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>22.18845736783905</v>
+        <v>32.31529915658397</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.24134212607113</v>
+        <v>45.4125354420358</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.07657789738236</v>
+        <v>5.167825326138345</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.17177547544873</v>
+        <v>29.72532692946127</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.23710254010748</v>
+        <v>44.15150383299416</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.08786839472762</v>
+        <v>6.794814368349421</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>22.24265519706312</v>
+        <v>46.53317946587751</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.31995123759044</v>
+        <v>66.76989603578748</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>22.2962790486456</v>
+        <v>49.49517527532559</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>22.35345526551324</v>
+        <v>63.10669315556312</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.42849240628539</v>
+        <v>79.91008562194938</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.10744189490496</v>
+        <v>14.39736749299892</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.33109821183789</v>
+        <v>60.03113218154404</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.39217928241615</v>
+        <v>70.43715542816207</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>22.12318593203785</v>
+        <v>14.90089632743327</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.14485567348445</v>
+        <v>18.95584328886017</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.17735975776288</v>
+        <v>31.79110537040609</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.08093448829718</v>
+        <v>-0.9411205266559151</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.13702756761311</v>
+        <v>12.22659387586515</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.14315620244356</v>
+        <v>19.2666604346689</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.10486569976656</v>
+        <v>2.28394386234169</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.19764785814933</v>
+        <v>40.82699085351594</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.20893527467699</v>
+        <v>43.36922792571607</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.159345431858</v>
+        <v>23.08644146492294</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.17724682278402</v>
+        <v>25.74244475904718</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.18183294980865</v>
+        <v>27.0261952555623</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.1191878994665</v>
+        <v>9.188213782093623</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.14100607125754</v>
+        <v>21.3620762865629</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.1849529604465</v>
+        <v>36.27591118431322</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.12235599379666</v>
+        <v>14.28261836529135</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.16211021096644</v>
+        <v>26.45495089789358</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.17543137143265</v>
+        <v>32.92292021873302</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.05560825862498</v>
+        <v>-0.4594589723857645</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.10001357542065</v>
+        <v>11.37958762815902</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.09519601071172</v>
+        <v>10.98592818139212</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.05422371696721</v>
+        <v>-2.145069725754048</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.15015201221969</v>
+        <v>24.40893270270479</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.13663974594964</v>
+        <v>25.18638921258522</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.18937276238742</v>
+        <v>37.48264673542109</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.2019416495062</v>
+        <v>39.96460875980128</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.09607674146792</v>
+        <v>5.227427197951009</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.2050580493669</v>
+        <v>37.46510934532582</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.20322874331913</v>
+        <v>38.79541189219864</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.10896776310713</v>
+        <v>6.874345605668097</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>22.25911291864817</v>
+        <v>55.37221349319081</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.25747680595085</v>
+        <v>53.90913025700905</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.28594590368603</v>
+        <v>55.52471083819346</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>22.30460526923835</v>
+        <v>60.9229171930307</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.3021805622571</v>
+        <v>62.34784035618819</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.15186839677152</v>
+        <v>21.34441318011632</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.26183292640953</v>
+        <v>59.02225875330143</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.28298727022141</v>
+        <v>61.98589734897402</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.12933097692462</v>
+        <v>19.22375909200492</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>22.21841216250472</v>
+        <v>40.06557952197878</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.22745767489461</v>
+        <v>40.30643578928992</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.07490922311468</v>
+        <v>4.510816648968888</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>22.20280019658031</v>
+        <v>36.83763519169692</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.2134991081296</v>
+        <v>38.21819886169867</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.08351090571389</v>
+        <v>5.234399769698872</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.27685315471956</v>
+        <v>58.88206835223721</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.11564139705863</v>
+        <v>7.736105235723954</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.1684155711057</v>
+        <v>25.9026148880873</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.1847994695435</v>
+        <v>32.54735414894472</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.09310186734424</v>
+        <v>2.373103314336845</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.19495257207213</v>
+        <v>34.37831011780843</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.19922030492415</v>
+        <v>38.98527151772385</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.10373216335318</v>
+        <v>6.494831663511921</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.25024724246208</v>
+        <v>54.84079444739854</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.25789477804437</v>
+        <v>57.59519755532835</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.29157345227609</v>
+        <v>62.01433977848403</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.30152469418103</v>
+        <v>65.01332654673246</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.31557828926543</v>
+        <v>67.91600840974573</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.11164097373067</v>
+        <v>3.507137446436602</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.22304827528796</v>
+        <v>40.68627025924877</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.24808010214203</v>
+        <v>47.80098390500348</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.10509284003603</v>
+        <v>12.98230001182976</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.18577417586086</v>
+        <v>34.02432165077567</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.21398970273629</v>
+        <v>38.1712734386881</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.06353232013717</v>
+        <v>3.103346827458342</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.17671884923812</v>
+        <v>29.39787371930991</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.21152921982777</v>
+        <v>38.33040973617585</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.07342233891251</v>
+        <v>4.452075320361761</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.25514683504666</v>
+        <v>49.31891784124664</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.10486203976329</v>
+        <v>4.741007623939147</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.15075501140664</v>
+        <v>17.92122183308341</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.17997941937909</v>
+        <v>32.88723142141828</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.09436490157953</v>
+        <v>0.14048106427704</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.17340201588752</v>
+        <v>19.41040707989383</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.1969061799704</v>
+        <v>39.70676730050689</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.10205228007795</v>
+        <v>1.411386849189697</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.22102044571768</v>
+        <v>47.77217845752184</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.23921619951464</v>
+        <v>57.03244664365061</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.23647078382522</v>
+        <v>52.57411011155403</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.24837661618358</v>
+        <v>56.17079071832462</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.26536486672011</v>
+        <v>62.70709803424684</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.10691564602244</v>
+        <v>3.361909873334152</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.19334464149871</v>
+        <v>33.57343288909142</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.23777437104041</v>
+        <v>49.42242622171059</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.0935727928804</v>
+        <v>7.172989092372731</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.15846413174631</v>
+        <v>26.49244788485225</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.19452485448811</v>
+        <v>37.07626200380439</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.07033322481488</v>
+        <v>1.163835448241745</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.14647474416929</v>
+        <v>20.73230571399463</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.19043874357573</v>
+        <v>35.91061737641132</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.07112737863588</v>
+        <v>0.4653073103554242</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>22.20140457239875</v>
+        <v>36.71689451527358</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.17104404675896</v>
+        <v>26.34031309293546</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.14964491736725</v>
+        <v>24.53187477486216</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.21007469427658</v>
+        <v>37.37506815339303</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.2176407572917</v>
+        <v>38.66357613738676</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.0664256734732</v>
+        <v>6.735529489088684</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.11678274994253</v>
+        <v>15.57884779313921</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.1545065804886</v>
+        <v>26.12820457903999</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.11100275248508</v>
+        <v>11.51734743325216</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.13600839734269</v>
+        <v>20.8772270575226</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.18304774368513</v>
+        <v>32.52693285029998</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.03659550103116</v>
+        <v>-2.712159223849408</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.0858824915827</v>
+        <v>8.815741136351186</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.10625871498728</v>
+        <v>15.22010746584943</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.04385004773937</v>
+        <v>0.08262912693060898</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.15644224052689</v>
+        <v>22.91917337600659</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.21702827046155</v>
+        <v>38.70167738873644</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.16772861728065</v>
+        <v>26.78377939620253</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.24449712448022</v>
+        <v>44.70286257161484</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.29777635774433</v>
+        <v>51.46408555776963</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.04600562620452</v>
+        <v>4.201408517126193</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.12737915891574</v>
+        <v>21.08449695914267</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.19549613359008</v>
+        <v>33.91479941399718</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.31042257409957</v>
+        <v>63.16175490028307</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.31103107190144</v>
+        <v>56.01732307352997</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22.36024772866504</v>
+        <v>67.20022185301677</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.36415566247499</v>
+        <v>65.98102876728302</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.12555071492197</v>
+        <v>17.615294861558</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.33518996813741</v>
+        <v>62.65884932140322</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.35384182265018</v>
+        <v>64.20334695499083</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.13240543497074</v>
+        <v>22.60894562841501</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.22881976157647</v>
+        <v>40.91003194288434</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.24649194813029</v>
+        <v>45.5302330036677</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.0688259413566</v>
+        <v>3.57219547671248</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>22.24062420317304</v>
+        <v>40.80659466396703</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.25170771807064</v>
+        <v>45.06771147510186</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.08371632201313</v>
+        <v>6.113403049901063</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.33107656076667</v>
+        <v>64.52113465125204</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.36429252910789</v>
+        <v>71.75787230307736</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.43501608683504</v>
+        <v>75.13052878403835</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>22.47640500643013</v>
+        <v>85.43900900628574</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>22.50980544427069</v>
+        <v>88.82269512530543</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>22.16379276180986</v>
+        <v>18.31831745512821</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.43473615216426</v>
+        <v>77.75007374805826</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.46271879928845</v>
+        <v>79.64263829639326</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>22.31686213176954</v>
+        <v>66.12020800011808</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.27353629607506</v>
+        <v>48.46466248186863</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.30695082632061</v>
+        <v>57.49229460875058</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.34702997195124</v>
+        <v>66.81405804254251</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.07938242155943</v>
+        <v>9.731015144620557</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.29359427006887</v>
+        <v>54.16423114044434</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.33037413985028</v>
+        <v>62.16518414190072</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>22.09830788160627</v>
+        <v>13.82128617663592</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.19873931257081</v>
+        <v>34.16582301563837</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.23166142537979</v>
+        <v>43.27578536640446</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.04675719867099</v>
+        <v>0.9620586852963342</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.21687296259521</v>
+        <v>38.51481854330275</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.24812413449708</v>
+        <v>46.32243381963341</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.0641449384274</v>
+        <v>2.735591850650113</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.31352298119012</v>
+        <v>59.87146363905485</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.36856850386001</v>
+        <v>75.29326078563453</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.4075808315065</v>
+        <v>70.16282510964193</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.43907785499773</v>
+        <v>77.53412004986681</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.50721454567849</v>
+        <v>92.08845117648359</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>22.09684864902991</v>
+        <v>7.840749454036608</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.39356575052452</v>
+        <v>67.85881790920054</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.44225207247409</v>
+        <v>76.62417271511436</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.26146897273152</v>
+        <v>57.47367721245688</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.17499187383898</v>
+        <v>26.8219183061593</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.20614310151111</v>
+        <v>34.87337668796241</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.24689922073561</v>
+        <v>45.4390859847481</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.07091351118153</v>
+        <v>3.92298440195308</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.2250606535622</v>
+        <v>25.25644235783126</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.27634834510172</v>
+        <v>53.77558210725188</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.08635500075194</v>
+        <v>7.259754677267932</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.17447054717325</v>
+        <v>30.04789514134155</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.2249207735532</v>
+        <v>45.10152173530865</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.06043687196406</v>
+        <v>0.5557887298211917</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.18046025247634</v>
+        <v>30.97442875033244</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.23478875129087</v>
+        <v>45.55897753625908</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.06257036279719</v>
+        <v>-0.1339777702714535</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.25187871669155</v>
+        <v>48.64872323340873</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.32367866321304</v>
+        <v>72.32019749685391</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>22.305326486189</v>
+        <v>53.84765763712399</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.3449509764182</v>
+        <v>66.38047764460205</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.4263415403848</v>
+        <v>86.71707535774229</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>22.07760127483836</v>
+        <v>5.664880250218854</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>22.31633744649116</v>
+        <v>57.7732115748979</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.39008414978084</v>
+        <v>76.50381648024681</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.77870325629035</v>
+        <v>11.77870325629031</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.216480110163246</v>
+        <v>9.216480110163364</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.4720930023914</v>
+        <v>22.47209300239131</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.224904100707672</v>
+        <v>3.224904100707331</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.54486042080467</v>
+        <v>20.54486042080518</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.72657224687223</v>
+        <v>23.72657224687234</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.335576303982098</v>
+        <v>6.335576303982435</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.05539535089532</v>
+        <v>34.05539535089503</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.76033355611565</v>
+        <v>34.76033355611568</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.81486933137549</v>
+        <v>10.81486933137558</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.54574861579347</v>
+        <v>13.54574861579402</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.12717683292257</v>
+        <v>14.12717683292281</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.47988802054953</v>
+        <v>24.47988802054974</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.93608134527676</v>
+        <v>15.93608134527665</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.426173171903</v>
+        <v>34.42617317190291</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.07368368563052</v>
+        <v>15.07368368563053</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.06671494884444</v>
+        <v>23.06671494884421</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.78615678258243</v>
+        <v>36.78615678258291</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.07476024971456</v>
+        <v>10.0747602497142</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.18833537638199</v>
+        <v>17.18833537638158</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.61483788665947</v>
+        <v>19.61483788665938</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.519934930278652</v>
+        <v>2.519934930278517</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.97592747241821</v>
+        <v>19.97592747241806</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.74374772661382</v>
+        <v>20.74374772661355</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.71298337703831</v>
+        <v>21.71298337703822</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.78534191557949</v>
+        <v>24.78534191557924</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.774817233680533</v>
+        <v>2.774817233680583</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.29333500413733</v>
+        <v>31.29333500413738</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.99390267738292</v>
+        <v>29.9939026773832</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.788064561521388</v>
+        <v>5.788064561521988</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.96460872017128</v>
+        <v>34.96460872017162</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.32955623344812</v>
+        <v>34.32955623344824</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.41611000213798</v>
+        <v>37.41611000213816</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.68495349176164</v>
+        <v>39.68495349176197</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.57140332754447</v>
+        <v>43.57140332754428</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.72925585997771</v>
+        <v>31.72925585997817</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.49079180939167</v>
+        <v>40.49079180939228</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.18285530588708</v>
+        <v>42.18285530588678</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.99970878322343</v>
+        <v>19.99970878322299</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.54293944658002</v>
+        <v>34.54293944658041</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.72592114418739</v>
+        <v>38.72592114418688</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.33306893031877</v>
+        <v>11.33306893031891</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.72436254191679</v>
+        <v>36.72436254191727</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.99024136446372</v>
+        <v>42.9902413644636</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.04039469169052</v>
+        <v>53.04039469169061</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.069694918396443</v>
+        <v>6.069694918395818</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.57484187236561</v>
+        <v>16.57484187236553</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.2405321907229</v>
+        <v>22.24053219072276</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.19599722067203</v>
+        <v>1.195997220672208</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.9990941639658</v>
+        <v>31.99909416396529</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.9882731895919</v>
+        <v>31.98827318959259</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.702501295987936</v>
+        <v>7.702501295987968</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.2410048718122</v>
+        <v>42.24100487181171</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.57274908106621</v>
+        <v>44.57274908106598</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.45517522207027</v>
+        <v>44.45517522207025</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.71079669886885</v>
+        <v>44.71079669886833</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.56968286608824</v>
+        <v>51.5696828660877</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.61385052335905</v>
+        <v>13.61385052335889</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.06396065535097</v>
+        <v>27.06396065535142</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.52210267264139</v>
+        <v>33.5221026726419</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.4550516230792</v>
+        <v>14.45505162307916</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.7597111818906</v>
+        <v>32.75971118189017</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.37381015101182</v>
+        <v>37.37381015101187</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.629119172640468</v>
+        <v>7.629119172640426</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.44925862976087</v>
+        <v>27.44925862976064</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.25455171813019</v>
+        <v>40.25455171812965</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.546169127289179</v>
+        <v>4.546169127288927</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.36710377854683</v>
+        <v>44.36710377854679</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.334902136995254</v>
+        <v>2.334902136994831</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.13161107356353</v>
+        <v>9.131611073563569</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.11373927557205</v>
+        <v>21.11373927557177</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.385692088549774</v>
+        <v>2.385692088549664</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.9194853153079</v>
+        <v>27.91948531530806</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.75047550755443</v>
+        <v>35.75047550755474</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.214900348805717</v>
+        <v>2.214900348805866</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.40940215931509</v>
+        <v>39.40940215931517</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.94022317877133</v>
+        <v>43.94022317877118</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.5218165210919</v>
+        <v>40.52181652109233</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.51346634780428</v>
+        <v>41.51346634780494</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.37299067892508</v>
+        <v>48.37299067892567</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.60054102711326</v>
+        <v>11.60054102711345</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.75121902320165</v>
+        <v>20.75121902320132</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.43203256555513</v>
+        <v>37.43203256555491</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.603545815500933</v>
+        <v>7.603545815501231</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.02722598562303</v>
+        <v>28.02722598562311</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.34140403745339</v>
+        <v>38.34140403745327</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.34167757212171</v>
+        <v>10.34167757212106</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.99455809439557</v>
+        <v>28.99455809439501</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.56269035029993</v>
+        <v>43.56269035029969</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.850685341374191</v>
+        <v>2.850685341374131</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.38221771389046</v>
+        <v>38.38221771389057</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.74021615793432</v>
+        <v>24.74021615793449</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.78224106609579</v>
+        <v>23.78224106609584</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.2068743742299</v>
+        <v>42.20687437422971</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.23561942835117</v>
+        <v>45.23561942835175</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.145043223367725</v>
+        <v>8.145043223367765</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.3181952563375</v>
+        <v>17.31819525633759</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.10083440287523</v>
+        <v>26.10083440287515</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.45897271663229</v>
+        <v>11.45897271663241</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.81847282492767</v>
+        <v>19.81847282492781</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.93674216906206</v>
+        <v>31.93674216906182</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.24156893684097</v>
+        <v>6.241568936840547</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.0465562878923</v>
+        <v>16.04655628789228</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.75230249666563</v>
+        <v>19.75230249666518</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.745197704957224</v>
+        <v>1.745197704957512</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.46694918985216</v>
+        <v>19.46694918985263</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.22429449158664</v>
+        <v>32.22429449158704</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.04125983414507</v>
+        <v>22.04125983414479</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.82901946650972</v>
+        <v>47.82901946650925</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.80155230145761</v>
+        <v>54.80155230145765</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.898048271898752</v>
+        <v>3.898048271898521</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.9213449280857</v>
+        <v>20.92134492808558</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.77592867891936</v>
+        <v>27.77592867891926</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61.96558704957225</v>
+        <v>61.96558704957209</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.90051195459344</v>
+        <v>53.90051195459347</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.25088142214824</v>
+        <v>67.25088142214845</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>71.7802243441707</v>
+        <v>71.78022434417154</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.26075691156474</v>
+        <v>21.26075691156461</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>62.52687833138135</v>
+        <v>62.52687833138094</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.44847203947188</v>
+        <v>62.44847203947135</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.28181078403618</v>
+        <v>24.28181078403625</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.82556819799019</v>
+        <v>38.82556819799014</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.28118410466487</v>
+        <v>47.28118410466486</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.6500584115963</v>
+        <v>11.65005841159631</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.91141154959741</v>
+        <v>40.91141154959816</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.14615623890484</v>
+        <v>49.1461562389044</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.102697890832882</v>
+        <v>9.102697890833106</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.85890896389292</v>
+        <v>62.8589089638923</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.55434834427389</v>
+        <v>74.55434834427385</v>
       </c>
     </row>
     <row r="131">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.70569687857773</v>
+        <v>84.705696878577</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.74576789571364</v>
+        <v>91.74576789571387</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.74765473933939</v>
+        <v>26.74765473933962</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>77.62759999957873</v>
+        <v>77.62759999957912</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.96860260184405</v>
+        <v>77.96860260184454</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.7497156494358</v>
+        <v>64.74971564943539</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.72391230839545</v>
+        <v>40.72391230839539</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>51.74911824949156</v>
+        <v>51.7491182494912</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>69.65764756368854</v>
+        <v>69.65764756368802</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.71628019861897</v>
+        <v>12.7162801986194</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>53.98640051696592</v>
+        <v>53.98640051696563</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.20380404009004</v>
+        <v>15.2038040400899</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.23377189111253</v>
+        <v>33.23377189111235</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.82920845939253</v>
+        <v>44.82920845939234</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8.321770789747948</v>
+        <v>8.321770789747791</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.72425574460559</v>
+        <v>38.72425574460568</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>49.3331493548224</v>
+        <v>49.3331493548225</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4.200800997704835</v>
+        <v>4.200800997704729</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.61767266999081</v>
+        <v>58.61767266999121</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>78.12391149279644</v>
+        <v>78.12391149279607</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.07602714055223</v>
+        <v>64.07602714055236</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>75.53783235328189</v>
+        <v>75.53783235328166</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>92.30370409797477</v>
+        <v>92.3037040979746</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.0093176085777</v>
+        <v>15.00931760857749</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>63.95544396093833</v>
+        <v>63.95544396093824</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>72.80489031729313</v>
+        <v>72.80489031729316</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>58.43735467419975</v>
+        <v>58.43735467419958</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.92653201256865</v>
+        <v>25.92653201256844</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.46291591235349</v>
+        <v>32.46291591235345</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>49.46218811758361</v>
+        <v>49.46218811758368</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.962687883898454</v>
+        <v>9.96268788389847</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.41423265046151</v>
+        <v>45.41423265046146</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.6170476797177</v>
+        <v>54.61704767971733</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10.38990802473982</v>
+        <v>10.38990802473998</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.58199973286306</v>
+        <v>33.58199973286297</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>49.63764239172436</v>
+        <v>49.63764239172467</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.91208903621709</v>
+        <v>11.91208903621722</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.77062149888666</v>
+        <v>39.77062149888604</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.00793708716304</v>
+        <v>54.00793708716262</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.746803423529304</v>
+        <v>3.746803423528888</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.331335721401</v>
+        <v>51.33133572140106</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>76.86441264971454</v>
+        <v>76.86441264971445</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.63690192054426</v>
+        <v>57.63690192054479</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.91007848880125</v>
+        <v>69.91007848880092</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.3472456740007</v>
+        <v>92.34724567400056</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.83992049195924</v>
+        <v>13.83992049195932</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.2121549140202</v>
+        <v>62.21215491402003</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>76.43424867357702</v>
+        <v>76.43424867357716</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.49233450469902</v>
+        <v>18.49233450469901</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.66276346007638</v>
+        <v>35.66276346007631</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49.47629960824037</v>
+        <v>49.4762996082405</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3.659018152813104</v>
+        <v>3.659018152813228</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.81997035076311</v>
+        <v>43.81997035076294</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>50.55589426968405</v>
+        <v>50.55589426968403</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8.953490151766211</v>
+        <v>8.953490151766363</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>84.24516996192612</v>
+        <v>84.24516996192605</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>83.11774778711975</v>
+        <v>83.11774778711984</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.41871470573162</v>
+        <v>40.41871470573195</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.6045898825671</v>
+        <v>45.60458988256715</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.33815543362044</v>
+        <v>43.33815543362039</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.08482831640103</v>
+        <v>21.0848283164009</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.23135003150156</v>
+        <v>40.23135003150143</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>68.44434595983375</v>
+        <v>68.44434595983392</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.1347411989627</v>
+        <v>19.13474119896269</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.24180917844249</v>
+        <v>34.24180917844248</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.79037583301191</v>
+        <v>39.79037583301184</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-2.370949087043297</v>
+        <v>-2.370949087043453</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.61604829988367</v>
+        <v>17.61604829988359</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.27505126801623</v>
+        <v>21.27505126801624</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-0.3413799485458391</v>
+        <v>-0.3413799485458924</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.18839644843499</v>
+        <v>37.18839644843498</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.10756451787647</v>
+        <v>37.10756451787666</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>61.62944681334808</v>
+        <v>61.62944681334807</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>60.31973709436018</v>
+        <v>60.31973709436001</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>9.844612700027403</v>
+        <v>9.844612700027479</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>64.37129471211168</v>
+        <v>64.37129471211178</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>60.87288133235965</v>
+        <v>60.87288133235937</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>11.53732642567619</v>
+        <v>11.53732642567583</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>93.9420097557295</v>
+        <v>93.94200975572885</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>83.67179711180859</v>
+        <v>83.67179711180823</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>79.22432422984642</v>
+        <v>79.2243242298462</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>90.43291659184086</v>
+        <v>90.43291659184068</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>84.09067444744768</v>
+        <v>84.09067444744764</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.09612914267646</v>
+        <v>34.0961291426762</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>69.58245493281505</v>
+        <v>69.58245493281488</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>77.60792321209259</v>
+        <v>77.60792321209286</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.84575655407705</v>
+        <v>28.84575655407696</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.09567327811626</v>
+        <v>51.09567327811602</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.94291175019525</v>
+        <v>48.94291175019529</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3.75905315995703</v>
+        <v>3.759053159957318</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.33625444768673</v>
+        <v>41.33625444768672</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.46496669720328</v>
+        <v>43.46496669720329</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.494568176792551</v>
+        <v>7.494568176792473</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>68.9752820313939</v>
+        <v>68.97528203139403</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.92830104921087</v>
+        <v>11.9283010492106</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.26794579883394</v>
+        <v>44.26794579883385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.68501438172085</v>
+        <v>45.68501438172066</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.824176632136385</v>
+        <v>4.824176632136162</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>61.14543533515682</v>
+        <v>61.14543533515712</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>57.89347619433457</v>
+        <v>57.8934761943345</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6.798749575522223</v>
+        <v>6.798749575521899</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>90.69144401832094</v>
+        <v>90.69144401832077</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>82.60974566350839</v>
+        <v>82.60974566350862</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>95.56777945798663</v>
+        <v>95.56777945798635</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>106.292976988222</v>
+        <v>106.2929769882221</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>97.20410878970456</v>
+        <v>97.20410878970429</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>8.222480749780857</v>
+        <v>8.222480749780601</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.12981268164678</v>
+        <v>47.12981268164639</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>58.49928435392221</v>
+        <v>58.49928435392215</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.56960764533675</v>
+        <v>20.56960764533682</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.15922713061684</v>
+        <v>47.15922713061698</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.11410498525689</v>
+        <v>46.1141049852569</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.88404771996538</v>
+        <v>2.884047719965331</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.54520063062297</v>
+        <v>39.54520063062289</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.90935908502598</v>
+        <v>44.90935908502613</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>7.225176806970644</v>
+        <v>7.225176806970563</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>67.20964026565983</v>
+        <v>67.20964026566003</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.012998544326546</v>
+        <v>7.012998544326742</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.73627589474869</v>
+        <v>37.73627589474854</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.57867948144219</v>
+        <v>47.57867948144204</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.432784649319855</v>
+        <v>9.432784649319796</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>61.90112930888365</v>
+        <v>61.90112930888372</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>68.05757043568818</v>
+        <v>68.05757043568794</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.432635493396626</v>
+        <v>9.432635493396718</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>96.87766124493051</v>
+        <v>96.87766124493064</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>93.75614038936533</v>
+        <v>93.75614038936504</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>89.92776843348796</v>
+        <v>89.92776843348804</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>99.46515009525342</v>
+        <v>99.46515009525336</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>98.94743496360718</v>
+        <v>98.94743496360714</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.16961812729217</v>
+        <v>10.16961812729175</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.98558418310427</v>
+        <v>45.98558418310442</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>64.70256298278234</v>
+        <v>64.70256298278245</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.93311971921479</v>
+        <v>14.93311971921468</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.3832541046643</v>
+        <v>42.38325410466429</v>
       </c>
     </row>
     <row r="266">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>4.239961829997355</v>
+        <v>4.239961829997412</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.95174453337125</v>
+        <v>38.9517445333713</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>48.47717139831348</v>
+        <v>48.47717139831331</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7.459907966097251</v>
+        <v>7.459907966097486</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.88584869645912</v>
+        <v>61.88584869645931</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>40.69478071139833</v>
+        <v>40.69478071139832</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.21213405570241</v>
+        <v>35.21213405570249</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>49.73569811303811</v>
+        <v>49.73569811303818</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>51.18936706216756</v>
+        <v>51.18936706216742</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.22177889646383</v>
+        <v>15.22177889646365</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.21170003485943</v>
+        <v>36.21170003485936</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>46.56516213763497</v>
+        <v>46.56516213763501</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.34026289790981</v>
+        <v>17.34026289790972</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.8485376005854</v>
+        <v>32.84853760058549</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.36095693163782</v>
+        <v>44.36095693163777</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1.264643629496451</v>
+        <v>1.264643629496316</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.72521578544354</v>
+        <v>20.72521578544349</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.41110197941638</v>
+        <v>31.41110197941619</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.147601300701243</v>
+        <v>9.147601300701119</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>47.63425135479038</v>
+        <v>47.63425135479021</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>67.4637644705552</v>
+        <v>67.46376447055529</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>44.13197631729506</v>
+        <v>44.13197631729525</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>60.61079927986694</v>
+        <v>60.61079927986714</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>67.32493990521789</v>
+        <v>67.32493990521793</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.99876953079104</v>
+        <v>15.99876953079091</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.43272958933223</v>
+        <v>38.43272958933211</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>55.96848914405935</v>
+        <v>55.96848914405938</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>70.91138057281763</v>
+        <v>70.91138057281745</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>68.66917895121746</v>
+        <v>68.6691789512177</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>79.21604223498646</v>
+        <v>79.21604223498645</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>77.06381757185558</v>
+        <v>77.06381757185535</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.33120754882415</v>
+        <v>27.33120754882438</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>75.55456659926207</v>
+        <v>75.55456659926219</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>74.27783493275624</v>
+        <v>74.27783493275633</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.1344570493259</v>
+        <v>29.13445704932596</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>51.53685763964406</v>
+        <v>51.53685763964366</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>48.94148426022663</v>
+        <v>48.94148426022669</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>3.688075571554407</v>
+        <v>3.688075571554247</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.92952433020648</v>
+        <v>46.92952433020642</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>46.18200805182988</v>
+        <v>46.18200805182956</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>8.112593943438313</v>
+        <v>8.11259394343822</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>78.03537888023847</v>
+        <v>78.03537888023877</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.59000475003386</v>
+        <v>78.59000475003337</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>83.62020582395685</v>
+        <v>83.62020582395671</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.77406091926041</v>
+        <v>90.77406091926021</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>88.294782333157</v>
+        <v>88.29478233315685</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.11222478115896</v>
+        <v>28.11222478115883</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.58963252331603</v>
+        <v>85.58963252331638</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>85.00487909752628</v>
+        <v>85.00487909752631</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.47263869736879</v>
+        <v>75.47263869736881</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>67.25525347198007</v>
+        <v>67.2552534719801</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>78.17490941221254</v>
+        <v>78.17490941221233</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>80.56068734061014</v>
+        <v>80.56068734061017</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.80513814378333</v>
+        <v>15.80513814378325</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>72.09849502186748</v>
+        <v>72.09849502186746</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>72.11074400050003</v>
+        <v>72.11074400050002</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.63486802970713</v>
+        <v>18.63486802970724</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.06113501356584</v>
+        <v>46.06113501356604</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.53129387561648</v>
+        <v>44.53129387561656</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.7490991969604437</v>
+        <v>0.749099196960227</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.98073840896099</v>
+        <v>47.98073840896109</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.64367636141041</v>
+        <v>46.64367636141029</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.547105340932642</v>
+        <v>3.547105340932724</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>76.61379969749935</v>
+        <v>76.61379969749932</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>79.25572213253859</v>
+        <v>79.25572213253878</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>85.95103202038632</v>
+        <v>85.95103202038628</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>93.30468689940811</v>
+        <v>93.30468689940764</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>93.66660139084873</v>
+        <v>93.66660139084856</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.19796818658506</v>
+        <v>12.19796818658485</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.16259982400753</v>
+        <v>81.16259982400749</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>82.0826372570496</v>
+        <v>82.08263725704964</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>75.08306775941823</v>
+        <v>75.08306775941807</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.31930983044111</v>
+        <v>49.31930983044101</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>63.79171076114018</v>
+        <v>63.79171076114008</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>67.98793767230524</v>
+        <v>67.98793767230526</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.91541583636744</v>
+        <v>15.91541583636734</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>68.10179822161466</v>
+        <v>68.10179822161462</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>75.61902883759652</v>
+        <v>75.61902883759645</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.612781499047721</v>
+        <v>9.612781499047687</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.31047723654805</v>
+        <v>41.31047723654788</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>47.60638795252619</v>
+        <v>47.60638795252613</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1.655539702525509</v>
+        <v>1.65553970252547</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.21225631403013</v>
+        <v>44.21225631403012</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>51.00523145933757</v>
+        <v>51.00523145933756</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>2.622395295751144</v>
+        <v>2.622395295751172</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>70.50498911593945</v>
+        <v>70.50498911593961</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>83.21067749016366</v>
+        <v>83.21067749016358</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>74.70269987678833</v>
+        <v>74.70269987678834</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>87.13232848388674</v>
+        <v>87.13232848388657</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>94.96979987595982</v>
+        <v>94.96979987595985</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>9.715764095289996</v>
+        <v>9.715764095289758</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.98862907007288</v>
+        <v>76.98862907007263</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>85.89396805872299</v>
+        <v>85.89396805872261</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.13175199540924</v>
+        <v>15.13175199540925</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.10417924039506</v>
+        <v>11.10417924039509</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.20249214436359</v>
+        <v>21.20249214436351</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.2148607500116313</v>
+        <v>0.2148607500119404</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.899577993356816</v>
+        <v>9.89957799335702</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.95864573661487</v>
+        <v>12.95864573661505</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>5.611308840702915</v>
+        <v>5.611308840702762</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.66332458275791</v>
+        <v>25.66332458275842</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.40743770253785</v>
+        <v>26.40743770253817</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.26622472108988</v>
+        <v>10.2662247210908</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>14.64394766755019</v>
+        <v>14.64394766755009</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.10710524831905</v>
+        <v>17.10710524831972</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.45298809042585</v>
+        <v>23.45298809042579</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.36065420417289</v>
+        <v>20.36065420417303</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.85173041663564</v>
+        <v>32.85173041663582</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.66590175573832</v>
+        <v>11.66590175573783</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.03431375308882</v>
+        <v>20.03431375308868</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.93660144269727</v>
+        <v>32.93660144269735</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.640780802544185</v>
+        <v>-1.640780802543826</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.214834496797216</v>
+        <v>5.214834496797142</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.462944634284423</v>
+        <v>8.462944634284732</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1.984156825003318</v>
+        <v>-1.984156825003431</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.45324796825756</v>
+        <v>13.45324796825735</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.31291880933254</v>
+        <v>20.31291880933277</v>
       </c>
     </row>
     <row r="384">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.93837310215807</v>
+        <v>22.93837310215869</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.2850460815781304</v>
+        <v>-0.2850460815782512</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.96258511084136</v>
+        <v>22.96258511084178</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.32043659876227</v>
+        <v>22.32043659876219</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4.48234631097376</v>
+        <v>4.482346310973799</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.91087466369218</v>
+        <v>30.91087466369251</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.0099585116445</v>
+        <v>30.00995851164452</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.54929762279644</v>
+        <v>34.54929762279701</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.50760283515937</v>
+        <v>40.50760283515972</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.9411844609958</v>
+        <v>43.94118446099536</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.83483466241064</v>
+        <v>29.83483466241046</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.32551841491984</v>
+        <v>48.32551841491996</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.0528667294926</v>
+        <v>47.05286672949249</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.8834239932649</v>
+        <v>15.88342399326534</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.70687819827575</v>
+        <v>32.70687819827606</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.42372412944445</v>
+        <v>39.42372412944485</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>3.223823742150604</v>
+        <v>3.223823742150412</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.77876743100551</v>
+        <v>29.77876743100586</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.15263131454495</v>
+        <v>41.15263131454534</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.204308274075935</v>
+        <v>6.204308274075768</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.64509031905598</v>
+        <v>50.64509031905592</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.245607264857814</v>
+        <v>6.245607264857643</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.17619819757511</v>
+        <v>15.17619819757498</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.70366236878112</v>
+        <v>19.70366236878138</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.240444805381909</v>
+        <v>-1.24044480538188</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.73730281169051</v>
+        <v>22.73730281169084</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.85840347717489</v>
+        <v>24.85840347717523</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.746542220585372</v>
+        <v>5.74654222058501</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.25780860579071</v>
+        <v>35.25780860579068</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.81525983684728</v>
+        <v>38.81525983684708</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.60550053115569</v>
+        <v>40.6055005311562</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.87427546310734</v>
+        <v>42.87427546310765</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.98884001313709</v>
+        <v>48.9888400131379</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.96804139118523</v>
+        <v>14.96804139118493</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.4942735040316</v>
+        <v>32.49427350403241</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.72034794895153</v>
+        <v>38.72034794895232</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.445420101536495</v>
+        <v>8.445420101536424</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.20111902309542</v>
+        <v>26.20111902309521</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-2.676417913546718</v>
+        <v>-2.676417913546643</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.11496189082633</v>
+        <v>16.11496189082613</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.97107590697428</v>
+        <v>36.97107590697449</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-0.6665523073081232</v>
+        <v>-0.666552307308045</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.32272534676382</v>
+        <v>34.32272534676371</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.507222496382258</v>
+        <v>4.507222496382123</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>9.090654102148537</v>
+        <v>9.090654102148942</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.78711459139836</v>
+        <v>18.78711459139838</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1.228661012854374</v>
+        <v>-1.228661012854239</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.99134921471124</v>
+        <v>15.99134921471127</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.76347623496581</v>
+        <v>25.76347623496636</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.849108634265928</v>
+        <v>0.8491086342660985</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.78618370251869</v>
+        <v>29.78618370251848</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.62518010964484</v>
+        <v>35.62518010964486</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.13145999919</v>
+        <v>32.13145999919003</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.80401872003399</v>
+        <v>34.80401872003439</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.93362264184864</v>
+        <v>39.93362264184857</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>15.14679255145253</v>
+        <v>15.14679255145271</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.74678525045988</v>
+        <v>27.74678525045955</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.78216918808806</v>
+        <v>38.78216918808752</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.655094954710091</v>
+        <v>4.655094954710034</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.82203916827014</v>
+        <v>22.82203916826997</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.69841120174417</v>
+        <v>37.69841120174429</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.8108707488900038</v>
+        <v>0.8108707488897551</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.86822920376324</v>
+        <v>16.86822920376337</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>38.07746231506901</v>
+        <v>38.07746231506877</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.4623115922978513</v>
+        <v>0.4623115922979082</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.4353242140376</v>
+        <v>29.43532421403766</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.95103374376782</v>
+        <v>19.95103374376772</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.04262167816742</v>
+        <v>20.04262167816718</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.10603756484064</v>
+        <v>36.10603756484029</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.14816742087208</v>
+        <v>42.14816742087187</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1.120869051046373</v>
+        <v>1.120869051046132</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.9119372928497</v>
+        <v>10.91193729284967</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.575755048305</v>
+        <v>21.57575504830522</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.83295487041192</v>
+        <v>11.83295487041205</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.20289203801547</v>
+        <v>20.20289203801537</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.65366114954962</v>
+        <v>29.65366114954983</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-4.067823843634969</v>
+        <v>-4.067823843635331</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.677641263777023</v>
+        <v>4.677641263776628</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.074133608082459</v>
+        <v>9.074133608082452</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.1270641152574825</v>
+        <v>-0.1270641152577063</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.98522631270109</v>
+        <v>15.98522631270084</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.7140125583697</v>
+        <v>25.71401255836971</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.54117199014114</v>
+        <v>19.54117199014093</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.31985504548566</v>
+        <v>39.3198550454857</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.00185217260614</v>
+        <v>46.00185217260579</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3.350115124037192</v>
+        <v>3.350115124036893</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.54662337598768</v>
+        <v>16.54662337598767</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.2659851820361</v>
+        <v>22.26598518203627</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.95650117024059</v>
+        <v>63.95650117024074</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>52.40639711892511</v>
+        <v>52.40639711892541</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.4784765718826</v>
+        <v>66.47847657188285</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>73.28271944336583</v>
+        <v>73.28271944336561</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.52961748183175</v>
+        <v>15.52961748183147</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>63.06004678159242</v>
+        <v>63.06004678159256</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>67.69965005848316</v>
+        <v>67.699650058483</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.10230539377054</v>
+        <v>25.10230539377042</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.34787765621489</v>
+        <v>41.34787765621492</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.73412540498586</v>
+        <v>47.73412540498578</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.168952307021801</v>
+        <v>5.16895230702162</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.16090714094267</v>
+        <v>35.16090714094328</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.31959632265389</v>
+        <v>45.31959632265437</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.59231520736206</v>
+        <v>11.59231520736182</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>64.98011505707427</v>
+        <v>64.9801150570743</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.53736338036107</v>
+        <v>72.53736338036086</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.05545530273008</v>
+        <v>77.05545530273034</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>85.44325149770208</v>
+        <v>85.44325149770219</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>91.58235732800156</v>
+        <v>91.58235732800186</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.96725084701782</v>
+        <v>29.9672508470179</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.94223955773198</v>
+        <v>80.94223955773163</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.10401312960524</v>
+        <v>83.10401312960529</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.37119650704737</v>
+        <v>63.3711965070473</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.72541257519748</v>
+        <v>33.72541257519744</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.83865064600921</v>
+        <v>47.83865064600901</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>69.10238114937579</v>
+        <v>69.10238114937543</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.568216616227279</v>
+        <v>4.568216616227186</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.66758162935723</v>
+        <v>50.66758162935766</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>62.98224536876545</v>
+        <v>62.98224536876525</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.09135232200983</v>
+        <v>14.09135232200978</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.03007075869388</v>
+        <v>33.03007075869359</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>44.21930133531136</v>
+        <v>44.219301335311</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-0.3187354912888694</v>
+        <v>-0.3187354912890079</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.4129972734299</v>
+        <v>30.41299727342977</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.72959787513399</v>
+        <v>44.72959787513403</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>3.403565886197494</v>
+        <v>3.403565886197722</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>56.05425039964567</v>
+        <v>56.05425039964557</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.96982856896867</v>
+        <v>73.96982856896869</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>64.00124127272078</v>
+        <v>64.00124127272021</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>73.79901308946756</v>
+        <v>73.79901308946762</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>91.12425266723859</v>
+        <v>91.12425266723896</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>14.74033071855361</v>
+        <v>14.74033071855328</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>66.63221788299316</v>
+        <v>66.63221788299295</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>77.60268345095673</v>
+        <v>77.60268345095663</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.46427942775505</v>
+        <v>58.4642794277549</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>19.3424558626069</v>
+        <v>19.34245586260698</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.57975579588175</v>
+        <v>27.57975579588157</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>48.08396453248443</v>
+        <v>48.08396453248471</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3.883219325288835</v>
+        <v>3.883219325288728</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.25989977437144</v>
+        <v>37.25989977437192</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>54.33556270609593</v>
+        <v>54.33556270609559</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.07827194824434</v>
+        <v>10.07827194824448</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.96690902542154</v>
+        <v>32.96690902542144</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>47.98814350849755</v>
+        <v>47.98814350849757</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>2.410442683971368</v>
+        <v>2.410442683971493</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.56362020147245</v>
+        <v>29.56362020147235</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.16332883367515</v>
+        <v>46.16332883367538</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.503811569450779</v>
+        <v>2.50381156945064</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.22223971551815</v>
+        <v>47.2222397155184</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>71.47543751821227</v>
+        <v>71.47543751821195</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.75725409947226</v>
+        <v>50.75725409947263</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.58280695157093</v>
+        <v>63.58280695157045</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>86.20770497362406</v>
+        <v>86.20770497362398</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>12.46567676301739</v>
+        <v>12.46567676301733</v>
       </c>
     </row>
     <row r="538">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>74.93145709922918</v>
+        <v>74.93145709922877</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.79267273244475</v>
+        <v>14.7926727324446</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.87508722114223</v>
+        <v>11.87508722114212</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.13069451887397</v>
+        <v>19.13069451887396</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.247930114765257</v>
+        <v>2.247930114765474</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.351804868340757</v>
+        <v>8.351804868341176</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.84282938772654</v>
+        <v>10.84282938772669</v>
       </c>
     </row>
     <row r="546">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.51644836688407</v>
+        <v>20.51644836688381</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.56749415305636</v>
+        <v>21.56749415305639</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.762845144169926</v>
+        <v>9.762845144169708</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.1392996767618</v>
+        <v>14.13929967676186</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.44432625316508</v>
+        <v>17.44432625316506</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.62950944785463</v>
+        <v>13.6295094478542</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.19919371973001</v>
+        <v>11.19919371973044</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.5913618398734</v>
+        <v>17.59136183987298</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.68611169080265</v>
+        <v>13.68611169080263</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.76557305681642</v>
+        <v>22.76557305681621</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.34703538643862</v>
+        <v>32.34703538643844</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.016326645629839</v>
+        <v>1.016326645629903</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.512304565676288</v>
+        <v>8.512304565676398</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.61464274286307</v>
+        <v>11.61464274286296</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>2.297009650960952</v>
+        <v>2.297009650960899</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.20408505411009</v>
+        <v>18.20408505411029</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.55188371476023</v>
+        <v>18.55188371476021</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.63250702464285</v>
+        <v>20.63250702464319</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.6516568064848</v>
+        <v>20.65165680648494</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.948558122663211</v>
+        <v>1.948558122663265</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.54390238720396</v>
+        <v>19.54390238720394</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.15186010202105</v>
+        <v>19.15186010202085</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.637368959126952</v>
+        <v>5.637368959126977</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.32761131779667</v>
+        <v>26.32761131779675</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.44173159171864</v>
+        <v>25.44173159171845</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.9514528011721</v>
+        <v>27.9514528011713</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.58987859770154</v>
+        <v>34.58987859770114</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.55161874390629</v>
+        <v>36.5516187439065</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.65032558330056</v>
+        <v>17.65032558329983</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.18108923862909</v>
+        <v>31.18108923862897</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.12540969133323</v>
+        <v>29.12540969133292</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.43102104369697</v>
+        <v>16.43102104369713</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.74745271198913</v>
+        <v>32.74745271198921</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.96290399164334</v>
+        <v>37.96290399164322</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.854558221037479</v>
+        <v>4.854558221037575</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.65364837071133</v>
+        <v>28.65364837071157</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.17365877076263</v>
+        <v>38.17365877076281</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.300710633154125</v>
+        <v>8.300710633154225</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.75352769107174</v>
+        <v>47.75352769107141</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.19453212046216</v>
+        <v>6.194532120462423</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.03847218423425</v>
+        <v>13.03847218423451</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.53859889233915</v>
+        <v>16.5385988923394</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>0.7054582257153932</v>
+        <v>0.7054582257156383</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>18.01620362289015</v>
+        <v>18.01620362288993</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.24266388426528</v>
+        <v>20.24266388426537</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.846082339588666</v>
+        <v>5.846082339588733</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.20582732228094</v>
+        <v>27.2058273222806</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.65535577020894</v>
+        <v>30.65535577020908</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.8123077714149</v>
+        <v>32.81230777141484</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.33787829829387</v>
+        <v>36.33787829829406</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.81845214209848</v>
+        <v>39.81845214209872</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.416386333162954</v>
+        <v>6.416386333162677</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.2751846226323</v>
+        <v>17.27518462263242</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.95757779765406</v>
+        <v>21.95757779765423</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.189006284941449</v>
+        <v>9.189006284941552</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.83342588730631</v>
+        <v>24.8334258873063</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.36380502361769</v>
+        <v>34.36380502361781</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-0.4039585334751656</v>
+        <v>-0.4039585334752296</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.67385044862081</v>
+        <v>16.67385044862082</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.62036217448131</v>
+        <v>34.6203621744811</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.88685621718033</v>
+        <v>1.886856217180245</v>
       </c>
     </row>
     <row r="608">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.911765029956335</v>
+        <v>4.911765029956499</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.182493553325003</v>
+        <v>8.182493553324978</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>15.86035516817658</v>
+        <v>15.86035516817671</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0.2617665661166768</v>
+        <v>0.2617665661162469</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>11.98757626267973</v>
+        <v>11.98757626267968</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.44895293067964</v>
+        <v>20.44895293067944</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>2.003610102595655</v>
+        <v>2.00361010259574</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.57538714135073</v>
+        <v>22.57538714135094</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.24206993358023</v>
+        <v>28.24206993358039</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.82696177780404</v>
+        <v>24.82696177780411</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.35998282532789</v>
+        <v>28.35998282532783</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.57003315255489</v>
+        <v>31.57003315255472</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.926497551153584</v>
+        <v>6.926497551153147</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.59272579330488</v>
+        <v>15.59272579330461</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.45934398438949</v>
+        <v>21.45934398438898</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>7.078552697607591</v>
+        <v>7.078552697607869</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.7072827943954</v>
+        <v>22.70728279439544</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.75369731833532</v>
+        <v>35.75369731833526</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2.556781623339315</v>
+        <v>2.556781623339543</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.12070918451307</v>
+        <v>17.12070918451318</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.13012749124127</v>
+        <v>35.13012749124154</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>3.930653555333429</v>
+        <v>3.93065355533302</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.55720252486297</v>
+        <v>28.55720252486267</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.97306281626705</v>
+        <v>23.97306281626721</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.67184902498028</v>
+        <v>22.67184902498045</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.09051939649365</v>
+        <v>37.09051939649372</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.6693403659695</v>
+        <v>43.66934036596929</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.584249810027909</v>
+        <v>4.584249810027774</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.84027892883473</v>
+        <v>16.84027892883454</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.24494866709125</v>
+        <v>25.24494866709127</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.31868289252963</v>
+        <v>12.31868289252966</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.43255196898691</v>
+        <v>21.43255196898671</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.2057626602341</v>
+        <v>29.20576266023404</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.08311058827211</v>
+        <v>-2.083110588271939</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>6.053784308099114</v>
+        <v>6.053784308098887</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.67244762400296</v>
+        <v>10.67244762400297</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1.921087175425267</v>
+        <v>1.921087175425043</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.25548340041266</v>
+        <v>18.25548340041286</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.02406334223879</v>
+        <v>26.02406334223859</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.97244660809796</v>
+        <v>21.97244660809819</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.22422387015974</v>
+        <v>40.22422387015971</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.010895962093</v>
+        <v>45.01089596209331</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>5.779878567805788</v>
+        <v>5.779878567805863</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.13727347964768</v>
+        <v>19.13727347964741</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.91312993362735</v>
+        <v>23.91312993362714</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>58.94985985503938</v>
+        <v>58.94985985503956</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.27721792082022</v>
+        <v>48.27721792082023</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>61.18202510628359</v>
+        <v>61.18202510628369</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>67.53621674421875</v>
+        <v>67.53621674421893</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.2257152501714</v>
+        <v>15.22571525017151</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.98769585570457</v>
+        <v>58.98769585570503</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>61.7613940184762</v>
+        <v>61.76139401847624</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.92408071783181</v>
+        <v>22.92408071783192</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.45886331403078</v>
+        <v>39.45886331403074</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.75806388345955</v>
+        <v>44.75806388345966</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.921809351703459</v>
+        <v>6.921809351703573</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.05530618644919</v>
+        <v>34.05530618644931</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.12617871289895</v>
+        <v>43.12617871289885</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.14557152083022</v>
+        <v>13.14557152083041</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>60.37695895576199</v>
+        <v>60.37695895576205</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.28617020519668</v>
+        <v>66.28617020519665</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>68.77820852095336</v>
+        <v>68.77820852095383</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>79.03320014827679</v>
+        <v>79.03320014827665</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>82.0072043981836</v>
+        <v>82.00720439818404</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.88232342471927</v>
+        <v>27.88232342471943</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.19438082015445</v>
+        <v>74.19438082015425</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.83521168790651</v>
+        <v>75.83521168790674</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>57.30773336268872</v>
+        <v>57.30773336268845</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.02477064186603</v>
+        <v>33.02477064186583</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.21195241026209</v>
+        <v>46.21195241026233</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>63.89202789216401</v>
+        <v>63.89202789216417</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.837531094973588</v>
+        <v>5.837531094973585</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.10354367072857</v>
+        <v>48.10354367072875</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.98450640822179</v>
+        <v>57.98450640822162</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.54886943908434</v>
+        <v>13.54886943908444</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.64097512332931</v>
+        <v>31.64097512332914</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.85151406049305</v>
+        <v>41.85151406049313</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2.584314315616375</v>
+        <v>2.584314315616282</v>
       </c>
     </row>
     <row r="687">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.40595265080829</v>
+        <v>43.40595265080823</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>6.536849870842925</v>
+        <v>6.53684987084295</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.17148381950625</v>
+        <v>52.17148381950594</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.84518350825122</v>
+        <v>67.84518350825101</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.62736084112942</v>
+        <v>59.62736084112957</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.01196799991921</v>
+        <v>70.01196799991911</v>
       </c>
     </row>
     <row r="694">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.97047836644036</v>
+        <v>62.97047836644029</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>72.2828259930199</v>
+        <v>72.28282599301971</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.25519745965561</v>
+        <v>54.25519745965494</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.34040007519191</v>
+        <v>21.34040007519182</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.0776035721776</v>
+        <v>31.07760357217757</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.55512000481239</v>
+        <v>47.55512000481212</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>6.478382245023717</v>
+        <v>6.478382245023479</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.41374701649081</v>
+        <v>37.41374701649094</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.26264241428947</v>
+        <v>52.26264241428959</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.2294494546923</v>
+        <v>11.22944945469235</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.31529915658397</v>
+        <v>32.31529915658412</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>45.4125354420358</v>
+        <v>45.41253544203566</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>5.167825326138345</v>
+        <v>5.167825326138175</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.72532692946127</v>
+        <v>29.72532692946147</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.15150383299416</v>
+        <v>44.15150383299404</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>6.794814368349421</v>
+        <v>6.794814368349225</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.53317946587751</v>
+        <v>46.53317946587691</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>66.76989603578748</v>
+        <v>66.76989603578747</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.49517527532559</v>
+        <v>49.49517527532555</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.10669315556312</v>
+        <v>63.10669315556305</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>79.91008562194938</v>
+        <v>79.91008562194932</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.39736749299892</v>
+        <v>14.39736749299876</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.03113218154404</v>
+        <v>60.03113218154343</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>70.43715542816207</v>
+        <v>70.43715542816187</v>
       </c>
     </row>
     <row r="720">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.95584328886017</v>
+        <v>18.95584328886021</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.79110537040609</v>
+        <v>31.79110537040613</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-0.9411205266559151</v>
+        <v>-0.9411205266557587</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.22659387586515</v>
+        <v>12.22659387586502</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.2666604346689</v>
+        <v>19.26666043466886</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>2.28394386234169</v>
+        <v>2.283943862341996</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.82699085351594</v>
+        <v>40.8269908535162</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.36922792571607</v>
+        <v>43.36922792571636</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.08644146492294</v>
+        <v>23.08644146492261</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.74244475904718</v>
+        <v>25.74244475904748</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.0261952555623</v>
+        <v>27.02619525556258</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.188213782093623</v>
+        <v>9.188213782093467</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.3620762865629</v>
+        <v>21.36207628656313</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.27591118431322</v>
+        <v>36.27591118431351</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.28261836529135</v>
+        <v>14.28261836529159</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.45495089789358</v>
+        <v>26.45495089789378</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.92292021873302</v>
+        <v>32.92292021873313</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-0.4594589723857645</v>
+        <v>-0.4594589723856721</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.37958762815902</v>
+        <v>11.37958762815873</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.98592818139212</v>
+        <v>10.98592818139213</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-2.145069725754048</v>
+        <v>-2.145069725754233</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.40893270270479</v>
+        <v>24.40893270270455</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.18638921258522</v>
+        <v>25.18638921258523</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.48264673542109</v>
+        <v>37.48264673542106</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.96460875980128</v>
+        <v>39.96460875980161</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>5.227427197951009</v>
+        <v>5.227427197950899</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.46510934532582</v>
+        <v>37.46510934532588</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.79541189219864</v>
+        <v>38.79541189219884</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.874345605668097</v>
+        <v>6.874345605668253</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.37221349319081</v>
+        <v>55.37221349319056</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.90913025700905</v>
+        <v>53.9091302570092</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.52471083819346</v>
+        <v>55.52471083819331</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.9229171930307</v>
+        <v>60.92291719303071</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>62.34784035618819</v>
+        <v>62.34784035618834</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.34441318011632</v>
+        <v>21.34441318011629</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.02225875330143</v>
+        <v>59.02225875330166</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.98589734897402</v>
+        <v>61.98589734897433</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.22375909200492</v>
+        <v>19.22375909200506</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.06557952197878</v>
+        <v>40.06557952197852</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.30643578928992</v>
+        <v>40.30643578928998</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4.510816648968888</v>
+        <v>4.510816648968913</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.83763519169692</v>
+        <v>36.83763519169662</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.21819886169867</v>
+        <v>38.21819886169821</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5.234399769698872</v>
+        <v>5.234399769698896</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>58.88206835223721</v>
+        <v>58.88206835223779</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.736105235723954</v>
+        <v>7.736105235724111</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.9026148880873</v>
+        <v>25.90261488808725</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.54735414894472</v>
+        <v>32.54735414894453</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.373103314336845</v>
+        <v>2.373103314336795</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.37831011780843</v>
+        <v>34.37831011780831</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.98527151772385</v>
+        <v>38.98527151772379</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.494831663511921</v>
+        <v>6.494831663511693</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.84079444739854</v>
+        <v>54.8407944473982</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.59519755532835</v>
+        <v>57.59519755532868</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>62.01433977848403</v>
+        <v>62.01433977848428</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>65.01332654673246</v>
+        <v>65.01332654673249</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.91600840974573</v>
+        <v>67.91600840974559</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.507137446436602</v>
+        <v>3.507137446436488</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.68627025924877</v>
+        <v>40.68627025924906</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>47.80098390500348</v>
+        <v>47.8009839050041</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.98230001182976</v>
+        <v>12.98230001182964</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.02432165077567</v>
+        <v>34.02432165077575</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.1712734386881</v>
+        <v>38.17127343868799</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.103346827458342</v>
+        <v>3.103346827458445</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.39787371930991</v>
+        <v>29.39787371930984</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.33040973617585</v>
+        <v>38.33040973617621</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.452075320361761</v>
+        <v>4.452075320361892</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.31891784124664</v>
+        <v>49.31891784124683</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.741007623939147</v>
+        <v>4.741007623939318</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.92122183308341</v>
+        <v>17.92122183308303</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.88723142141828</v>
+        <v>32.88723142141833</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.14048106427704</v>
+        <v>0.140481064277207</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.41040707989383</v>
+        <v>19.41040707989391</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.70676730050689</v>
+        <v>39.70676730050656</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1.411386849189697</v>
+        <v>1.411386849189228</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>47.77217845752184</v>
+        <v>47.77217845752148</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>57.03244664365061</v>
+        <v>57.03244664365053</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.57411011155403</v>
+        <v>52.57411011155378</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.17079071832462</v>
+        <v>56.17079071832455</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.70709803424684</v>
+        <v>62.70709803424701</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>3.361909873334152</v>
+        <v>3.36190987333427</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.57343288909142</v>
+        <v>33.57343288909189</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>49.42242622171059</v>
+        <v>49.42242622171035</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.172989092372731</v>
+        <v>7.172989092372749</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.49244788485225</v>
+        <v>26.49244788485226</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.07626200380439</v>
+        <v>37.07626200380457</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.163835448241745</v>
+        <v>1.163835448241588</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>20.73230571399463</v>
+        <v>20.7323057139945</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.91061737641132</v>
+        <v>35.91061737641127</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>0.4653073103554242</v>
+        <v>0.4653073103556054</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.71689451527358</v>
+        <v>36.71689451527374</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.34031309293546</v>
+        <v>26.34031309293548</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.53187477486216</v>
+        <v>24.53187477486192</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>37.37506815339303</v>
+        <v>37.37506815339307</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.66357613738676</v>
+        <v>38.66357613738664</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.735529489088684</v>
+        <v>6.735529489088478</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.57884779313921</v>
+        <v>15.57884779313919</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.12820457903999</v>
+        <v>26.12820457904017</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.51734743325216</v>
+        <v>11.51734743325225</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.8772270575226</v>
+        <v>20.87722705752275</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.52693285029998</v>
+        <v>32.52693285030006</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-2.712159223849408</v>
+        <v>-2.712159223849188</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.815741136351186</v>
+        <v>8.815741136351161</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.22010746584943</v>
+        <v>15.2201074658493</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.08262912693060898</v>
+        <v>0.08262912693074753</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.91917337600659</v>
+        <v>22.91917337600639</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.70167738873644</v>
+        <v>38.70167738873631</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.78377939620253</v>
+        <v>26.78377939620287</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.70286257161484</v>
+        <v>44.7028625716146</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.46408555776963</v>
+        <v>51.46408555776924</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>4.201408517126193</v>
+        <v>4.201408517126204</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.08449695914267</v>
+        <v>21.08449695914283</v>
       </c>
     </row>
     <row r="833">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.16175490028307</v>
+        <v>63.16175490028304</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.01732307352997</v>
+        <v>56.01732307352999</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>67.20022185301677</v>
+        <v>67.20022185301664</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>65.98102876728302</v>
+        <v>65.98102876728342</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.615294861558</v>
+        <v>17.6152948615582</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.65884932140322</v>
+        <v>62.65884932140288</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.20334695499083</v>
+        <v>64.20334695499078</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.60894562841501</v>
+        <v>22.6089456284151</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.91003194288434</v>
+        <v>40.91003194288416</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.5302330036677</v>
+        <v>45.53023300366759</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>3.57219547671248</v>
+        <v>3.572195476712437</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.80659466396703</v>
+        <v>40.80659466396715</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.06771147510186</v>
+        <v>45.06771147510172</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.113403049901063</v>
+        <v>6.11340304990156</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>64.52113465125204</v>
+        <v>64.5211346512521</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>71.75787230307736</v>
+        <v>71.7578723030776</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.13052878403835</v>
+        <v>75.13052878403839</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>85.43900900628574</v>
+        <v>85.439009006286</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.82269512530543</v>
+        <v>88.8226951253053</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.31831745512821</v>
+        <v>18.31831745512774</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>77.75007374805826</v>
+        <v>77.75007374805843</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>79.64263829639326</v>
+        <v>79.64263829639323</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.12020800011808</v>
+        <v>66.12020800011814</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.46466248186863</v>
+        <v>48.46466248186885</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.49229460875058</v>
+        <v>57.49229460875046</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>66.81405804254251</v>
+        <v>66.81405804254265</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>9.731015144620557</v>
+        <v>9.731015144620473</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>54.16423114044434</v>
+        <v>54.16423114044433</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>62.16518414190072</v>
+        <v>62.16518414190082</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.82128617663592</v>
+        <v>13.8212861766358</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.16582301563837</v>
+        <v>34.16582301563858</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.27578536640446</v>
+        <v>43.27578536640449</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.9620586852963342</v>
+        <v>0.9620586852964976</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.51481854330275</v>
+        <v>38.51481854330248</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.32243381963341</v>
+        <v>46.32243381963334</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.735591850650113</v>
+        <v>2.735591850649865</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>59.87146363905485</v>
+        <v>59.87146363905494</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>75.29326078563453</v>
+        <v>75.29326078563427</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>70.16282510964193</v>
+        <v>70.16282510964176</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.53412004986681</v>
+        <v>77.53412004986686</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>92.08845117648359</v>
+        <v>92.08845117648364</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.840749454036608</v>
+        <v>7.840749454036658</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.85881790920054</v>
+        <v>67.85881790920031</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.62417271511436</v>
+        <v>76.62417271511448</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.47367721245688</v>
+        <v>57.47367721245701</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.8219183061593</v>
+        <v>26.82191830615923</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.87337668796241</v>
+        <v>34.87337668796239</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.4390859847481</v>
+        <v>45.43908598474816</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3.92298440195308</v>
+        <v>3.922984401953027</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.25644235783126</v>
+        <v>25.25644235783118</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.77558210725188</v>
+        <v>53.77558210725186</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.259754677267932</v>
+        <v>7.259754677268035</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.04789514134155</v>
+        <v>30.04789514134151</v>
       </c>
     </row>
     <row r="887">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>0.5557887298211917</v>
+        <v>0.5557887298214972</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.97442875033244</v>
+        <v>30.97442875033217</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.55897753625908</v>
+        <v>45.55897753625941</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-0.1339777702714535</v>
+        <v>-0.1339777702715672</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.64872323340873</v>
+        <v>48.64872323340884</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>72.32019749685391</v>
+        <v>72.32019749685392</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.84765763712399</v>
+        <v>53.84765763712377</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.38047764460205</v>
+        <v>66.38047764460227</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>86.71707535774229</v>
+        <v>86.71707535774216</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>5.664880250218854</v>
+        <v>5.664880250218907</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.7732115748979</v>
+        <v>57.77321157489772</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>76.50381648024681</v>
+        <v>76.50381648024661</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.812</v>
+        <v>16.27</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.357</v>
+        <v>12.342</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.049</v>
+        <v>2.416</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.77870325629031</v>
+        <v>13.22899903262836</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.216480110163364</v>
+        <v>12.58844893279354</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.47209300239131</v>
+        <v>24.0231562421837</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.224904100707331</v>
+        <v>4.499101626381908</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.54486042080518</v>
+        <v>19.63929752765307</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.72657224687234</v>
+        <v>23.30582628184968</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.335576303982435</v>
+        <v>7.346540030279819</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.05539535089503</v>
+        <v>31.13783862763864</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.76033355611568</v>
+        <v>32.99069441250857</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.81486933137558</v>
+        <v>14.21559279930775</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.54574861579402</v>
+        <v>16.57252333571394</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.12717683292281</v>
+        <v>17.71767063908347</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.47988802054974</v>
+        <v>21.6517597132743</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.93608134527665</v>
+        <v>20.35392497762339</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.42617317190291</v>
+        <v>34.31940924397859</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.07368368563053</v>
+        <v>13.32214821118014</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.06671494884421</v>
+        <v>24.29754336191552</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.78615678258291</v>
+        <v>35.46627673600064</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.0747602497142</v>
+        <v>8.556392039935329</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.18833537638158</v>
+        <v>15.12227518385017</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19.61483788665938</v>
+        <v>16.9707312255411</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.519934930278517</v>
+        <v>3.806587635315662</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.97592747241806</v>
+        <v>19.05516027829886</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.74374772661355</v>
+        <v>18.82548323205114</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.71298337703822</v>
+        <v>24.09609340936603</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.78534191557924</v>
+        <v>24.92806517776805</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.774817233680583</v>
+        <v>4.682547726427011</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.29333500413738</v>
+        <v>30.03117095791979</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.9939026773832</v>
+        <v>33.50642547850774</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.788064561521988</v>
+        <v>7.913555111353759</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>34.96460872017162</v>
+        <v>39.6984954348095</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.32955623344824</v>
+        <v>38.41533277705683</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.41611000213816</v>
+        <v>38.97417789837449</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.68495349176197</v>
+        <v>42.33853775811295</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>43.57140332754428</v>
+        <v>42.99561995404814</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>31.72925585997817</v>
+        <v>27.70530392503713</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.49079180939228</v>
+        <v>36.31901669903878</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.18285530588678</v>
+        <v>42.94153915649828</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.99970878322299</v>
+        <v>19.4996669133836</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>34.54293944658041</v>
+        <v>33.23105454836578</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.72592114418688</v>
+        <v>35.59426049100628</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.33306893031891</v>
+        <v>9.318627676606152</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.72436254191727</v>
+        <v>34.1187950768182</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.9902413644636</v>
+        <v>40.57850489980266</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53.04039469169061</v>
+        <v>47.61372278784852</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.069694918395818</v>
+        <v>8.777042317234727</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.57484187236553</v>
+        <v>19.0826138230699</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.24053219072276</v>
+        <v>22.92204339510077</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.195997220672208</v>
+        <v>2.680846143686505</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.99909416396529</v>
+        <v>29.46390403732217</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.98827318959259</v>
+        <v>31.290088081642</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.702501295987968</v>
+        <v>7.870013808094768</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.24100487181171</v>
+        <v>39.94652695126426</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.57274908106598</v>
+        <v>42.15782829744113</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.45517522207025</v>
+        <v>41.33409288942051</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.71079669886833</v>
+        <v>44.33674799392008</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.5696828660877</v>
+        <v>49.47667503326166</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.61385052335889</v>
+        <v>19.33282093346523</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>27.06396065535142</v>
+        <v>31.43223314679641</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>33.5221026726419</v>
+        <v>37.74786288322561</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.45505162307916</v>
+        <v>11.76079471016082</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.75971118189017</v>
+        <v>29.18982808947391</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.37381015101187</v>
+        <v>34.71546947553428</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>7.629119172640426</v>
+        <v>8.967715952356269</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.44925862976064</v>
+        <v>27.85828067926251</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.25455171812965</v>
+        <v>40.62401113462512</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.546169127288927</v>
+        <v>5.284976730392547</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>44.36710377854679</v>
+        <v>42.51022816205902</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.334902136994831</v>
+        <v>5.356481282850378</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.131611073563569</v>
+        <v>12.33896131036973</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.11373927557177</v>
+        <v>20.53125247142984</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.385692088549664</v>
+        <v>3.443594380621398</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>27.91948531530806</v>
+        <v>28.57828106935009</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35.75047550755474</v>
+        <v>33.96102541423085</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2.214900348805866</v>
+        <v>3.837659583511222</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.40940215931517</v>
+        <v>39.47522596663374</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>43.94022317877118</v>
+        <v>42.03919073844078</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.52181652109233</v>
+        <v>36.28267251126143</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>41.51346634780494</v>
+        <v>38.8341714308718</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>48.37299067892567</v>
+        <v>42.84394960602572</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.60054102711345</v>
+        <v>16.86552421615123</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>20.75121902320132</v>
+        <v>25.24350696345267</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.43203256555491</v>
+        <v>39.66889659302019</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.603545815501231</v>
+        <v>8.856796571388688</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.02722598562311</v>
+        <v>25.60732206222696</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.34140403745327</v>
+        <v>33.3135417697405</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>10.34167757212106</v>
+        <v>9.256867940091649</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.99455809439501</v>
+        <v>26.97988839832444</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43.56269035029969</v>
+        <v>40.02342377432781</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.850685341374131</v>
+        <v>2.990917009355922</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.38221771389057</v>
+        <v>37.3935891301986</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.74021615793449</v>
+        <v>23.259264277963</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.78224106609584</v>
+        <v>20.94454456066894</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>42.20687437422971</v>
+        <v>39.93975857683589</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.23561942835175</v>
+        <v>45.61354700967955</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.145043223367765</v>
+        <v>7.731498308641374</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.31819525633759</v>
+        <v>15.96283721687387</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.10083440287515</v>
+        <v>23.53758720842721</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11.45897271663241</v>
+        <v>12.27608199372918</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>19.81847282492781</v>
+        <v>20.06868586890815</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.93674216906182</v>
+        <v>31.86889647253448</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.241568936840547</v>
+        <v>8.589659374882793</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>16.04655628789228</v>
+        <v>13.22701171807878</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.75230249666518</v>
+        <v>16.88467455156949</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1.745197704957512</v>
+        <v>3.610502956588174</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.46694918985263</v>
+        <v>18.63170959750638</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.22429449158704</v>
+        <v>33.49248506921288</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.04125983414479</v>
+        <v>21.00905786357987</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>47.82901946650925</v>
+        <v>45.24291336982056</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.80155230145765</v>
+        <v>51.83662694858369</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3.898048271898521</v>
+        <v>7.543906772239222</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.92134492808558</v>
+        <v>18.07035927957229</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.77592867891926</v>
+        <v>28.3558488572448</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>61.96558704957209</v>
+        <v>58.70626795124559</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.90051195459347</v>
+        <v>50.37063663829969</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>67.25088142214845</v>
+        <v>63.50064940217813</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>71.78022434417154</v>
+        <v>66.78805323209906</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.26075691156461</v>
+        <v>19.24293903483609</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>62.52687833138094</v>
+        <v>56.87015209674927</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>62.44847203947135</v>
+        <v>60.30985928957149</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.28181078403625</v>
+        <v>23.42684649597591</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.82556819799014</v>
+        <v>37.67558833503593</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>47.28118410466486</v>
+        <v>43.51635467903718</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>11.65005841159631</v>
+        <v>10.15103663846575</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.91141154959816</v>
+        <v>40.97583360145547</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.1461562389044</v>
+        <v>48.17486810528568</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.102697890833106</v>
+        <v>7.594799288196469</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>62.8589089638923</v>
+        <v>58.98826619352864</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.55434834427385</v>
+        <v>70.03442226704578</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>71.18947322220264</v>
+        <v>68.60854814669517</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>84.705696878577</v>
+        <v>79.99842059727104</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>91.74576789571387</v>
+        <v>85.64028733262396</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.74765473933962</v>
+        <v>25.87792742692059</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>77.62759999957912</v>
+        <v>73.20130041528829</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>77.96860260184454</v>
+        <v>75.98924970787445</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>64.74971564943539</v>
+        <v>62.25372925359366</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.72391230839539</v>
+        <v>40.8515856554202</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>51.7491182494912</v>
+        <v>48.91805253416577</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>69.65764756368802</v>
+        <v>64.42511226547776</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>12.7162801986194</v>
+        <v>11.88988595109008</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>53.98640051696563</v>
+        <v>50.73240290975478</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.2038040400899</v>
+        <v>15.75824272957049</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>33.23377189111235</v>
+        <v>32.99118717947087</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>44.82920845939234</v>
+        <v>42.66154677748304</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>8.321770789747791</v>
+        <v>9.077690116641573</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.72425574460568</v>
+        <v>37.84234328366606</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>49.3331493548225</v>
+        <v>47.57533210201309</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>4.200800997704729</v>
+        <v>7.151096417581769</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>58.61767266999121</v>
+        <v>54.74625571201905</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>78.12391149279607</v>
+        <v>74.25369724337929</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.07602714055236</v>
+        <v>64.88804719606426</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>75.53783235328166</v>
+        <v>73.4628694630282</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>92.3037040979746</v>
+        <v>86.55947582291921</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>15.00931760857749</v>
+        <v>16.41641162772792</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>63.95544396093824</v>
+        <v>64.97890032236627</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>72.80489031729316</v>
+        <v>74.00216909271569</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>58.43735467419958</v>
+        <v>55.4467097525646</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.92653201256844</v>
+        <v>25.05052442988283</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>32.46291591235345</v>
+        <v>31.46839860834945</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>49.46218811758368</v>
+        <v>46.10827642461151</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.96268788389847</v>
+        <v>9.009476838802421</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.41423265046146</v>
+        <v>44.72195799044182</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>54.61704767971733</v>
+        <v>52.80038259052146</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>10.38990802473998</v>
+        <v>12.49052760940961</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>33.58199973286297</v>
+        <v>31.31121135362879</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>49.63764239172467</v>
+        <v>45.27670514797782</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>11.91208903621722</v>
+        <v>10.28566731001165</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>39.77062149888604</v>
+        <v>34.65529366749273</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>54.00793708716262</v>
+        <v>50.37283589467069</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.746803423528888</v>
+        <v>3.359145876170416</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.33133572140106</v>
+        <v>49.3502432804074</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>76.86441264971445</v>
+        <v>72.50722969368022</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>57.63690192054479</v>
+        <v>53.46336448804027</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.91007848880092</v>
+        <v>66.59674011107219</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>92.34724567400056</v>
+        <v>86.1264451535952</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.83992049195932</v>
+        <v>13.649586727298</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>62.21215491402003</v>
+        <v>60.23249357287855</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>76.43424867357716</v>
+        <v>74.95780061585464</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.49233450469901</v>
+        <v>18.83164952323201</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>35.66276346007631</v>
+        <v>26.365719175083</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>49.4762996082405</v>
+        <v>41.69682156450236</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3.659018152813228</v>
+        <v>7.039275934942523</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.81997035076294</v>
+        <v>33.10693277167164</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>50.55589426968403</v>
+        <v>39.15469639071353</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>8.953490151766363</v>
+        <v>10.18429785542706</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>84.24516996192605</v>
+        <v>59.86456347772473</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>83.11774778711984</v>
+        <v>65.2942272753188</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.41871470573195</v>
+        <v>28.5398439335087</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.60458988256715</v>
+        <v>31.61862789494787</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>43.33815543362039</v>
+        <v>33.74971497051183</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.0848283164009</v>
+        <v>20.09840494746533</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.23135003150143</v>
+        <v>28.41722762328452</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>68.44434595983392</v>
+        <v>48.86569684418276</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.13474119896269</v>
+        <v>19.11150107049852</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.24180917844248</v>
+        <v>35.23060119569246</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>39.79037583301184</v>
+        <v>37.702632455692</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-2.370949087043453</v>
+        <v>5.881901443164736</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>17.61604829988359</v>
+        <v>19.30746550828111</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.27505126801624</v>
+        <v>23.79505155814673</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-0.3413799485458924</v>
+        <v>8.241803935570658</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.18839644843498</v>
+        <v>36.1226117890453</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.10756451787666</v>
+        <v>26.8238518545136</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>61.62944681334807</v>
+        <v>43.10642193218951</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>60.31973709436001</v>
+        <v>44.75050586195916</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>9.844612700027479</v>
+        <v>7.843771690625125</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>64.37129471211178</v>
+        <v>46.29282258844982</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>60.87288133235937</v>
+        <v>48.03695069633875</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>11.53732642567583</v>
+        <v>10.51962900598127</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>93.94200975572885</v>
+        <v>68.42896156517685</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>83.67179711180823</v>
+        <v>65.4738947832</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>79.2243242298462</v>
+        <v>58.44945468624189</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>90.43291659184068</v>
+        <v>65.88100634097739</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>84.09067444744764</v>
+        <v>63.97612205908934</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.0961291426762</v>
+        <v>24.95237718849047</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>69.58245493281488</v>
+        <v>50.13341286122025</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>77.60792321209286</v>
+        <v>59.4209641522214</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.84575655407696</v>
+        <v>25.72263717321812</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>51.09567327811602</v>
+        <v>41.97754428884036</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>48.94291175019529</v>
+        <v>41.76640686006315</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3.759053159957318</v>
+        <v>6.418303713622052</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>41.33625444768672</v>
+        <v>36.82490835932932</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>43.46496669720329</v>
+        <v>39.41509285524816</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>7.494568176792473</v>
+        <v>9.179329286901865</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>68.97528203139403</v>
+        <v>59.7582559362844</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.9283010492106</v>
+        <v>11.75956052824103</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>44.26794579883385</v>
+        <v>30.25778159041293</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>45.68501438172066</v>
+        <v>36.10816103042728</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.824176632136162</v>
+        <v>6.507335217528617</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>61.14543533515712</v>
+        <v>45.02997446044343</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>57.8934761943345</v>
+        <v>45.39813400053776</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6.798749575521899</v>
+        <v>9.599633214127273</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>90.69144401832077</v>
+        <v>64.59734031040969</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>82.60974566350862</v>
+        <v>64.5697918289105</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>95.56777945798635</v>
+        <v>68.91429842602068</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>106.2929769882221</v>
+        <v>75.91175866083243</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>97.20410878970429</v>
+        <v>71.54821570067821</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>8.222480749780601</v>
+        <v>10.15910212350009</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>47.12981268164639</v>
+        <v>34.74159297785932</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>58.49928435392215</v>
+        <v>43.93418221080231</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.56960764533682</v>
+        <v>18.64193367214182</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.15922713061698</v>
+        <v>39.27377302206435</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.1141049852569</v>
+        <v>40.56415904766669</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.884047719965331</v>
+        <v>6.299281607483255</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>39.54520063062289</v>
+        <v>35.37971404065703</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>44.90935908502613</v>
+        <v>40.19209765568061</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>7.225176806970563</v>
+        <v>8.53474113746265</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>67.20964026566003</v>
+        <v>54.51135837013799</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>7.012998544326742</v>
+        <v>9.294062794918744</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37.73627589474854</v>
+        <v>26.21769525219635</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.57867948144204</v>
+        <v>37.43341789198261</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>9.432784649319796</v>
+        <v>7.435028025210364</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>61.90112930888372</v>
+        <v>46.36837193444896</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>68.05757043568794</v>
+        <v>52.1644895329416</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>9.432635493396718</v>
+        <v>7.51870787430806</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>96.87766124493064</v>
+        <v>68.26098133307171</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>93.75614038936504</v>
+        <v>69.46007754332453</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>89.92776843348804</v>
+        <v>65.13068060133625</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>99.46515009525336</v>
+        <v>71.81348548392995</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>98.94743496360714</v>
+        <v>72.53660532019282</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.16961812729175</v>
+        <v>8.469066226258747</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>45.98558418310442</v>
+        <v>35.42141709187732</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>64.70256298278245</v>
+        <v>48.55558810456656</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.93311971921468</v>
+        <v>13.90158394091205</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>42.38325410466429</v>
+        <v>36.49687349058605</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.65732764182998</v>
+        <v>41.01655813839081</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>4.239961829997412</v>
+        <v>6.606970867385758</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>38.9517445333713</v>
+        <v>33.60687518405453</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>48.47717139831331</v>
+        <v>41.3473034745307</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>7.459907966097486</v>
+        <v>8.041421339062662</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>61.88584869645931</v>
+        <v>51.37967758097638</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>40.69478071139832</v>
+        <v>35.11870006261216</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35.21213405570249</v>
+        <v>31.17608195720064</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>49.73569811303818</v>
+        <v>43.90069850996883</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>51.18936706216742</v>
+        <v>48.94268851617031</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.22177889646365</v>
+        <v>15.30621730145162</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.21170003485936</v>
+        <v>30.7509229246666</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>46.56516213763501</v>
+        <v>37.90886892059767</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.34026289790972</v>
+        <v>15.64867197009113</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>32.84853760058549</v>
+        <v>31.80894121399452</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>44.36095693163777</v>
+        <v>39.09234238231398</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>1.264643629496316</v>
+        <v>6.18590436076742</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.72521578544349</v>
+        <v>16.55123237180189</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.41110197941619</v>
+        <v>26.67474048603549</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.147601300701119</v>
+        <v>9.365777815577268</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>47.63425135479021</v>
+        <v>36.01257221529829</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>67.46376447055529</v>
+        <v>56.5461876881342</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>44.13197631729525</v>
+        <v>34.74788313842403</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>60.61079927986714</v>
+        <v>53.60977515503922</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>67.32493990521793</v>
+        <v>59.70544006949433</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.99876953079091</v>
+        <v>13.26561309005755</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.43272958933211</v>
+        <v>32.32909218092037</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>55.96848914405938</v>
+        <v>44.82351191345292</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>70.91138057281745</v>
+        <v>63.61510836727199</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>68.6691789512177</v>
+        <v>61.52658998956282</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>79.21604223498645</v>
+        <v>69.13763946080535</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>77.06381757185535</v>
+        <v>68.75430525305597</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.33120754882438</v>
+        <v>24.41455834601168</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>75.55456659926219</v>
+        <v>64.39624131113425</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>74.27783493275633</v>
+        <v>64.30920227634155</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.13445704932596</v>
+        <v>27.06546197347991</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>51.53685763964366</v>
+        <v>43.71610512424395</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>48.94148426022669</v>
+        <v>44.13638481056343</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>3.688075571554247</v>
+        <v>6.524627879136322</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>46.92952433020642</v>
+        <v>43.77491485723351</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>46.18200805182956</v>
+        <v>43.5196104733738</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>8.11259394343822</v>
+        <v>8.177246341681752</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>78.03537888023877</v>
+        <v>66.84961059899052</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.59000475003337</v>
+        <v>67.14392028016002</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>83.62020582395671</v>
+        <v>71.28761543137712</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>90.77406091926021</v>
+        <v>76.13213238979597</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>88.29478233315685</v>
+        <v>75.8501431289704</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.11222478115883</v>
+        <v>27.87844628303923</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.58963252331638</v>
+        <v>72.25874467855903</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>85.00487909752631</v>
+        <v>74.33069342850749</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>75.47263869736881</v>
+        <v>63.04562509750974</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>67.2552534719801</v>
+        <v>55.62980516287914</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>78.17490941221233</v>
+        <v>65.11662577281115</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>80.56068734061017</v>
+        <v>67.80623692470053</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.80513814378325</v>
+        <v>16.71018417025739</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>72.09849502186746</v>
+        <v>60.66013268291485</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>72.11074400050002</v>
+        <v>61.45650897597015</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.63486802970724</v>
+        <v>17.61565067639803</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.06113501356604</v>
+        <v>38.89707130489504</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.53129387561656</v>
+        <v>40.64031310937337</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.749099196960227</v>
+        <v>5.875670987978015</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.98073840896109</v>
+        <v>43.83366666248434</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>46.64367636141029</v>
+        <v>42.07657928506494</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.547105340932724</v>
+        <v>8.316685201550882</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>76.61379969749932</v>
+        <v>65.59084727310473</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>79.25572213253878</v>
+        <v>67.55627466521273</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>85.95103202038628</v>
+        <v>71.97954830508857</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>93.30468689940764</v>
+        <v>77.28313923327735</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>93.66660139084856</v>
+        <v>79.17599620721934</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.19796818658485</v>
+        <v>15.71458216651138</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>81.16259982400749</v>
+        <v>71.52501600335169</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>82.08263725704964</v>
+        <v>73.52158047092074</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>75.08306775941807</v>
+        <v>64.61391820065026</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.31930983044101</v>
+        <v>38.07113961441902</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>63.79171076114008</v>
+        <v>48.7737195481885</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>67.98793767230526</v>
+        <v>56.46908296483262</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>15.91541583636734</v>
+        <v>13.51435982489803</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>68.10179822161462</v>
+        <v>58.46983310856301</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>75.61902883759645</v>
+        <v>64.06699740041591</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>9.612781499047687</v>
+        <v>12.93853102344104</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.31047723654788</v>
+        <v>39.32679289263527</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>47.60638795252613</v>
+        <v>44.04243729708439</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>1.65553970252547</v>
+        <v>6.282863753291771</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>44.21225631403012</v>
+        <v>41.35780404730562</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>51.00523145933756</v>
+        <v>47.00203921225889</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>2.622395295751172</v>
+        <v>6.774223448616365</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>70.50498911593961</v>
+        <v>61.52277845849593</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>83.21067749016358</v>
+        <v>68.87118071196207</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>74.70269987678834</v>
+        <v>66.52356002469682</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>87.13232848388657</v>
+        <v>73.40956600567182</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>94.96979987595985</v>
+        <v>79.55975480636096</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>9.715764095289758</v>
+        <v>11.83313681419481</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.98862907007263</v>
+        <v>69.16857797050312</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>85.89396805872261</v>
+        <v>75.43553094963235</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>15.13175199540925</v>
+        <v>13.75631317633619</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>11.10417924039509</v>
+        <v>14.74589716291645</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.20249214436351</v>
+        <v>22.1567371561297</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.2148607500119404</v>
+        <v>3.844611112474169</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.89957799335702</v>
+        <v>14.0220436729485</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>12.95864573661505</v>
+        <v>15.87953384095839</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>5.611308840702762</v>
+        <v>8.492060655714901</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.66332458275842</v>
+        <v>25.9689681220027</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.40743770253817</v>
+        <v>27.7376640384526</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>10.2662247210908</v>
+        <v>14.59107510408615</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>14.64394766755009</v>
+        <v>18.29213151730612</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.10710524831972</v>
+        <v>20.04641029807751</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.45298809042579</v>
+        <v>21.24573297492973</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.36065420417303</v>
+        <v>21.13877457109026</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.85173041663582</v>
+        <v>32.54136819435202</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.66590175573783</v>
+        <v>11.78766043813433</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.03431375308868</v>
+        <v>23.48492864881376</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.93660144269735</v>
+        <v>33.40980888531241</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.640780802543826</v>
+        <v>3.385062028377469</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>5.214834496797142</v>
+        <v>8.441597292863488</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>8.462944634284732</v>
+        <v>11.25120247857305</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1.984156825003431</v>
+        <v>3.302898569176055</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.45324796825735</v>
+        <v>15.79421655784564</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.31291880933277</v>
+        <v>17.90446950426778</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.74858804483432</v>
+        <v>22.95723553741021</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.93837310215869</v>
+        <v>22.63469009366476</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-0.2850460815782512</v>
+        <v>4.372360179260546</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.96258511084178</v>
+        <v>25.6696398138439</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.32043659876219</v>
+        <v>28.42416360928702</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4.482346310973799</v>
+        <v>8.175097949520957</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.91087466369251</v>
+        <v>36.37873944939022</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>30.00995851164452</v>
+        <v>35.50328052142761</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.54929762279701</v>
+        <v>37.83450178155845</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.50760283515972</v>
+        <v>42.78700977379457</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.94118446099536</v>
+        <v>43.91931736015771</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.83483466241046</v>
+        <v>25.97782335245327</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.32551841491996</v>
+        <v>40.7294638326463</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>47.05286672949249</v>
+        <v>46.14715900801896</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.88342399326534</v>
+        <v>15.24652285379517</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.70687819827606</v>
+        <v>32.46112740362366</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.42372412944485</v>
+        <v>36.60956373293295</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>3.223823742150412</v>
+        <v>4.24324055312406</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.77876743100586</v>
+        <v>29.70717313867041</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.15263131454534</v>
+        <v>39.02507843231267</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>6.204308274075768</v>
+        <v>5.097314329413852</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.64509031905592</v>
+        <v>45.17698656368993</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.245607264857643</v>
+        <v>9.58745061713817</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.17619819757498</v>
+        <v>18.06071596290772</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>19.70366236878138</v>
+        <v>20.04293585861303</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.24044480538188</v>
+        <v>2.421831208148987</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.73730281169084</v>
+        <v>24.84734515800795</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.85840347717523</v>
+        <v>26.48316226932435</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.74654222058501</v>
+        <v>7.633215882971829</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.25780860579068</v>
+        <v>35.88104944081737</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.81525983684708</v>
+        <v>38.57224248817641</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.6055005311562</v>
+        <v>39.51550193161883</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.87427546310765</v>
+        <v>41.91294770191956</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.9888400131379</v>
+        <v>46.84134950912812</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.96804139118493</v>
+        <v>18.35495996477503</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.49427350403241</v>
+        <v>32.22113976340433</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.72034794895232</v>
+        <v>38.03640468647642</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.445420101536424</v>
+        <v>8.248252578149533</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.20111902309521</v>
+        <v>26.79705901843358</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.32432651254536</v>
+        <v>35.76908991746345</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-2.676417913546643</v>
+        <v>3.459113602859453</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>16.11496189082613</v>
+        <v>20.77272712806106</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.97107590697449</v>
+        <v>39.09263526232969</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-0.666552307308045</v>
+        <v>4.15728689818808</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.32272534676371</v>
+        <v>35.90439901475544</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.507222496382123</v>
+        <v>7.340533963087061</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>9.090654102148942</v>
+        <v>13.83036615556531</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.78711459139838</v>
+        <v>18.7750955126378</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-1.228661012854239</v>
+        <v>2.719240210566753</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.99134921471127</v>
+        <v>21.62170940441421</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.76347623496636</v>
+        <v>27.5896251667332</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>0.8491086342660985</v>
+        <v>4.378419534701742</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.78618370251848</v>
+        <v>33.65397558788353</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>35.62518010964486</v>
+        <v>37.41626014148648</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.13145999919003</v>
+        <v>31.99270264721878</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.80401872003439</v>
+        <v>34.83642018869016</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.93362264184857</v>
+        <v>39.22125841696007</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>15.14679255145271</v>
+        <v>17.0732745010947</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.74678525045955</v>
+        <v>28.19391525195298</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.78216918808752</v>
+        <v>38.67457433971067</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>4.655094954710034</v>
+        <v>6.667690359890877</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.82203916826997</v>
+        <v>22.57131622281763</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>37.69841120174429</v>
+        <v>33.11985388571109</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>0.8108707488897551</v>
+        <v>4.079765464178401</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>16.86822920376337</v>
+        <v>19.3814193060634</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>38.07746231506877</v>
+        <v>37.53345343799377</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0.4623115922979082</v>
+        <v>2.826237042636741</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.43532421403766</v>
+        <v>30.52366937614571</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.95103374376772</v>
+        <v>20.11324562579014</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.04262167816718</v>
+        <v>19.50753541238499</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.10603756484029</v>
+        <v>36.86139627073863</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>42.14816742087187</v>
+        <v>43.60548761655625</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1.120869051046132</v>
+        <v>5.488977080788409</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.91193729284967</v>
+        <v>13.1687508093865</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.57575504830522</v>
+        <v>20.49811241892192</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.83295487041205</v>
+        <v>12.60997988380885</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>20.20289203801537</v>
+        <v>21.38211971595048</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.65366114954983</v>
+        <v>30.56297256870146</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-4.067823843635331</v>
+        <v>3.165815264392034</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>4.677641263776628</v>
+        <v>7.144010569650085</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>9.074133608082452</v>
+        <v>10.85584276982203</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-0.1270641152577063</v>
+        <v>3.667882051787139</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.98522631270084</v>
+        <v>16.59459701668978</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.71401255836971</v>
+        <v>28.70296806797949</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>19.54117199014093</v>
+        <v>20.22771101285732</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.3198550454857</v>
+        <v>39.17225391765747</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.00185217260579</v>
+        <v>46.24901917910537</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3.350115124036893</v>
+        <v>6.724152273802389</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.54662337598767</v>
+        <v>16.27064051821369</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.26598518203627</v>
+        <v>25.32795725223534</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>63.95650117024074</v>
+        <v>59.22050262256803</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>52.40639711892541</v>
+        <v>48.47425715938259</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.47847657188285</v>
+        <v>62.76805403746705</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>73.28271944336561</v>
+        <v>66.01185211398692</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>15.52961748183147</v>
+        <v>14.61434752684086</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>63.06004678159256</v>
+        <v>57.34364963788376</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>67.699650058483</v>
+        <v>62.9565454945227</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.10230539377042</v>
+        <v>23.39396830301044</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.34787765621492</v>
+        <v>39.10733723721145</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.73412540498578</v>
+        <v>43.97155372124772</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.16895230702162</v>
+        <v>5.839796367919501</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.16090714094328</v>
+        <v>37.41642790238934</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.31959632265437</v>
+        <v>45.92407503749783</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>11.59231520736182</v>
+        <v>10.1973676156119</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>64.9801150570743</v>
+        <v>60.0260152074971</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>72.53736338036086</v>
+        <v>68.41411878863342</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>77.05545530273034</v>
+        <v>70.71949368214555</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>85.44325149770219</v>
+        <v>79.18328217779694</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>91.58235732800186</v>
+        <v>84.43875555059014</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.9672508470179</v>
+        <v>27.97667306468053</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>80.94223955773163</v>
+        <v>74.34301177420727</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>83.10401312960529</v>
+        <v>78.66390669069094</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>63.3711965070473</v>
+        <v>61.56432847539119</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.72541257519744</v>
+        <v>36.41578891593753</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>47.83865064600901</v>
+        <v>46.83803485734225</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>69.10238114937543</v>
+        <v>64.10434140448137</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>4.568216616227186</v>
+        <v>7.343552096145949</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>50.66758162935766</v>
+        <v>48.62210996413601</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>62.98224536876525</v>
+        <v>58.43328798689733</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.09135232200978</v>
+        <v>14.48681520913451</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.03007075869359</v>
+        <v>33.41022137967322</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>44.219301335311</v>
+        <v>42.76332000294822</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-0.3187354912890079</v>
+        <v>4.023503070640547</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.41299727342977</v>
+        <v>33.52383235186949</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.72959787513403</v>
+        <v>45.81664375028892</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>3.403565886197722</v>
+        <v>7.097837142342964</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>56.05425039964557</v>
+        <v>52.8829826717932</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>73.96982856896869</v>
+        <v>71.93480041692874</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>64.00124127272021</v>
+        <v>63.70755396984673</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>73.79901308946762</v>
+        <v>71.98149827802366</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>91.12425266723896</v>
+        <v>85.12990368009896</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>14.74033071855328</v>
+        <v>16.67614718051642</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>66.63221788299295</v>
+        <v>65.41637152764676</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>77.60268345095663</v>
+        <v>76.05566337894338</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>58.4642794277549</v>
+        <v>55.96976932545295</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>19.34245586260698</v>
+        <v>22.39404930065552</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>27.57975579588157</v>
+        <v>29.37207009168693</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>48.08396453248471</v>
+        <v>46.75365022774226</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3.883219325288728</v>
+        <v>6.041992351525565</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.25989977437192</v>
+        <v>39.32889322249151</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>54.33556270609559</v>
+        <v>52.85973551815295</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.07827194824448</v>
+        <v>11.2958724455433</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.96690902542144</v>
+        <v>31.50718390907813</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>47.98814350849757</v>
+        <v>43.9250477616682</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>2.410442683971493</v>
+        <v>4.765342600306951</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.56362020147235</v>
+        <v>30.11310807338123</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.16332883367538</v>
+        <v>46.0207723020052</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>2.50381156945064</v>
+        <v>3.83203806377491</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.2222397155184</v>
+        <v>47.39383151952374</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>71.47543751821195</v>
+        <v>69.85909896311516</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.75725409947263</v>
+        <v>51.8208938062054</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.58280695157045</v>
+        <v>63.3817282425379</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>86.20770497362398</v>
+        <v>82.22529782970983</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>12.46567676301733</v>
+        <v>12.75405595913679</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>61.32998926154562</v>
+        <v>59.42778236500639</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>74.93145709922877</v>
+        <v>74.09714106004679</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>14.7926727324446</v>
+        <v>16.11704791572996</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>11.87508722114212</v>
+        <v>18.03427031453617</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>19.13069451887396</v>
+        <v>22.24492284757827</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>2.247930114765474</v>
+        <v>9.422875295577171</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>8.351804868341176</v>
+        <v>15.03691500783992</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.84282938772669</v>
+        <v>15.84757735378621</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.183192865035725</v>
+        <v>12.87875361315696</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.51644836688381</v>
+        <v>24.01252546920291</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.56749415305639</v>
+        <v>25.15608903556066</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.762845144169708</v>
+        <v>16.97474748480881</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>14.13929967676186</v>
+        <v>20.24566767703774</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.44432625316506</v>
+        <v>21.81790828455465</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.6295094478542</v>
+        <v>18.21148389386293</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>11.19919371973044</v>
+        <v>18.39767081418795</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>17.59136183987298</v>
+        <v>23.99865620000918</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.68611169080263</v>
+        <v>16.06004614455165</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.76557305681621</v>
+        <v>25.79547679272872</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.34703538643844</v>
+        <v>32.16234436521189</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.016326645629903</v>
+        <v>8.272149540027112</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.512304565676398</v>
+        <v>12.66409799105974</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.61464274286296</v>
+        <v>15.38763353970693</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>2.297009650960899</v>
+        <v>9.321179608260358</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.20408505411029</v>
+        <v>20.84136563411091</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.55188371476021</v>
+        <v>19.22731619333326</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.63250702464319</v>
+        <v>23.48259439193492</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.65165680648494</v>
+        <v>22.37515329110543</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.948558122663265</v>
+        <v>10.06658974894572</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.54390238720394</v>
+        <v>23.96966788574726</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>19.15186010202085</v>
+        <v>25.94924248486939</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>5.637368959126977</v>
+        <v>12.43067184449307</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.32761131779675</v>
+        <v>32.05958246605678</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.44173159171845</v>
+        <v>31.03118918751236</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.9514528011713</v>
+        <v>33.2487643859019</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.58987859770114</v>
+        <v>37.66718699621169</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.5516187439065</v>
+        <v>38.37157566669222</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>17.65032558329983</v>
+        <v>21.20369158134107</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.18108923862897</v>
+        <v>31.65725362259614</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.12540969133292</v>
+        <v>34.06608798193965</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>16.43102104369713</v>
+        <v>18.04290898502666</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.74745271198921</v>
+        <v>32.08420042692934</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.96290399164322</v>
+        <v>35.13268047972237</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>4.854558221037575</v>
+        <v>9.088500669110005</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.65364837071157</v>
+        <v>29.22659975067019</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>38.17365877076281</v>
+        <v>35.89245858388343</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>8.300710633154225</v>
+        <v>10.1910708198603</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>47.75352769107141</v>
+        <v>42.34362478691181</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>6.194532120462423</v>
+        <v>12.80155181383948</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.03847218423451</v>
+        <v>18.47909283779673</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>16.5385988923394</v>
+        <v>19.51119814333641</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>0.7054582257156383</v>
+        <v>8.323047845257555</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>18.01620362288993</v>
+        <v>22.44464085189576</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.24266388426537</v>
+        <v>23.28555973987478</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.846082339588733</v>
+        <v>11.60003751107133</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.2058273222806</v>
+        <v>30.17530499516497</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>30.65535577020908</v>
+        <v>32.00522779416537</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.81230777141484</v>
+        <v>33.93961922927495</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.33787829829406</v>
+        <v>36.27985567614049</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.81845214209872</v>
+        <v>39.76307858125126</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.416386333162677</v>
+        <v>15.2319632820614</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>17.27518462263242</v>
+        <v>23.97077586618609</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.95757779765423</v>
+        <v>27.0018967339814</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>9.189006284941552</v>
+        <v>12.39816274955816</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.8334258873063</v>
+        <v>26.72058975556932</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.36380502361781</v>
+        <v>34.5434842285989</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-0.4039585334752296</v>
+        <v>8.224847843869046</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.67385044862082</v>
+        <v>21.59684739890692</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>34.6203621744811</v>
+        <v>35.88549314754324</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>1.886856217180245</v>
+        <v>9.6562849631628</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.64735696856968</v>
+        <v>33.65182993056299</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>4.911765029956499</v>
+        <v>11.7571021236618</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>8.182493553324978</v>
+        <v>16.18364025627538</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>15.86035516817671</v>
+        <v>19.28623858694113</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>0.2617665661162469</v>
+        <v>8.451907383435447</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>11.98757626267968</v>
+        <v>19.996921130314</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.44895293067944</v>
+        <v>24.43158222722324</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>2.00361010259574</v>
+        <v>9.683922536813792</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.57538714135094</v>
+        <v>28.67294003639401</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.24206993358039</v>
+        <v>31.70239448559656</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.82696177780411</v>
+        <v>27.88797983436041</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.35998282532783</v>
+        <v>30.47497783732795</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>31.57003315255472</v>
+        <v>34.04370869119053</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.926497551153147</v>
+        <v>14.77613425438581</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.59272579330461</v>
+        <v>22.38647292986839</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.45934398438898</v>
+        <v>27.09046458856085</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>7.078552697607869</v>
+        <v>11.55957747936763</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.70728279439544</v>
+        <v>23.88134518264661</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>35.75369731833526</v>
+        <v>32.50367913225409</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2.556781623339543</v>
+        <v>8.821579283388672</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>17.12070918451318</v>
+        <v>20.56485202175891</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>35.13012749124154</v>
+        <v>34.0890452229485</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>3.93065355533302</v>
+        <v>8.936388417235779</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.55720252486267</v>
+        <v>29.57813293091845</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.97306281626721</v>
+        <v>24.08990505205151</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.67184902498045</v>
+        <v>22.75620386173166</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.09051939649372</v>
+        <v>36.70303805258015</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>43.66934036596929</v>
+        <v>41.75189969439231</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>4.584249810027774</v>
+        <v>11.21227469424214</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>16.84027892883454</v>
+        <v>18.64329322321689</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.24494866709127</v>
+        <v>24.86401951081159</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>12.31868289252966</v>
+        <v>16.99776194273543</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.43255196898671</v>
+        <v>24.90455986920983</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.20576266023404</v>
+        <v>31.33181574535324</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-2.083110588271939</v>
+        <v>8.000704746481336</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>6.053784308098887</v>
+        <v>11.04986882180058</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>10.67244762400297</v>
+        <v>14.10790997213784</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1.921087175425043</v>
+        <v>9.610818663514294</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.25548340041286</v>
+        <v>20.03589015054805</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.02406334223859</v>
+        <v>28.87981357279755</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.97244660809819</v>
+        <v>23.61486283879694</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.22422387015971</v>
+        <v>38.23701132288348</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>45.01089596209331</v>
+        <v>43.24690150796551</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>5.779878567805863</v>
+        <v>11.89253448244057</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.13727347964741</v>
+        <v>19.50080966273587</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.91312993362714</v>
+        <v>25.49617558606888</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>58.94985985503956</v>
+        <v>52.14643894414681</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.27721792082023</v>
+        <v>44.72606452903858</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>61.18202510628369</v>
+        <v>55.4552455435616</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>67.53621674421893</v>
+        <v>58.00764447927136</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>15.22571525017151</v>
+        <v>17.58265823026757</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>58.98769585570503</v>
+        <v>51.45045362955571</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>61.76139401847624</v>
+        <v>55.31229857596627</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.92408071783192</v>
+        <v>24.45247023347165</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.45886331403074</v>
+        <v>37.38651300338715</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.75806388345966</v>
+        <v>41.06923357783538</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>6.921809351703573</v>
+        <v>10.35928895921101</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.05530618644931</v>
+        <v>34.81448890055565</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.12617871289885</v>
+        <v>41.89045563773939</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.14557152083041</v>
+        <v>14.85470425875897</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>60.37695895576205</v>
+        <v>53.88036089799394</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>66.28617020519665</v>
+        <v>59.08880373409751</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>68.77820852095383</v>
+        <v>61.22916499887245</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>79.03320014827665</v>
+        <v>67.64016354572034</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>82.00720439818404</v>
+        <v>71.12992600064609</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>27.88232342471943</v>
+        <v>29.01079645718158</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>74.19438082015425</v>
+        <v>65.50156271356624</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>75.83521168790674</v>
+        <v>68.15767277238101</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>57.30773336268845</v>
+        <v>54.13871560601464</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.02477064186583</v>
+        <v>34.95455618407762</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.21195241026233</v>
+        <v>43.53562405979645</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>63.89202789216417</v>
+        <v>56.66539352487753</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.837531094973585</v>
+        <v>11.97034823218835</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>48.10354367072875</v>
+        <v>44.36094144340405</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.98450640822162</v>
+        <v>52.82521853211551</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.54886943908444</v>
+        <v>16.35786671695309</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.64097512332914</v>
+        <v>31.91507221329146</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.85151406049313</v>
+        <v>39.45854051210797</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>2.584314315616282</v>
+        <v>8.591586557466524</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.29013895569389</v>
+        <v>31.49972772905382</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.40595265080823</v>
+        <v>42.10122645116311</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>6.53684987084295</v>
+        <v>11.62491916756289</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>52.17148381950594</v>
+        <v>47.33182095195839</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>67.84518350825101</v>
+        <v>61.59668913485361</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>59.62736084112957</v>
+        <v>55.27428344957637</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>70.01196799991911</v>
+        <v>62.8805883328371</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>82.32840231166715</v>
+        <v>71.38040827664952</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>15.10353110130846</v>
+        <v>19.74472488392961</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>62.97047836644029</v>
+        <v>58.76442332396276</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>72.28282599301971</v>
+        <v>66.39341721608011</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.25519745965494</v>
+        <v>50.39375470290717</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.34040007519182</v>
+        <v>24.57852172493939</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.07760357217757</v>
+        <v>31.59914761393065</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.55512000481212</v>
+        <v>44.29124055382393</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>6.478382245023479</v>
+        <v>11.08782044579742</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>37.41374701649094</v>
+        <v>36.85032446414459</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>52.26264241428959</v>
+        <v>48.55499033378057</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>11.22944945469235</v>
+        <v>14.80116900567408</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>32.31529915658412</v>
+        <v>31.07495701868474</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>45.41253544203566</v>
+        <v>41.0460957771055</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>5.167825326138175</v>
+        <v>9.292564070695732</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.72532692946147</v>
+        <v>30.1262566395166</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>44.15150383299404</v>
+        <v>41.82547133384544</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>6.794814368349225</v>
+        <v>9.856542204442327</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.53317946587691</v>
+        <v>44.49211862445692</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>66.76989603578747</v>
+        <v>61.09504208293159</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.49517527532555</v>
+        <v>48.15931438918828</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>63.10669315556305</v>
+        <v>57.70353031983061</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>79.91008562194932</v>
+        <v>70.43085852753529</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>14.39736749299876</v>
+        <v>16.28695313227249</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>60.03113218154343</v>
+        <v>54.7359348530275</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>70.43715542816187</v>
+        <v>64.95851994908867</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>14.90089632743327</v>
+        <v>12.83961960380798</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.95584328886021</v>
+        <v>18.7253649065117</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.79110537040613</v>
+        <v>31.60947962545681</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-0.9411205266557587</v>
+        <v>2.961552541422371</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.22659387586502</v>
+        <v>15.06869926362478</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.26666043466886</v>
+        <v>18.40070196924502</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>2.283943862341996</v>
+        <v>5.212523004158825</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>40.8269908535162</v>
+        <v>36.19421004590187</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>43.36922792571636</v>
+        <v>42.45424006798118</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.08644146492261</v>
+        <v>21.40717203516956</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.74244475904748</v>
+        <v>25.00663510699012</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.02619525556258</v>
+        <v>26.18992025318229</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>9.188213782093467</v>
+        <v>11.80537382484668</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.36207628656313</v>
+        <v>19.45962985324547</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.27591118431351</v>
+        <v>32.19347642479845</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>14.28261836529159</v>
+        <v>12.94308002710444</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.45495089789378</v>
+        <v>26.41259950279163</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.92292021873313</v>
+        <v>31.50846589289458</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-0.4594589723856721</v>
+        <v>2.557844633049903</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.37958762815873</v>
+        <v>11.25653942256223</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.98592818139213</v>
+        <v>13.2817500213113</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-2.145069725754233</v>
+        <v>3.436691112110694</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.40893270270455</v>
+        <v>23.48121940553975</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.18638921258523</v>
+        <v>19.29248541167007</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.48264673542106</v>
+        <v>32.2185447298428</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.96460875980161</v>
+        <v>34.10389571566246</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>5.227427197950899</v>
+        <v>3.936329036514358</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>37.46510934532588</v>
+        <v>35.38351984572216</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.79541189219884</v>
+        <v>37.36534782501381</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.874345605668253</v>
+        <v>6.131099664867307</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>55.37221349319056</v>
+        <v>52.7908183884055</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>53.9091302570092</v>
+        <v>52.22299042050318</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>55.52471083819331</v>
+        <v>52.56517285125145</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.92291719303071</v>
+        <v>56.79161362657034</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>62.34784035618834</v>
+        <v>58.30650457726643</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.34441318011629</v>
+        <v>17.7304559120163</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.02225875330166</v>
+        <v>50.2040726732567</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.98589734897433</v>
+        <v>55.67020703881722</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.22375909200506</v>
+        <v>17.61372083672912</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.06557952197852</v>
+        <v>35.63713920396226</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>40.30643578928998</v>
+        <v>36.01107732201763</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4.510816648968913</v>
+        <v>3.010152410100787</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.83763519169662</v>
+        <v>34.22533369528742</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>38.21819886169821</v>
+        <v>35.15493488102392</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5.234399769698896</v>
+        <v>4.721397020936575</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>58.88206835223779</v>
+        <v>52.24458830150194</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.736105235724111</v>
+        <v>7.52912783810968</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.90261488808725</v>
+        <v>23.92661251814873</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.54735414894453</v>
+        <v>28.78847449316717</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.373103314336795</v>
+        <v>2.600930582242249</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.37831011780831</v>
+        <v>33.16471805485521</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>38.98527151772379</v>
+        <v>35.38116020066479</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.494831663511693</v>
+        <v>7.034517720007536</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>54.8407944473982</v>
+        <v>51.25812256133345</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>57.59519755532868</v>
+        <v>53.2349803763853</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>62.01433977848428</v>
+        <v>57.31130429228027</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>65.01332654673249</v>
+        <v>58.94920015876512</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>67.91600840974559</v>
+        <v>62.68718603125144</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>3.507137446436488</v>
+        <v>7.254947317780157</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.68627025924906</v>
+        <v>35.69722954971862</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>47.8009839050041</v>
+        <v>41.51246962931554</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>12.98230001182964</v>
+        <v>11.03160451866613</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>34.02432165077575</v>
+        <v>32.16615139191035</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>38.17127343868799</v>
+        <v>35.6600589159214</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.103346827458445</v>
+        <v>3.620463027588915</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.39787371930984</v>
+        <v>29.5970310401876</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.33040973617621</v>
+        <v>38.96263636515845</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.452075320361892</v>
+        <v>6.038840207351079</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>49.31891784124683</v>
+        <v>45.69890997537429</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.741007623939318</v>
+        <v>5.127950703492854</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.92122183308303</v>
+        <v>17.62802965548899</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.88723142141833</v>
+        <v>28.03750882497553</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>0.140481064277207</v>
+        <v>2.505115945726708</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.41040707989391</v>
+        <v>20.432581230841</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>39.70676730050656</v>
+        <v>38.12210068772075</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1.411386849189228</v>
+        <v>3.715449701887277</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>47.77217845752148</v>
+        <v>45.17775573403411</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>57.03244664365053</v>
+        <v>53.34728974835497</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.57411011155378</v>
+        <v>48.64265928126092</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.17079071832455</v>
+        <v>52.79612707926388</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>62.70709803424701</v>
+        <v>58.17831984161653</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>3.36190987333427</v>
+        <v>6.624003370508984</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.57343288909189</v>
+        <v>33.06715891620891</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>49.42242622171035</v>
+        <v>43.53423840367979</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.172989092372749</v>
+        <v>7.732946446131201</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.49244788485226</v>
+        <v>27.22397693033163</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.07626200380457</v>
+        <v>33.58322027917174</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1.163835448241588</v>
+        <v>3.342853487274812</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>20.7323057139945</v>
+        <v>23.51121459629677</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.91061737641127</v>
+        <v>35.46899267954608</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>0.4653073103556054</v>
+        <v>3.580796204317576</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.71689451527374</v>
+        <v>37.58880722314391</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.34031309293548</v>
+        <v>24.34524920259146</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.53187477486192</v>
+        <v>23.30264512721702</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>37.37506815339307</v>
+        <v>36.1158918436968</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.66357613738664</v>
+        <v>40.79767038739898</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>6.735529489088478</v>
+        <v>7.948475658769773</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.57884779313919</v>
+        <v>18.12854162815009</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.12820457904017</v>
+        <v>24.630055658416</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>11.51734743325225</v>
+        <v>10.75609459385656</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>20.87722705752275</v>
+        <v>22.89234402089147</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.52693285030006</v>
+        <v>32.95789968739921</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-2.712159223849188</v>
+        <v>2.578079898383169</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>8.815741136351161</v>
+        <v>9.185931231751461</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>15.2201074658493</v>
+        <v>14.38139754435911</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>0.08262912693074753</v>
+        <v>3.859609596013954</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.91917337600639</v>
+        <v>21.91670478468908</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.70167738873631</v>
+        <v>39.68827211777081</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.78377939620287</v>
+        <v>25.88506702975095</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.7028625716146</v>
+        <v>45.50166456149999</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.46408555776924</v>
+        <v>51.23214666158744</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>4.201408517126204</v>
+        <v>7.21375231853845</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.08449695914283</v>
+        <v>20.48019485968973</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.91479941399718</v>
+        <v>32.82339999902096</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.16175490028304</v>
+        <v>58.02472827667025</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.01732307352999</v>
+        <v>55.04164222349368</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>67.20022185301664</v>
+        <v>64.7042980999878</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>65.98102876728342</v>
+        <v>61.96487549922433</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.6152948615582</v>
+        <v>15.5544910897113</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>62.65884932140288</v>
+        <v>58.73808998971106</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.20334695499078</v>
+        <v>61.49310812056593</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.6089456284151</v>
+        <v>20.16474484371656</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.91003194288416</v>
+        <v>39.24125859109797</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>45.53023300366759</v>
+        <v>42.77300804724399</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>3.572195476712437</v>
+        <v>4.430672171338447</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.80659466396715</v>
+        <v>42.23337764990305</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.06771147510172</v>
+        <v>44.31141536233552</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.11340304990156</v>
+        <v>6.346242046048253</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>64.5211346512521</v>
+        <v>63.75759629409007</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>71.7578723030776</v>
+        <v>66.02522941606176</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.13052878403839</v>
+        <v>73.73719771392311</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>85.439009006286</v>
+        <v>78.05012145091776</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>88.8226951253053</v>
+        <v>81.677342709787</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>18.31831745512774</v>
+        <v>19.3245180614578</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>77.75007374805843</v>
+        <v>73.43279508773395</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>79.64263829639323</v>
+        <v>75.80118720035506</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>66.12020800011814</v>
+        <v>60.45033187161094</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.46466248186885</v>
+        <v>47.30667779650172</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>57.49229460875046</v>
+        <v>55.18389806142805</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>66.81405804254265</v>
+        <v>61.85351518996772</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>9.731015144620473</v>
+        <v>9.446450829649407</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>54.16423114044433</v>
+        <v>52.30360482153659</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>62.16518414190082</v>
+        <v>58.79350887319674</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.8212861766358</v>
+        <v>12.01297639068433</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.16582301563858</v>
+        <v>34.70960094294333</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.27578536640449</v>
+        <v>42.02649317110829</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>0.9620586852964976</v>
+        <v>3.373345787702576</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>38.51481854330248</v>
+        <v>36.93824845095558</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.32243381963334</v>
+        <v>45.16374002213973</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2.735591850649865</v>
+        <v>6.544207676992517</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>59.87146363905494</v>
+        <v>56.70591027839657</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>75.29326078563427</v>
+        <v>70.42082255750122</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>70.16282510964176</v>
+        <v>67.65933896531706</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>77.53412004986686</v>
+        <v>75.81881466535455</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>92.08845117648364</v>
+        <v>84.71926533749274</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.840749454036658</v>
+        <v>10.89565782178322</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>67.85881790920031</v>
+        <v>68.01172580673455</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>76.62417271511448</v>
+        <v>75.19940896948872</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>57.47367721245701</v>
+        <v>54.89678171402967</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.82191830615923</v>
+        <v>28.02797310960828</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.87337668796239</v>
+        <v>35.33675667885148</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.43908598474816</v>
+        <v>45.12916606380584</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3.922984401953027</v>
+        <v>6.425831690673814</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.25644235783118</v>
+        <v>34.49781700940498</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.77558210725186</v>
+        <v>53.47220975026882</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>7.259754677268035</v>
+        <v>8.515892936994241</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>30.04789514134151</v>
+        <v>31.46380614461978</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>45.10152173530865</v>
+        <v>42.55527162526089</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>0.5557887298214972</v>
+        <v>3.164333711139673</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.97442875033217</v>
+        <v>30.61081375351737</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>45.55897753625941</v>
+        <v>44.5608071245652</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-0.1339777702715672</v>
+        <v>3.169464105615045</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.64872323340884</v>
+        <v>46.9923228232655</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>72.32019749685392</v>
+        <v>68.48501783491739</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>53.84765763712377</v>
+        <v>52.48428444597479</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>66.38047764460227</v>
+        <v>64.65820796908702</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>86.71707535774216</v>
+        <v>82.49158195903843</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>5.664880250218907</v>
+        <v>8.168425586783727</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.77321157489772</v>
+        <v>59.44528201139028</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>76.50381648024661</v>
+        <v>75.42151571432223</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.621</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.27</v>
+        <v>18.245</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.786</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.342</v>
+        <v>14.72</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.416</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.22899903262836</v>
+        <v>15.23967722977367</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.58844893279354</v>
+        <v>14.88253816127468</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.0231562421837</v>
+        <v>25.14838772366187</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.499101626381908</v>
+        <v>7.331653148513944</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.63929752765307</v>
+        <v>20.72276043524742</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.30582628184968</v>
+        <v>24.43725629234378</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.346540030279819</v>
+        <v>10.02231498926642</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.13783862763864</v>
+        <v>33.98622961222222</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.99069441250857</v>
+        <v>34.49912508588898</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.21559279930775</v>
+        <v>15.75082872428029</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.57252333571394</v>
+        <v>18.43499383860786</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.71767063908347</v>
+        <v>19.10115047042166</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.6517597132743</v>
+        <v>24.21889234320685</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.35392497762339</v>
+        <v>21.87443756676795</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>34.31940924397859</v>
+        <v>36.24422868203084</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.32214821118014</v>
+        <v>14.76129016810949</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.29754336191552</v>
+        <v>24.36268930312162</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.46627673600064</v>
+        <v>34.01548010364419</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.556392039935329</v>
+        <v>11.08865286124582</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.12227518385017</v>
+        <v>16.43732728914969</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.9707312255411</v>
+        <v>18.77896515000051</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.806587635315662</v>
+        <v>6.664068246205716</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.05516027829886</v>
+        <v>19.28391599337468</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.82548323205114</v>
+        <v>21.820484535807</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.09609340936603</v>
+        <v>24.73683030233599</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.92806517776805</v>
+        <v>25.49164003922737</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.682547726427011</v>
+        <v>7.558215324940296</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.03117095791979</v>
+        <v>30.6606511999918</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.50642547850774</v>
+        <v>32.31800641195694</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.913555111353759</v>
+        <v>10.61057109675703</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.6984954348095</v>
+        <v>38.40694252004121</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.41533277705683</v>
+        <v>37.36301600794619</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.97417789837449</v>
+        <v>38.45505127410196</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>42.33853775811295</v>
+        <v>41.42936394068241</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.99561995404814</v>
+        <v>42.31636438387544</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>27.70530392503713</v>
+        <v>29.76632455178283</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.31901669903878</v>
+        <v>40.20376065450242</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>42.94153915649828</v>
+        <v>43.74830690480801</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.4996669133836</v>
+        <v>20.29325177265526</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.23105454836578</v>
+        <v>32.18962804566999</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.59426049100628</v>
+        <v>34.37759790304744</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>9.318627676606152</v>
+        <v>11.47166786312516</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.1187950768182</v>
+        <v>33.56879300563136</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.57850489980266</v>
+        <v>39.32793730407329</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.61372278784852</v>
+        <v>45.78719711272808</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.777042317234727</v>
+        <v>10.63098697355876</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.0826138230699</v>
+        <v>20.61293842411449</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.92204339510077</v>
+        <v>24.07879508006048</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.680846143686505</v>
+        <v>5.828345028778688</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.46390403732217</v>
+        <v>30.00848922122652</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.290088081642</v>
+        <v>31.73527199750213</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.870013808094768</v>
+        <v>10.33940183587983</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.94652695126426</v>
+        <v>39.65250139714664</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42.15782829744113</v>
+        <v>41.68030752456183</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>41.33409288942051</v>
+        <v>42.56658413160154</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.33674799392008</v>
+        <v>44.31204048828813</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>49.47667503326166</v>
+        <v>48.73691594456714</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.33282093346523</v>
+        <v>18.77768630430904</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.43223314679641</v>
+        <v>32.85970984909866</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.74786288322561</v>
+        <v>38.41773739121921</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.76079471016082</v>
+        <v>13.48626386996367</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.18982808947391</v>
+        <v>28.85681917745203</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.71546947553428</v>
+        <v>33.54122259493786</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8.967715952356269</v>
+        <v>10.90815035166389</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.85828067926251</v>
+        <v>26.73134605153919</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.62401113462512</v>
+        <v>38.00382758464309</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.284976730392547</v>
+        <v>7.878624914772029</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>42.51022816205902</v>
+        <v>40.25354909032313</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5.356481282850378</v>
+        <v>8.3201899284735</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>12.33896131036973</v>
+        <v>15.43263204054837</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.53125247142984</v>
+        <v>21.64459681941894</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.443594380621398</v>
+        <v>6.43542442839324</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.57828106935009</v>
+        <v>28.50724161593721</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.96102541423085</v>
+        <v>33.61895145788152</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3.837659583511222</v>
+        <v>6.624751789904074</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>39.47522596663374</v>
+        <v>38.19004864953214</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.03919073844078</v>
+        <v>40.56148694891107</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.28267251126143</v>
+        <v>38.79115805800467</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>38.8341714308718</v>
+        <v>40.05954338701153</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.84394960602572</v>
+        <v>44.92211286745551</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.86552421615123</v>
+        <v>16.97504739300403</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.24350696345267</v>
+        <v>28.02186424722397</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.66889659302019</v>
+        <v>39.64637904352721</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>8.856796571388688</v>
+        <v>10.89920206622687</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.60732206222696</v>
+        <v>25.3555290323833</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.3135417697405</v>
+        <v>31.91061005437496</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>9.256867940091649</v>
+        <v>11.32308325878388</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.97988839832444</v>
+        <v>26.62997841123713</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>40.02342377432781</v>
+        <v>37.98003749949591</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.990917009355922</v>
+        <v>5.829945915969947</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37.3935891301986</v>
+        <v>35.41693810702148</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.259264277963</v>
+        <v>23.23837292288617</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>20.94454456066894</v>
+        <v>21.00174628044714</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>39.93975857683589</v>
+        <v>37.98286438349567</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.61354700967955</v>
+        <v>43.2005631467796</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.731498308641374</v>
+        <v>9.730706187148989</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.96283721687387</v>
+        <v>16.77880407675611</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.53758720842721</v>
+        <v>23.18202533065756</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.27608199372918</v>
+        <v>13.74521578854639</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.06868586890815</v>
+        <v>21.10241759330606</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.86889647253448</v>
+        <v>30.94849394293366</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>8.589659374882793</v>
+        <v>10.80449528307122</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.22701171807878</v>
+        <v>14.9152046021433</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16.88467455156949</v>
+        <v>19.12532942196049</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3.610502956588174</v>
+        <v>6.787821001900713</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.63170959750638</v>
+        <v>19.50502985225896</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.49248506921288</v>
+        <v>31.6908541821315</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.00905786357987</v>
+        <v>21.72433494605346</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>45.24291336982056</v>
+        <v>42.71884597955433</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>51.83662694858369</v>
+        <v>48.78769429063753</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>7.543906772239222</v>
+        <v>9.311098684399131</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.07035927957229</v>
+        <v>19.42844878854124</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.3558488572448</v>
+        <v>27.37854294113754</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.70626795124559</v>
+        <v>54.93662085699215</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.37063663829969</v>
+        <v>48.44214663822473</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.50064940217813</v>
+        <v>59.24884165340255</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>66.78805323209906</v>
+        <v>61.7416632538863</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>19.24293903483609</v>
+        <v>20.83807538142128</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>56.87015209674927</v>
+        <v>53.5633537542265</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60.30985928957149</v>
+        <v>56.07005672276025</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.42684649597591</v>
+        <v>24.74482398407363</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.67558833503593</v>
+        <v>36.3558587237624</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.51635467903718</v>
+        <v>41.40530175064035</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>10.15103663846575</v>
+        <v>12.73814501782801</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.97583360145547</v>
+        <v>39.17990072065303</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.17486810528568</v>
+        <v>45.13448575747375</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.594799288196469</v>
+        <v>10.49183645578383</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>58.98826619352864</v>
+        <v>56.43232386619292</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>70.03442226704578</v>
+        <v>65.16262364990661</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.60854814669517</v>
+        <v>62.54340789576865</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.99842059727104</v>
+        <v>73.48762132235673</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.64028733262396</v>
+        <v>78.98944699308426</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.87792742692059</v>
+        <v>27.32852802082363</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>73.20130041528829</v>
+        <v>68.22088939504542</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>75.98924970787445</v>
+        <v>69.77410404906183</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>62.25372925359366</v>
+        <v>58.05115110184115</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.8515856554202</v>
+        <v>37.90708708920606</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>48.91805253416577</v>
+        <v>46.01447379641002</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.42511226547776</v>
+        <v>59.85504873918336</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.88988595109008</v>
+        <v>13.2483101621601</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50.73240290975478</v>
+        <v>46.934777019744</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.75824272957049</v>
+        <v>16.84263912682523</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.99118717947087</v>
+        <v>32.61035499287581</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>42.66154677748304</v>
+        <v>40.78665231609534</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>9.077690116641573</v>
+        <v>11.69450763076619</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.84234328366606</v>
+        <v>35.37689471902149</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.57533210201309</v>
+        <v>44.43532534402289</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.151096417581769</v>
+        <v>9.625174150689382</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.74625571201905</v>
+        <v>51.78884827389223</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>74.25369724337929</v>
+        <v>68.53304951101761</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.88804719606426</v>
+        <v>59.28418558214921</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.4628694630282</v>
+        <v>67.57543173525362</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>86.55947582291921</v>
+        <v>79.89795584669793</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>16.41641162772792</v>
+        <v>17.87135087431557</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>64.97890032236627</v>
+        <v>58.5644579997744</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>74.00216909271569</v>
+        <v>66.90576130422652</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>55.4467097525646</v>
+        <v>51.75543771061748</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.05052442988283</v>
+        <v>24.77091520109846</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.46839860834945</v>
+        <v>30.26512347395274</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>46.10827642461151</v>
+        <v>43.26073486085826</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>9.009476838802421</v>
+        <v>10.87766821558539</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.72195799044182</v>
+        <v>41.28509454805374</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>52.80038259052146</v>
+        <v>48.9965081328331</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.49052760940961</v>
+        <v>14.32422830308353</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.31121135362879</v>
+        <v>30.78594510253934</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>45.27670514797782</v>
+        <v>43.01033805340477</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>10.28566731001165</v>
+        <v>12.4806229716208</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.65529366749273</v>
+        <v>33.43862081602867</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>50.37283589467069</v>
+        <v>47.64364173787257</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3.359145876170416</v>
+        <v>7.189931920673928</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.3502432804074</v>
+        <v>46.80245963401437</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>72.50722969368022</v>
+        <v>67.05177602523231</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.46336448804027</v>
+        <v>50.25030300264092</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>66.59674011107219</v>
+        <v>61.10275652733355</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>86.1264451535952</v>
+        <v>78.55773874781654</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.649586727298</v>
+        <v>15.40257571097952</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.23249357287855</v>
+        <v>55.46281983811249</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>74.95780061585464</v>
+        <v>69.14506342419295</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>18.83164952323201</v>
+        <v>21.83183406019763</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.365719175083</v>
+        <v>26.82531415878561</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.69682156450236</v>
+        <v>35.68802607523455</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>7.039275934942523</v>
+        <v>13.90759711789093</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.10693277167164</v>
+        <v>29.9857149063482</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>39.15469639071353</v>
+        <v>33.59578578784298</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>10.18429785542706</v>
+        <v>16.02360193876803</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>59.86456347772473</v>
+        <v>48.37487694219246</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>65.2942272753188</v>
+        <v>50.8439049973408</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.5398439335087</v>
+        <v>27.99935845977675</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.61862789494787</v>
+        <v>30.16581934991102</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.74971497051183</v>
+        <v>31.25853371195911</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>20.09840494746533</v>
+        <v>22.62055756066907</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.41722762328452</v>
+        <v>27.81925192138959</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>48.86569684418276</v>
+        <v>42.02588348077293</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.11150107049852</v>
+        <v>21.7685965109685</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.23060119569246</v>
+        <v>32.73195355815838</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.702632455692</v>
+        <v>34.75535969504686</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>5.881901443164736</v>
+        <v>13.77447068361211</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>19.30746550828111</v>
+        <v>22.29579256024845</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.79505155814673</v>
+        <v>25.00809702045082</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>8.241803935570658</v>
+        <v>14.58047364998607</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.1226117890453</v>
+        <v>33.09644453344556</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.8238518545136</v>
+        <v>28.73249371368471</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>43.10642193218951</v>
+        <v>37.98756102079092</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.75050586195916</v>
+        <v>37.88655379977217</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>7.843771690625125</v>
+        <v>14.50515852869468</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>46.29282258844982</v>
+        <v>38.97673858474602</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.03695069633875</v>
+        <v>39.86948566156531</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>10.51962900598127</v>
+        <v>16.44786287856918</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>68.42896156517685</v>
+        <v>53.5464936985061</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>65.4738947832</v>
+        <v>51.22459769832018</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.44945468624189</v>
+        <v>47.55811679505631</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>65.88100634097739</v>
+        <v>52.23312620969906</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>63.97612205908934</v>
+        <v>51.53291195621539</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.95237718849047</v>
+        <v>27.95395344042367</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.13341286122025</v>
+        <v>45.18157822505502</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>59.4209641522214</v>
+        <v>49.36176621751735</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.72263717321812</v>
+        <v>26.41791011142381</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.97754428884036</v>
+        <v>37.62739556158692</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>41.76640686006315</v>
+        <v>37.71964867409684</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>6.418303713622052</v>
+        <v>13.79123519186877</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.82490835932932</v>
+        <v>34.39360308158431</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.41509285524816</v>
+        <v>36.18773012418978</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>9.179329286901865</v>
+        <v>15.14996065534351</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>59.7582559362844</v>
+        <v>49.72347149375994</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.75956052824103</v>
+        <v>16.03988420993141</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.25778159041293</v>
+        <v>28.9634214137148</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.10816103042728</v>
+        <v>32.97014918228868</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6.507335217528617</v>
+        <v>13.93585428263795</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>45.02997446044343</v>
+        <v>38.19452196238333</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.39813400053776</v>
+        <v>38.58430587494875</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>9.599633214127273</v>
+        <v>15.6454269654368</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.59734031040969</v>
+        <v>51.02348138033628</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>64.5697918289105</v>
+        <v>50.97004915721164</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>68.91429842602068</v>
+        <v>55.31645895672415</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>75.91175866083243</v>
+        <v>61.05899530065941</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>71.54821570067821</v>
+        <v>57.43805969278198</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>10.15910212350009</v>
+        <v>15.16672322900101</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.74159297785932</v>
+        <v>32.39059699311642</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.93418221080231</v>
+        <v>38.21250205635674</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>18.64193367214182</v>
+        <v>21.31988120650029</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.27377302206435</v>
+        <v>35.68750518899082</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.56415904766669</v>
+        <v>36.90548026651994</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>6.299281607483255</v>
+        <v>13.57760868766689</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.37971404065703</v>
+        <v>32.72421685095442</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.19209765568061</v>
+        <v>36.7259649136195</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>8.53474113746265</v>
+        <v>14.97484716861692</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>54.51135837013799</v>
+        <v>46.77628254753157</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>9.294062794918744</v>
+        <v>15.81333494961872</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.21769525219635</v>
+        <v>26.51656217659437</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>37.43341789198261</v>
+        <v>33.54475454644098</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>7.435028025210364</v>
+        <v>14.10592784654622</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>46.36837193444896</v>
+        <v>38.36454906979114</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>52.1644895329416</v>
+        <v>42.82962121263819</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>7.51870787430806</v>
+        <v>14.44731418273399</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>68.26098133307171</v>
+        <v>52.5922025383019</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>69.46007754332453</v>
+        <v>53.21493098422201</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>65.13068060133625</v>
+        <v>51.63788607650726</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>71.81348548392995</v>
+        <v>55.64304598904195</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>72.53660532019282</v>
+        <v>57.63360126635507</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>8.469066226258747</v>
+        <v>15.37809942561799</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.42141709187732</v>
+        <v>33.12072041837328</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>48.55558810456656</v>
+        <v>41.47159038860834</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.90158394091205</v>
+        <v>18.42765518635044</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.49687349058605</v>
+        <v>33.4807998355285</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>41.01655813839081</v>
+        <v>36.59690052539106</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>6.606970867385758</v>
+        <v>13.66482850621201</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.60687518405453</v>
+        <v>31.33891081958568</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>41.3473034745307</v>
+        <v>37.09468671829993</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.041421339062662</v>
+        <v>14.29385519788521</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>51.37967758097638</v>
+        <v>43.4230081555298</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.11870006261216</v>
+        <v>33.020878719839</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>31.17608195720064</v>
+        <v>30.29166739613943</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>43.90069850996883</v>
+        <v>39.55821965282374</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>48.94268851617031</v>
+        <v>42.71913521046331</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>15.30621730145162</v>
+        <v>19.08726700072433</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.7509229246666</v>
+        <v>29.40036320594382</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37.90886892059767</v>
+        <v>34.68460884459117</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>15.64867197009113</v>
+        <v>20.39729142626274</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.80894121399452</v>
+        <v>31.13703407539984</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>39.09234238231398</v>
+        <v>35.98288466696341</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>6.18590436076742</v>
+        <v>13.57742020346698</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.55123237180189</v>
+        <v>20.26851577364194</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.67474048603549</v>
+        <v>26.67466301431003</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.365777815577268</v>
+        <v>15.23004589624606</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.01257221529829</v>
+        <v>33.18715698714987</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>56.5461876881342</v>
+        <v>47.55346959620472</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>34.74788313842403</v>
+        <v>32.46593148134536</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>53.60977515503922</v>
+        <v>45.68375198802583</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>59.70544006949433</v>
+        <v>50.01001402314701</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.26561309005755</v>
+        <v>17.95136572649222</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>32.32909218092037</v>
+        <v>30.69421796806894</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>44.82351191345292</v>
+        <v>39.41530319160933</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>63.61510836727199</v>
+        <v>53.61760349310019</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>61.52658998956282</v>
+        <v>51.01765471445434</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>69.13763946080535</v>
+        <v>56.23324946568525</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>68.75430525305597</v>
+        <v>56.50091155767812</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.41455834601168</v>
+        <v>26.16161664409721</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.39624131113425</v>
+        <v>53.07068168008094</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>64.30920227634155</v>
+        <v>53.82214135023797</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>27.06546197347991</v>
+        <v>28.47132267858358</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.71610512424395</v>
+        <v>39.28561458308198</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>44.13638481056343</v>
+        <v>39.71475683016185</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>6.524627879136322</v>
+        <v>13.93406874518273</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.77491485723351</v>
+        <v>39.57734349991993</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>43.5196104733738</v>
+        <v>39.95685119482188</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>8.177246341681752</v>
+        <v>15.10225608044308</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>66.84961059899052</v>
+        <v>55.42152250891</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>67.14392028016002</v>
+        <v>55.88670898871717</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>71.28761543137712</v>
+        <v>59.20228265676194</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>76.13213238979597</v>
+        <v>62.70154455399357</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>75.8501431289704</v>
+        <v>63.06585167961872</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.87844628303923</v>
+        <v>28.82633036108934</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>72.25874467855903</v>
+        <v>59.72549650359014</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>74.33069342850749</v>
+        <v>61.0155879067045</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>63.04562509750974</v>
+        <v>52.89026664006943</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>55.62980516287914</v>
+        <v>47.08789559991143</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>65.11662577281115</v>
+        <v>53.54093436711328</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>67.80623692470053</v>
+        <v>55.90387822675873</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.71018417025739</v>
+        <v>20.26204296604092</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>60.66013268291485</v>
+        <v>50.48795239094144</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>61.45650897597015</v>
+        <v>51.77183172110104</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>17.61565067639803</v>
+        <v>21.12232236846761</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.89707130489504</v>
+        <v>36.17741402447442</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.64031310937337</v>
+        <v>37.89106582407369</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>5.875670987978015</v>
+        <v>13.49036878295787</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.83366666248434</v>
+        <v>38.7515507239195</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>42.07657928506494</v>
+        <v>38.93049586227281</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.316685201550882</v>
+        <v>14.97942752669601</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>65.59084727310473</v>
+        <v>54.28546372047211</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>67.55627466521273</v>
+        <v>56.38736697493086</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>71.97954830508857</v>
+        <v>59.09514686979529</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>77.28313923327735</v>
+        <v>62.69022746436717</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>79.17599620721934</v>
+        <v>64.81773175260112</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>15.71458216651138</v>
+        <v>19.45947571003384</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>71.52501600335169</v>
+        <v>58.90022903649222</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>73.52158047092074</v>
+        <v>60.83460438717958</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>64.61391820065026</v>
+        <v>53.4466473213006</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.07113961441902</v>
+        <v>34.80894707793204</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>48.7737195481885</v>
+        <v>41.71642815099978</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>56.46908296483262</v>
+        <v>47.82278767104592</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.51435982489803</v>
+        <v>18.01439546465201</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>58.46983310856301</v>
+        <v>48.12508868396461</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>64.06699740041591</v>
+        <v>52.91065521758365</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>12.93853102344104</v>
+        <v>18.37557329999443</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.32679289263527</v>
+        <v>35.98834381456567</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>44.04243729708439</v>
+        <v>40.05281626055338</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>6.282863753291771</v>
+        <v>13.59441067902011</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.35780404730562</v>
+        <v>37.33269869704372</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>47.00203921225889</v>
+        <v>42.14087850558361</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>6.774223448616365</v>
+        <v>14.31224655034873</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>61.52277845849593</v>
+        <v>51.26109712791749</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>68.87118071196207</v>
+        <v>57.2242031025572</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.52356002469682</v>
+        <v>54.54764282040549</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>73.40956600567182</v>
+        <v>60.36782930227491</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>79.55975480636096</v>
+        <v>64.61807950211796</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>11.83313681419481</v>
+        <v>17.59968811730619</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.16857797050312</v>
+        <v>57.43719627496262</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>75.43553094963235</v>
+        <v>61.99046757132186</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.75631317633619</v>
+        <v>16.2818315491369</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.74589716291645</v>
+        <v>17.23480896367752</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.1567371561297</v>
+        <v>24.07730970341273</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>3.844611112474169</v>
+        <v>7.990737885545542</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>14.0220436729485</v>
+        <v>17.20860256498267</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>15.87953384095839</v>
+        <v>19.0994685734351</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>8.492060655714901</v>
+        <v>11.73925217260534</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.9689681220027</v>
+        <v>28.4010895576537</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>27.7376640384526</v>
+        <v>29.44193680261224</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>14.59107510408615</v>
+        <v>17.05193376216097</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.29213151730612</v>
+        <v>20.2458899703066</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.04641029807751</v>
+        <v>21.4300722607444</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.24573297492973</v>
+        <v>22.9382197152899</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.13877457109026</v>
+        <v>22.78714654351056</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.54136819435202</v>
+        <v>33.4310049381027</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.78766043813433</v>
+        <v>15.07843694958508</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>23.48492864881376</v>
+        <v>24.92142245948865</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.40980888531241</v>
+        <v>32.82054447032586</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>3.385062028377469</v>
+        <v>8.399106564286114</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>8.441597292863488</v>
+        <v>12.55790197702673</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.25120247857305</v>
+        <v>14.93393863385435</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>3.302898569176055</v>
+        <v>7.59224872593277</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.79421655784564</v>
+        <v>19.10533192019272</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>17.90446950426778</v>
+        <v>20.48577514507795</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.95723553741021</v>
+        <v>23.64030515270588</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.63469009366476</v>
+        <v>23.93110302598012</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>4.372360179260546</v>
+        <v>8.597175771134097</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.6696398138439</v>
+        <v>26.68512416578939</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.42416360928702</v>
+        <v>28.27519012429419</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>8.175097949520957</v>
+        <v>11.76038272503381</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.37873944939022</v>
+        <v>35.26602613695108</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>35.50328052142761</v>
+        <v>34.5845177683993</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.83450178155845</v>
+        <v>36.87617755100288</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.78700977379457</v>
+        <v>40.88139371147306</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>43.91931736015771</v>
+        <v>42.30827161184506</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.97782335245327</v>
+        <v>27.55695998061038</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>40.7294638326463</v>
+        <v>41.37254974702655</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.14715900801896</v>
+        <v>43.7454387744382</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.24652285379517</v>
+        <v>18.40205722669904</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.46112740362366</v>
+        <v>32.36454564137922</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.60956373293295</v>
+        <v>35.68331582281832</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>4.24324055312406</v>
+        <v>8.869776113441436</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.70717313867041</v>
+        <v>30.91269969909746</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.02507843231267</v>
+        <v>38.57518644887446</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>5.097314329413852</v>
+        <v>9.46827688825568</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.17698656368993</v>
+        <v>45.24887346978393</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.58745061713817</v>
+        <v>12.35298959958195</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>18.06071596290772</v>
+        <v>20.25165877752993</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.04293585861303</v>
+        <v>22.4926644873377</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.421831208148987</v>
+        <v>7.005509391427545</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.84734515800795</v>
+        <v>26.44012054847781</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.48316226932435</v>
+        <v>27.68682065200979</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.633215882971829</v>
+        <v>11.32488743687436</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.88104944081737</v>
+        <v>36.16603910621534</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.57224248817641</v>
+        <v>38.27373187526543</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.51550193161883</v>
+        <v>39.13030211366015</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>41.91294770191956</v>
+        <v>40.96289879160287</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.84134950912812</v>
+        <v>45.25000945922468</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>18.35495996477503</v>
+        <v>19.11215442386566</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.22113976340433</v>
+        <v>32.40491397733648</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.03640468647642</v>
+        <v>37.29891223430547</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.248252578149533</v>
+        <v>12.38809496494724</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.79705901843358</v>
+        <v>28.26234224769232</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>35.76908991746345</v>
+        <v>34.94660706362279</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.459113602859453</v>
+        <v>8.039075761849684</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>20.77272712806106</v>
+        <v>22.78506321740574</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.09263526232969</v>
+        <v>37.06916898491141</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.15728689818808</v>
+        <v>8.39907478402068</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.90439901475544</v>
+        <v>36.32643615250221</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>7.340533963087061</v>
+        <v>10.96048165336838</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>13.83036615556531</v>
+        <v>17.09031317801023</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>18.7750955126378</v>
+        <v>21.07511469583751</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>2.719240210566753</v>
+        <v>7.456409543809219</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.62170940441421</v>
+        <v>23.59262911174858</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>27.5896251667332</v>
+        <v>28.9866660060333</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>4.378419534701742</v>
+        <v>8.489372080629071</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.65397558788353</v>
+        <v>33.74287571992205</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>37.41626014148648</v>
+        <v>36.98674709718823</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>31.99270264721878</v>
+        <v>33.32802937825768</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>34.83642018869016</v>
+        <v>35.48662849246566</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.22125841696007</v>
+        <v>39.79728076010782</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>17.0732745010947</v>
+        <v>18.80582754558629</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.19391525195298</v>
+        <v>30.15045768373797</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>38.67457433971067</v>
+        <v>37.8563201217525</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6.667690359890877</v>
+        <v>10.86924168067549</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.57131622281763</v>
+        <v>24.47723907587183</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.11985388571109</v>
+        <v>32.5003987228104</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>4.079765464178401</v>
+        <v>8.633478013974653</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>19.3814193060634</v>
+        <v>22.22071583683795</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>37.53345343799377</v>
+        <v>36.4649846874988</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>2.826237042636741</v>
+        <v>7.252389181133687</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>30.52366937614571</v>
+        <v>31.73946428988546</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.11324562579014</v>
+        <v>22.67611260307824</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.50753541238499</v>
+        <v>21.42377332965611</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.86139627073863</v>
+        <v>36.47413199422618</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>43.60548761655625</v>
+        <v>41.84240379378339</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>5.488977080788409</v>
+        <v>9.688289947515951</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.1687508093865</v>
+        <v>16.40350663120618</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.49811241892192</v>
+        <v>22.64561044590819</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>12.60997988380885</v>
+        <v>15.36232250819043</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.38211971595048</v>
+        <v>23.14202051158659</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>30.56297256870146</v>
+        <v>31.00806812874809</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>3.165815264392034</v>
+        <v>7.937661965339867</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>7.144010569650085</v>
+        <v>11.59687976376702</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.85584276982203</v>
+        <v>14.98400438122028</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>3.667882051787139</v>
+        <v>8.027876070110516</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.59459701668978</v>
+        <v>19.28296500506441</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.70296806797949</v>
+        <v>29.02735589346364</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.22771101285732</v>
+        <v>22.45129306207368</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>39.17225391765747</v>
+        <v>38.41561233100052</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.24901917910537</v>
+        <v>44.27065752372715</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>6.724152273802389</v>
+        <v>10.41663904515795</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>16.27064051821369</v>
+        <v>19.00290112010378</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.32795725223534</v>
+        <v>25.33318283728951</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.22050262256803</v>
+        <v>55.13852643376163</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>48.47425715938259</v>
+        <v>48.38263707667721</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>62.76805403746705</v>
+        <v>58.70189559760196</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>66.01185211398692</v>
+        <v>60.45235837282669</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>14.61434752684086</v>
+        <v>18.24017770687462</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.34364963788376</v>
+        <v>54.78432386033401</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>62.9565454945227</v>
+        <v>58.10437086133433</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.39396830301044</v>
+        <v>25.10158056462197</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.10733723721145</v>
+        <v>37.91533033096198</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.97155372124772</v>
+        <v>41.62404790335431</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.839796367919501</v>
+        <v>10.20750305816665</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.41642790238934</v>
+        <v>36.45075832399947</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>45.92407503749783</v>
+        <v>43.52544729310642</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.1973676156119</v>
+        <v>13.33254451804541</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>60.0260152074971</v>
+        <v>57.44363040994645</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>68.41411878863342</v>
+        <v>62.65415246705581</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.71949368214555</v>
+        <v>64.64262225939369</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>79.18328217779694</v>
+        <v>71.81603102033624</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.43875555059014</v>
+        <v>76.00135552716928</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>27.97667306468053</v>
+        <v>28.84381401114589</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>74.34301177420727</v>
+        <v>68.17110250536727</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>78.66390669069094</v>
+        <v>70.80707178080169</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.56432847539119</v>
+        <v>57.01206222299653</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.41578891593753</v>
+        <v>35.2875990731926</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>46.83803485734225</v>
+        <v>45.08687827361547</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>64.10434140448137</v>
+        <v>59.50346629014652</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>7.343552096145949</v>
+        <v>11.25653464273874</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>48.62210996413601</v>
+        <v>46.44436252219595</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>58.43328798689733</v>
+        <v>54.50293147911119</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>14.48681520913451</v>
+        <v>16.95775644441776</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.41022137967322</v>
+        <v>33.38918210208818</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.76332000294822</v>
+        <v>40.63740921352829</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>4.023503070640547</v>
+        <v>8.79896183261058</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>33.52383235186949</v>
+        <v>32.79954943714159</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.81664375028892</v>
+        <v>42.88641428068225</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>7.097837142342964</v>
+        <v>10.51529971796399</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>52.8829826717932</v>
+        <v>50.52821721618822</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>71.93480041692874</v>
+        <v>65.25224490978567</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>63.70755396984673</v>
+        <v>57.90794946136487</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>71.98149827802366</v>
+        <v>65.84820854242047</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>85.12990368009896</v>
+        <v>76.57620914915984</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>16.67614718051642</v>
+        <v>18.6679862642068</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>65.41637152764676</v>
+        <v>59.88336186657987</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>76.05566337894338</v>
+        <v>68.69434442283791</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>55.96976932545295</v>
+        <v>52.4077661620031</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.39404930065552</v>
+        <v>24.40835553653621</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.37207009168693</v>
+        <v>30.27886772847636</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.75365022774226</v>
+        <v>44.68993183347583</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>6.041992351525565</v>
+        <v>10.31625432499802</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>39.32889322249151</v>
+        <v>37.92998831790539</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>52.85973551815295</v>
+        <v>49.95461775347623</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>11.2958724455433</v>
+        <v>14.64351145634332</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.50718390907813</v>
+        <v>31.57764026449223</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.9250477616682</v>
+        <v>41.8843267724932</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>4.765342600306951</v>
+        <v>9.399477284156337</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.11310807338123</v>
+        <v>30.75833472298493</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>46.0207723020052</v>
+        <v>44.0087541245585</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>3.83203806377491</v>
+        <v>8.695479856274375</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.39383151952374</v>
+        <v>45.43693630875175</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>69.85909896311516</v>
+        <v>63.9653284418586</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>51.8208938062054</v>
+        <v>48.47495935026614</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>63.3817282425379</v>
+        <v>58.5648069816838</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>82.22529782970983</v>
+        <v>73.86193702198864</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>12.75405595913679</v>
+        <v>15.82465177932037</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>59.42778236500639</v>
+        <v>54.8824935424462</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>74.09714106004679</v>
+        <v>67.57606883041456</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.11704791572996</v>
+        <v>21.28109741888996</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.03427031453617</v>
+        <v>22.52966896292489</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.24492284757827</v>
+        <v>25.75785893743217</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.422875295577171</v>
+        <v>16.63192733246242</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>15.03691500783992</v>
+        <v>20.97567589847056</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>15.84757735378621</v>
+        <v>21.73621112074918</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.87875361315696</v>
+        <v>18.83678268641521</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.01252546920291</v>
+        <v>27.09778548805045</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.15608903556066</v>
+        <v>28.03859846503611</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.97474748480881</v>
+        <v>21.9611471519902</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.24566767703774</v>
+        <v>24.13558295734807</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.81790828455465</v>
+        <v>25.06277731720853</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>18.21148389386293</v>
+        <v>22.8198769155443</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.39767081418795</v>
+        <v>23.1340571664524</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.99865620000918</v>
+        <v>27.45444839923002</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>16.06004614455165</v>
+        <v>21.16266494254442</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.79547679272872</v>
+        <v>27.39618498434105</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>32.16234436521189</v>
+        <v>31.33456267182826</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.272149540027112</v>
+        <v>16.40685300970986</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>12.66409799105974</v>
+        <v>19.1067082344436</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.38763353970693</v>
+        <v>20.81180819234936</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>9.321179608260358</v>
+        <v>16.57581192599999</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.84136563411091</v>
+        <v>24.75869410422892</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.22731619333326</v>
+        <v>23.42309760872387</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.48259439193492</v>
+        <v>25.83744183068745</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.37515329110543</v>
+        <v>25.49945789546943</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>10.06658974894572</v>
+        <v>17.11198485650901</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.96966788574726</v>
+        <v>26.66812979495876</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.94924248486939</v>
+        <v>27.90251130386335</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.43067184449307</v>
+        <v>18.69914643493885</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.05958246605678</v>
+        <v>31.9943228054964</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.03118918751236</v>
+        <v>31.44365880306217</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>33.2487643859019</v>
+        <v>32.81345147262868</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.66718699621169</v>
+        <v>35.6262976789952</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>38.37157566669222</v>
+        <v>36.23901813695126</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.20369158134107</v>
+        <v>25.0262426766721</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.65725362259614</v>
+        <v>32.86649104915433</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>34.06608798193965</v>
+        <v>33.83986787124217</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.04290898502666</v>
+        <v>22.59304326065639</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>32.08420042692934</v>
+        <v>31.49713862136814</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.13268047972237</v>
+        <v>33.40460838774584</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>9.088500669110005</v>
+        <v>16.62782558023297</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.22659975067019</v>
+        <v>29.99654191742776</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>35.89245858388343</v>
+        <v>34.08687049270596</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.1910708198603</v>
+        <v>17.25381297139907</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>42.34362478691181</v>
+        <v>39.54811261195817</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.80155181383948</v>
+        <v>18.97327944686121</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.47909283779673</v>
+        <v>22.98291851374848</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.51119814333641</v>
+        <v>23.98339222549411</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>8.323047845257555</v>
+        <v>16.1339768763416</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.44464085189576</v>
+        <v>25.9580295819879</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.28555973987478</v>
+        <v>26.54662973129302</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.60003751107133</v>
+        <v>18.18502735479417</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.17530499516497</v>
+        <v>31.37212007862494</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.00522779416537</v>
+        <v>32.44931306144432</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.93961922927495</v>
+        <v>33.49557974301774</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.27985567614049</v>
+        <v>35.02607285363335</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.76307858125126</v>
+        <v>37.13411627120156</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>15.2319632820614</v>
+        <v>20.40114668307508</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.97077586618609</v>
+        <v>26.81170787969792</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>27.0018967339814</v>
+        <v>29.3449424494161</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.39816274955816</v>
+        <v>18.98514975975057</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.72058975556932</v>
+        <v>28.40663230584832</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>34.5434842285989</v>
+        <v>32.94712367860096</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>8.224847843869046</v>
+        <v>16.09354228069305</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.59684739890692</v>
+        <v>25.05079879111295</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>35.88549314754324</v>
+        <v>33.62408793799862</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.6562849631628</v>
+        <v>16.81868732856278</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.65182993056299</v>
+        <v>32.88192778198997</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>11.7571021236618</v>
+        <v>18.32272077284422</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>16.18364025627538</v>
+        <v>21.55001847170528</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>19.28623858694113</v>
+        <v>23.5659009597162</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>8.451907383435447</v>
+        <v>16.2649042628728</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.996921130314</v>
+        <v>24.22518155087366</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.43158222722324</v>
+        <v>27.51110587954736</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>9.683922536813792</v>
+        <v>16.92864483774157</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.67294003639401</v>
+        <v>30.07529787168301</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.70239448559656</v>
+        <v>32.23677793856622</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.88797983436041</v>
+        <v>29.62857146657746</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>30.47497783732795</v>
+        <v>31.35476335431424</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.04370869119053</v>
+        <v>33.66701753032944</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>14.77613425438581</v>
+        <v>20.42836195210434</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.38647292986839</v>
+        <v>26.32628252856046</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.09046458856085</v>
+        <v>29.4448707959653</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>11.55957747936763</v>
+        <v>18.34689846997385</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.88134518264661</v>
+        <v>26.45434348585201</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.50367913225409</v>
+        <v>31.45918147562015</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>8.821579283388672</v>
+        <v>16.48198835985905</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.56485202175891</v>
+        <v>24.55523505546144</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.0890452229485</v>
+        <v>32.61281132598756</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>8.936388417235779</v>
+        <v>16.3735676994789</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.57813293091845</v>
+        <v>30.51873564559381</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.08990505205151</v>
+        <v>26.54932057313949</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.75620386173166</v>
+        <v>25.38882404526403</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.70303805258015</v>
+        <v>34.52490094503861</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.75189969439231</v>
+        <v>37.61434056943407</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>11.21227469424214</v>
+        <v>17.98644375332865</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>18.64329322321689</v>
+        <v>22.7927067213574</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.86401951081159</v>
+        <v>26.79580161984113</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.99776194273543</v>
+        <v>21.40623099035612</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.90455986920983</v>
+        <v>26.90100113649104</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.33181574535324</v>
+        <v>31.12860066640018</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>8.000704746481336</v>
+        <v>15.99268360990439</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.04986882180058</v>
+        <v>18.23968618488608</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.10790997213784</v>
+        <v>20.25531160291299</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>9.610818663514294</v>
+        <v>16.77832595603041</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>20.03589015054805</v>
+        <v>23.93267152135254</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.87981357279755</v>
+        <v>29.32274505045634</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>23.61486283879694</v>
+        <v>26.28448516643965</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.23701132288348</v>
+        <v>35.78900377939195</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>43.24690150796551</v>
+        <v>39.0738334190092</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>11.89253448244057</v>
+        <v>18.31877396519727</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.50080966273587</v>
+        <v>23.55079830151781</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.49617558606888</v>
+        <v>27.03500337578214</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>52.14643894414681</v>
+        <v>44.81399576951016</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.72606452903858</v>
+        <v>40.9809144367868</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>55.4552455435616</v>
+        <v>47.31179161748794</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>58.00764447927136</v>
+        <v>48.22519928216401</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.58265823026757</v>
+        <v>22.22017035203387</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>51.45045362955571</v>
+        <v>45.2157431510159</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>55.31229857596627</v>
+        <v>46.67117171913497</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.45247023347165</v>
+        <v>26.55518312112353</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.38651300338715</v>
+        <v>34.87220641946185</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.06923357783538</v>
+        <v>37.11409525598071</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>10.35928895921101</v>
+        <v>17.41511045556802</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.81448890055565</v>
+        <v>33.30749869436535</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.89045563773939</v>
+        <v>37.86539974174149</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>14.85470425875897</v>
+        <v>20.07607917107722</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>53.88036089799394</v>
+        <v>46.99329359074198</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>59.08880373409751</v>
+        <v>49.29095637135353</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.22916499887245</v>
+        <v>50.62164096082851</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>67.64016354572034</v>
+        <v>54.94474403558244</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.12992600064609</v>
+        <v>57.17601886072122</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.01079645718158</v>
+        <v>29.28923179989951</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.50156271356624</v>
+        <v>53.73686116525798</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>68.15767277238101</v>
+        <v>54.9253473572516</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>54.13871560601464</v>
+        <v>45.96750263586166</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.95455618407762</v>
+        <v>32.97759729927539</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>43.53562405979645</v>
+        <v>39.22480377687704</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>56.66539352487753</v>
+        <v>47.83284421064285</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>11.97034823218835</v>
+        <v>18.33892075310332</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.36094144340405</v>
+        <v>39.74609312952459</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>52.82521853211551</v>
+        <v>45.03229909656104</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.35786671695309</v>
+        <v>21.34820745216752</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.91507221329146</v>
+        <v>31.70884059719891</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.45854051210797</v>
+        <v>36.22553968446676</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>8.591586557466524</v>
+        <v>16.56506943477029</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.49972772905382</v>
+        <v>31.35169430687142</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.10122645116311</v>
+        <v>37.94202280107308</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>11.62491916756289</v>
+        <v>17.94237461091046</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.33182095195839</v>
+        <v>42.05003767776181</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>61.59668913485361</v>
+        <v>50.7081192607204</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>55.27428344957637</v>
+        <v>46.57074971212371</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>62.8805883328371</v>
+        <v>51.88548763400941</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>71.38040827664952</v>
+        <v>57.29467280188268</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>19.74472488392961</v>
+        <v>23.10261135943554</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>58.76442332396276</v>
+        <v>48.79798804364802</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>66.39341721608011</v>
+        <v>53.68792086084109</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>50.39375470290717</v>
+        <v>43.47061110666929</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.57852172493939</v>
+        <v>26.91860815179104</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.59914761393065</v>
+        <v>31.28029888816372</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>44.29124055382393</v>
+        <v>39.36574995658625</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>11.08782044579742</v>
+        <v>17.96496661962266</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.85032446414459</v>
+        <v>34.06607032007704</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>48.55499033378057</v>
+        <v>42.23522604094775</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>14.80116900567408</v>
+        <v>20.41056467280015</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.07495701868474</v>
+        <v>30.89708262039848</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>41.0460957771055</v>
+        <v>37.29082383621189</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>9.292564070695732</v>
+        <v>16.86078392858455</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.1262566395166</v>
+        <v>30.48031620345671</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>41.82547133384544</v>
+        <v>37.94834125818031</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>9.856542204442327</v>
+        <v>17.0909490254953</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>44.49211862445692</v>
+        <v>39.89553478280671</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>61.09504208293159</v>
+        <v>50.53103566963739</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>48.15931438918828</v>
+        <v>42.07514829832944</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.70353031983061</v>
+        <v>48.39855816341766</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>70.43085852753529</v>
+        <v>56.37654887517468</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>16.28695313227249</v>
+        <v>21.19944006741274</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>54.7359348530275</v>
+        <v>46.21196876475073</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>64.95851994908867</v>
+        <v>53.06126918295375</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>12.83961960380798</v>
+        <v>16.05126597383943</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>18.7253649065117</v>
+        <v>21.31293037046246</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.60947962545681</v>
+        <v>31.02814526425901</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>2.961552541422371</v>
+        <v>7.987347899618491</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.06869926362478</v>
+        <v>17.95393891597513</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>18.40070196924502</v>
+        <v>20.5824412542634</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>5.212523004158825</v>
+        <v>9.811566246819659</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.19421004590187</v>
+        <v>35.26293987857723</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.45424006798118</v>
+        <v>39.92353034869949</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.40717203516956</v>
+        <v>23.06819056542034</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.00663510699012</v>
+        <v>26.68499536903649</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.18992025318229</v>
+        <v>26.94950483082278</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>11.80537382484668</v>
+        <v>15.85887679068749</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.45962985324547</v>
+        <v>21.62307609366734</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.19347642479845</v>
+        <v>32.2038887246564</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>12.94308002710444</v>
+        <v>16.34907440914978</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.41259950279163</v>
+        <v>27.02423923029494</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>31.50846589289458</v>
+        <v>30.96576238333988</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2.557844633049903</v>
+        <v>8.358555416519703</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.25653942256223</v>
+        <v>14.92950238320928</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>13.2817500213113</v>
+        <v>17.14975170013193</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3.436691112110694</v>
+        <v>8.353029446927842</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>23.48121940553975</v>
+        <v>24.74756807884658</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>19.29248541167007</v>
+        <v>22.02866216085113</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>32.2185447298428</v>
+        <v>31.68165711836603</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.10389571566246</v>
+        <v>32.40739849542103</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3.936329036514358</v>
+        <v>8.88724190879174</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.38351984572216</v>
+        <v>34.02252256423269</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>37.36534782501381</v>
+        <v>35.48004715153037</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>6.131099664867307</v>
+        <v>10.72441214922554</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>52.7908183884055</v>
+        <v>47.95424358961545</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.22299042050318</v>
+        <v>47.50107232639814</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>52.56517285125145</v>
+        <v>47.83050365531247</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>56.79161362657034</v>
+        <v>50.60192140016824</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.30650457726643</v>
+        <v>52.65009634412949</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>17.7304559120163</v>
+        <v>21.00082615783539</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>50.2040726732567</v>
+        <v>49.46081836131417</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>55.67020703881722</v>
+        <v>51.781848503978</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.61372083672912</v>
+        <v>19.83396517031472</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>35.63713920396226</v>
+        <v>34.33944776147138</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.01107732201763</v>
+        <v>34.85503506673049</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>3.010152410100787</v>
+        <v>8.679546805353091</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.22533369528742</v>
+        <v>33.33028791433435</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.15493488102392</v>
+        <v>34.08518274414998</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4.721397020936575</v>
+        <v>9.424144620993012</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>52.24458830150194</v>
+        <v>48.52959230640541</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.52912783810968</v>
+        <v>11.23326296500903</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.92661251814873</v>
+        <v>25.12781530680394</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.78847449316717</v>
+        <v>28.85905984879015</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.600930582242249</v>
+        <v>8.292634390519861</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.16471805485521</v>
+        <v>32.29708356415178</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.38116020066479</v>
+        <v>34.09342399355647</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>7.034517720007536</v>
+        <v>11.24884857807093</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>51.25812256133345</v>
+        <v>46.90929664596268</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.2349803763853</v>
+        <v>48.12756151880227</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.31130429228027</v>
+        <v>52.28242419859782</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>58.94920015876512</v>
+        <v>53.67242494944588</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>62.68718603125144</v>
+        <v>56.08896115821655</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>7.254947317780157</v>
+        <v>10.88619522349409</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.69722954971862</v>
+        <v>34.3844579946312</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.51246962931554</v>
+        <v>38.94365939018776</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.03160451866613</v>
+        <v>14.38398659002297</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>32.16615139191035</v>
+        <v>31.75360613472661</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.6600589159214</v>
+        <v>34.28944558460807</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.620463027588915</v>
+        <v>8.513491111396256</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.5970310401876</v>
+        <v>29.3871713417162</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.96263636515845</v>
+        <v>36.81410163620248</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>6.038840207351079</v>
+        <v>10.20863406429454</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.69890997537429</v>
+        <v>42.67443476885467</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5.127950703492854</v>
+        <v>10.45994670223349</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>17.62802965548899</v>
+        <v>20.16240640074371</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.03750882497553</v>
+        <v>28.08172012744516</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.505115945726708</v>
+        <v>8.331997110314667</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>20.432581230841</v>
+        <v>20.7305780974724</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>38.12210068772075</v>
+        <v>36.13817034990769</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>3.715449701887277</v>
+        <v>8.70814876298256</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>45.17775573403411</v>
+        <v>41.57040347992086</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>53.34728974835497</v>
+        <v>48.16862630539327</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.64265928126092</v>
+        <v>44.52495207380773</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>52.79612707926388</v>
+        <v>48.22708230331453</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>58.17831984161653</v>
+        <v>53.03932236820462</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.624003370508984</v>
+        <v>11.13856108686197</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.06715891620891</v>
+        <v>32.61249037259245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.53423840367979</v>
+        <v>40.47750876185096</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>7.732946446131201</v>
+        <v>11.97961814903858</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.22397693033163</v>
+        <v>27.65357603666206</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>33.58322027917174</v>
+        <v>32.66058411311433</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>3.342853487274812</v>
+        <v>8.664804471369116</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.51121459629677</v>
+        <v>24.98002586734802</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.46899267954608</v>
+        <v>34.14924631398672</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3.580796204317576</v>
+        <v>8.649178176823067</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.58880722314391</v>
+        <v>36.08280983124605</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.34524920259146</v>
+        <v>25.70504809326589</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.30264512721702</v>
+        <v>24.5232643015185</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.1158918436968</v>
+        <v>35.09839689840227</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>40.79767038739898</v>
+        <v>38.90484563411538</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.948475658769773</v>
+        <v>12.06772434675557</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>18.12854162815009</v>
+        <v>20.47592003926552</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.630055658416</v>
+        <v>25.76518645916515</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.75609459385656</v>
+        <v>15.01240570343818</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.89234402089147</v>
+        <v>24.65874127612617</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.95789968739921</v>
+        <v>32.62412433921295</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>2.578079898383169</v>
+        <v>7.793545167997181</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>9.185931231751461</v>
+        <v>13.27449697127017</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.38139754435911</v>
+        <v>17.66203722739658</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.859609596013954</v>
+        <v>8.70095776381779</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.91670478468908</v>
+        <v>23.81090961226372</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.68827211777081</v>
+        <v>37.90383843875018</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.88506702975095</v>
+        <v>26.8811909447346</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>45.50166456149999</v>
+        <v>42.87551861438158</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>51.23214666158744</v>
+        <v>47.64258710795593</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>7.21375231853845</v>
+        <v>11.45511153424924</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.48019485968973</v>
+        <v>22.53527050224452</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.82339999902096</v>
+        <v>32.51277429991424</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>58.02472827667025</v>
+        <v>53.03300987051534</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>55.04164222349368</v>
+        <v>50.30525837811507</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>64.7042980999878</v>
+        <v>58.16804757546727</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>61.96487549922433</v>
+        <v>55.86371930062569</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>15.5544910897113</v>
+        <v>18.4218472024743</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>58.73808998971106</v>
+        <v>52.8136696342934</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>61.49310812056593</v>
+        <v>55.58870810765228</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.16474484371656</v>
+        <v>22.58432112912216</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.24125859109797</v>
+        <v>37.12773968730656</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>42.77300804724399</v>
+        <v>40.07032941237883</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>4.430672171338447</v>
+        <v>9.330020716401627</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.23337764990305</v>
+        <v>39.91714462333411</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.31141536233552</v>
+        <v>41.49536049886874</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.346242046048253</v>
+        <v>10.90097474709136</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>63.75759629409007</v>
+        <v>57.80266365246361</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.02522941606176</v>
+        <v>59.42284310567868</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>73.73719771392311</v>
+        <v>65.36533425431132</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>78.05012145091776</v>
+        <v>69.79518450413775</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>81.677342709787</v>
+        <v>72.06557112995287</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>19.3245180614578</v>
+        <v>20.4509024524078</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>73.43279508773395</v>
+        <v>65.1522388030633</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>75.80118720035506</v>
+        <v>66.6279666284877</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>60.45033187161094</v>
+        <v>54.45456095408341</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.30667779650172</v>
+        <v>43.75333669902221</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>55.18389806142805</v>
+        <v>50.34162872844529</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>61.85351518996772</v>
+        <v>55.3336109445397</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>9.446450829649407</v>
+        <v>13.2735323429655</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>52.30360482153659</v>
+        <v>48.05583358521419</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>58.79350887319674</v>
+        <v>53.3645076689523</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>12.01297639068433</v>
+        <v>15.36215694986204</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.70960094294333</v>
+        <v>34.05068307319313</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.02649317110829</v>
+        <v>39.31628403686265</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>3.373345787702576</v>
+        <v>8.744066790969356</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.93824845095558</v>
+        <v>35.49120078565402</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.16374002213973</v>
+        <v>42.20077471516458</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>6.544207676992517</v>
+        <v>10.84592266546018</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>56.70591027839657</v>
+        <v>51.98536758765532</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>70.42082255750122</v>
+        <v>62.70905676846338</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>67.65933896531706</v>
+        <v>60.66662231121849</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>75.81881466535455</v>
+        <v>67.49261561277648</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>84.71926533749274</v>
+        <v>73.94554304849785</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>10.89565782178322</v>
+        <v>14.5057407465142</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.01172580673455</v>
+        <v>60.97422388539307</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>75.19940896948872</v>
+        <v>66.59495480361933</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>54.89678171402967</v>
+        <v>50.16384860798788</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.02797310960828</v>
+        <v>28.56659756270155</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.33675667885148</v>
+        <v>34.24796275104524</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.12916606380584</v>
+        <v>42.40572330956667</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>6.425831690673814</v>
+        <v>11.31990824742594</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>34.49781700940498</v>
+        <v>28.09947275795093</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>53.47220975026882</v>
+        <v>49.13734490499391</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>8.515892936994241</v>
+        <v>12.93267965318866</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.46380614461978</v>
+        <v>31.30953577916353</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>42.55527162526089</v>
+        <v>40.24488479886094</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>3.164333711139673</v>
+        <v>8.908628652631251</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.61081375351737</v>
+        <v>30.69507710201842</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>44.5608071245652</v>
+        <v>41.81367646004377</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>3.169464105615045</v>
+        <v>9.064845739818889</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>46.9923228232655</v>
+        <v>44.22354737953206</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.48501783491739</v>
+        <v>61.27850418911614</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.48428444597479</v>
+        <v>48.59590737999697</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>64.65820796908702</v>
+        <v>58.82742127005633</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>82.49158195903843</v>
+        <v>72.49670443049889</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>8.168425586783727</v>
+        <v>12.48702881507633</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>59.44528201139028</v>
+        <v>54.43953105858341</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>75.42151571432223</v>
+        <v>67.19621825014828</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/ranking_test4/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.525</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.245</v>
+        <v>15.477</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.696</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.72</v>
+        <v>11.709</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.53</v>
+        <v>1.214</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.23967722977367</v>
+        <v>12.25199554807928</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>14.88253816127468</v>
+        <v>11.20891369505136</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.14838772366187</v>
+        <v>23.38728697669712</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.331653148513944</v>
+        <v>3.336124945261808</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.72276043524742</v>
+        <v>18.96191990052225</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.43725629234378</v>
+        <v>22.87099146918449</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.02231498926642</v>
+        <v>6.58242223196407</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.98622961222222</v>
+        <v>33.79924391025281</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.49912508588898</v>
+        <v>34.1598406813791</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.75082872428029</v>
+        <v>12.52334111973599</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.43499383860786</v>
+        <v>15.43330778482112</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.10115047042166</v>
+        <v>15.89894501456306</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.21889234320685</v>
+        <v>22.85995481712008</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.87443756676795</v>
+        <v>19.64363008015991</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.24422868203084</v>
+        <v>35.20974874936877</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.76129016810949</v>
+        <v>13.09925290498342</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.36268930312162</v>
+        <v>24.34097066467127</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.01548010364419</v>
+        <v>36.32597473843865</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.08865286124582</v>
+        <v>7.991046927832443</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.43732728914969</v>
+        <v>14.84748743694365</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.77896515000051</v>
+        <v>17.86605919231359</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.664068246205716</v>
+        <v>3.105296642578832</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.28391599337468</v>
+        <v>19.40711961446008</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.820484535807</v>
+        <v>20.15782831261303</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.73683030233599</v>
+        <v>23.63180181844183</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.49164003922737</v>
+        <v>24.51621857728756</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.558215324940296</v>
+        <v>3.679789175666727</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.6606511999918</v>
+        <v>30.39059763934377</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.31800641195694</v>
+        <v>31.51943293650342</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>10.61057109675703</v>
+        <v>7.500487053775856</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.40694252004121</v>
+        <v>38.10542054131831</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.36301600794619</v>
+        <v>36.98559140220366</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.45505127410196</v>
+        <v>38.85756422335964</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.42936394068241</v>
+        <v>41.6511214198111</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.31636438387544</v>
+        <v>42.88518436506035</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.76632455178283</v>
+        <v>32.19901190045503</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.20376065450242</v>
+        <v>40.07096554168449</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.74830690480801</v>
+        <v>42.63586547229671</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.29325177265526</v>
+        <v>20.31491365981653</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.18962804566999</v>
+        <v>33.25056604700253</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.37759790304744</v>
+        <v>36.70258546865446</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>11.47166786312516</v>
+        <v>8.358717855355568</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.56879300563136</v>
+        <v>35.337653779264</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.32793730407329</v>
+        <v>42.22384311354808</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.78719711272808</v>
+        <v>51.7531712360632</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.63098697355876</v>
+        <v>6.899855755035251</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20.61293842411449</v>
+        <v>18.2673179568229</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.07879508006048</v>
+        <v>22.72602572674927</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.828345028778688</v>
+        <v>1.799477888920201</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.00848922122652</v>
+        <v>29.07503407974798</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.73527199750213</v>
+        <v>30.68798925346628</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>10.33940183587983</v>
+        <v>6.848290405709921</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>39.65250139714664</v>
+        <v>40.63543400399087</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.68030752456183</v>
+        <v>43.16245714057366</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>42.56658413160154</v>
+        <v>44.04544066016031</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.31204048828813</v>
+        <v>45.50559155663174</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>48.73691594456714</v>
+        <v>52.1476042014129</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.77768630430904</v>
+        <v>16.34258381100084</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.85970984909866</v>
+        <v>31.23823759240981</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>38.41773739121921</v>
+        <v>37.08515795884601</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.48626386996367</v>
+        <v>11.53563993230243</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.85681917745203</v>
+        <v>30.48508510353355</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.54122259493786</v>
+        <v>35.57962568059519</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.90815035166389</v>
+        <v>8.532190944450704</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.73134605153919</v>
+        <v>28.16037618294401</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.00382758464309</v>
+        <v>40.66046252852314</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.878624914772029</v>
+        <v>5.197723384074354</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.25354909032313</v>
+        <v>44.6092879376774</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>8.3201899284735</v>
+        <v>4.677478819731029</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>15.43263204054837</v>
+        <v>11.37288868913229</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.64459681941894</v>
+        <v>19.83883976511353</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6.43542442839324</v>
+        <v>2.424365209828721</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.50724161593721</v>
+        <v>27.59434488018184</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.61895145788152</v>
+        <v>33.79815673143939</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6.624751789904074</v>
+        <v>2.851025998113826</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.19004864953214</v>
+        <v>39.35609682383577</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.56148694891107</v>
+        <v>41.34829177742007</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.79115805800467</v>
+        <v>39.94523649406988</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.05954338701153</v>
+        <v>41.38406735773763</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>44.92211286745551</v>
+        <v>47.68160208022788</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>16.97504739300403</v>
+        <v>14.61839688970454</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.02186424722397</v>
+        <v>25.0950889445413</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.64637904352721</v>
+        <v>38.98890938080851</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>10.89920206622687</v>
+        <v>8.299549444477496</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.3555290323833</v>
+        <v>26.43774052304289</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.91061005437496</v>
+        <v>33.8631597698901</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.32308325878388</v>
+        <v>8.460018285875087</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.62997841123713</v>
+        <v>27.42634778130477</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>37.98003749949591</v>
+        <v>41.28354772331602</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5.829945915969947</v>
+        <v>2.224123463167096</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35.41693810702148</v>
+        <v>38.99093089739423</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.23837292288617</v>
+        <v>24.48400336909742</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.00174628044714</v>
+        <v>20.82800624186504</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>37.98286438349567</v>
+        <v>41.7865592761775</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43.2005631467796</v>
+        <v>46.66471727089477</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>9.730706187148989</v>
+        <v>7.190813992063358</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>16.77880407675611</v>
+        <v>16.16856713573548</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.18202533065756</v>
+        <v>24.56053617924536</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.74521578854639</v>
+        <v>12.07255032663454</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.10241759330606</v>
+        <v>20.2421434103921</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.94849394293366</v>
+        <v>33.15162070766969</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10.80449528307122</v>
+        <v>7.825917365927687</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>14.9152046021433</v>
+        <v>13.00141239939694</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19.12532942196049</v>
+        <v>17.51911844103435</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>6.787821001900713</v>
+        <v>3.084483920666973</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>19.50502985225896</v>
+        <v>18.32779956620126</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.6908541821315</v>
+        <v>32.99507718546</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.72433494605346</v>
+        <v>21.13893904515336</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.71884597955433</v>
+        <v>46.45455821699993</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.78769429063753</v>
+        <v>53.41325725793435</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>9.311098684399131</v>
+        <v>5.713638890389703</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.42844878854124</v>
+        <v>18.32235915675429</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>27.37854294113754</v>
+        <v>27.23822669559172</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.93662085699215</v>
+        <v>60.49106892947796</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>48.44214663822473</v>
+        <v>54.15035883496743</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>59.24884165340255</v>
+        <v>65.68993320751628</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>61.7416632538863</v>
+        <v>69.14113863144945</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.83807538142128</v>
+        <v>20.53173968894258</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53.5633537542265</v>
+        <v>60.13582656273379</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>56.07005672276025</v>
+        <v>62.76975310976509</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.74482398407363</v>
+        <v>24.60709705604823</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.3558587237624</v>
+        <v>38.57636343633492</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.40530175064035</v>
+        <v>44.63754130764312</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>12.73814501782801</v>
+        <v>9.469931961747804</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.17990072065303</v>
+        <v>41.30618971250002</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.13448575747375</v>
+        <v>48.76718655506374</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>10.49183645578383</v>
+        <v>6.492987050088036</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.43232386619292</v>
+        <v>62.22025599796949</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>65.16262364990661</v>
+        <v>72.03641274747865</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>62.54340789576865</v>
+        <v>70.55895721372127</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>73.48762132235673</v>
+        <v>81.83513346043492</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>78.98944699308426</v>
+        <v>88.04249439112846</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.32852802082363</v>
+        <v>26.63998586484396</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.22088939504542</v>
+        <v>76.63306195606819</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.77410404906183</v>
+        <v>78.10407953683364</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>58.05115110184115</v>
+        <v>64.71154191809057</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.90708708920606</v>
+        <v>41.54325808965424</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>46.01447379641002</v>
+        <v>50.57891870910233</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>59.85504873918336</v>
+        <v>67.06344185374448</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.2483101621601</v>
+        <v>11.54898811220973</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>46.934777019744</v>
+        <v>51.99464653207704</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>16.84263912682523</v>
+        <v>14.88126309267206</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.61035499287581</v>
+        <v>33.38433677040248</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>40.78665231609534</v>
+        <v>43.25969225009312</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>11.69450763076619</v>
+        <v>9.141232585436416</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>35.37689471902149</v>
+        <v>37.45036164351312</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>44.43532534402289</v>
+        <v>47.92578982945879</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>9.625174150689382</v>
+        <v>6.313668865019164</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>51.78884827389223</v>
+        <v>57.36247956912371</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>68.53304951101761</v>
+        <v>76.31881732787676</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.28418558214921</v>
+        <v>65.84319126774241</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>67.57543173525362</v>
+        <v>75.80636376186681</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>79.89795584669793</v>
+        <v>89.42867201606556</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>17.87135087431557</v>
+        <v>15.68785871352898</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>58.5644579997744</v>
+        <v>65.15534375834355</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>66.90576130422652</v>
+        <v>74.92220477501451</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>51.75543771061748</v>
+        <v>57.51306568793653</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.77091520109846</v>
+        <v>25.49108757592593</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.26512347395274</v>
+        <v>32.94519883316523</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43.26073486085826</v>
+        <v>47.81180870524015</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>10.87766821558539</v>
+        <v>8.461297178330035</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>41.28509454805374</v>
+        <v>46.01047008420733</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>48.9965081328331</v>
+        <v>54.60211267190883</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>14.32422830308353</v>
+        <v>11.81713089331077</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.78594510253934</v>
+        <v>31.85089921093756</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>43.01033805340477</v>
+        <v>45.8535089268422</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>12.4806229716208</v>
+        <v>9.380819097725087</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>33.43862081602867</v>
+        <v>35.78810281366675</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>47.64364173787257</v>
+        <v>51.70294230479904</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>7.189931920673928</v>
+        <v>3.023777198934244</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.80245963401437</v>
+        <v>51.49489765908992</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>67.05177602523231</v>
+        <v>74.87345114475669</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50.25030300264092</v>
+        <v>56.53158564636044</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>61.10275652733355</v>
+        <v>68.58279746598095</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>78.55773874781654</v>
+        <v>89.00136652115211</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>15.40257571097952</v>
+        <v>13.06566908515673</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.46281983811249</v>
+        <v>62.36270556700674</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>69.14506342419295</v>
+        <v>77.52023768023267</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21.83183406019763</v>
+        <v>18.96130323994139</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.82531415878561</v>
+        <v>27.08914094547414</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.68802607523455</v>
+        <v>45.16003518962543</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.90759711789093</v>
+        <v>4.163571421678643</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.9857149063482</v>
+        <v>36.09420236781204</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.59578578784298</v>
+        <v>43.52454855204908</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.02360193876803</v>
+        <v>7.971255089124167</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>48.37487694219246</v>
+        <v>70.92364873381875</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>50.8439049973408</v>
+        <v>74.60689268650364</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.99935845977675</v>
+        <v>30.18019242444415</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>30.16581934991102</v>
+        <v>33.56752659306154</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.25853371195911</v>
+        <v>34.87656699601405</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.62055756066907</v>
+        <v>20.70712446342453</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.81925192138959</v>
+        <v>29.93049698011803</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>42.02588348077293</v>
+        <v>58.92645552967435</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.7685965109685</v>
+        <v>18.20668439679152</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.73195355815838</v>
+        <v>37.46909080016642</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.75535969504686</v>
+        <v>39.42723199188045</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13.77447068361211</v>
+        <v>2.938116260127739</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.29579256024845</v>
+        <v>18.41552291558033</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.00809702045082</v>
+        <v>23.44542746028761</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>14.58047364998607</v>
+        <v>6.013868841493583</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.09644453344556</v>
+        <v>37.26108555210696</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.73249371368471</v>
+        <v>34.6493803362147</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.98756102079092</v>
+        <v>49.99882832610537</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>37.88655379977217</v>
+        <v>49.52997334572264</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>14.50515852869468</v>
+        <v>4.802336644074305</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>38.97673858474602</v>
+        <v>51.66402005345306</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>39.86948566156531</v>
+        <v>52.01063992062716</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>16.44786287856918</v>
+        <v>8.346838216040645</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.5464936985061</v>
+        <v>78.03957979291623</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>51.22459769832018</v>
+        <v>74.02471580929578</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.55811679505631</v>
+        <v>64.75124776563086</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.23312620969906</v>
+        <v>73.63860526574385</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>51.53291195621539</v>
+        <v>72.23682574576188</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>27.95395344042367</v>
+        <v>34.21215882478502</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>45.18157822505502</v>
+        <v>63.23295724366034</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.36176621751735</v>
+        <v>69.03715796706778</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.41791011142381</v>
+        <v>27.75451812525828</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.62739556158692</v>
+        <v>44.32649018141963</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37.71964867409684</v>
+        <v>43.81867892276754</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>13.79123519186877</v>
+        <v>2.907103094712127</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.39360308158431</v>
+        <v>37.56149207726482</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.18773012418978</v>
+        <v>41.09442349584891</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>15.14996065534351</v>
+        <v>6.283674763244441</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>49.72347149375994</v>
+        <v>63.04608811881496</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.03988420993141</v>
+        <v>7.892866719990653</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.9634214137148</v>
+        <v>31.94388827118422</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>32.97014918228868</v>
+        <v>39.05345451511967</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.93585428263795</v>
+        <v>3.460466823057793</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.19452196238333</v>
+        <v>51.2187063908942</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>38.58430587494875</v>
+        <v>50.73338602712837</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>15.6454269654368</v>
+        <v>5.663552270150813</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.02348138033628</v>
+        <v>74.60599698905625</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>50.97004915721164</v>
+        <v>73.41805855141186</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>55.31645895672415</v>
+        <v>82.78230714526097</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>61.05899530065941</v>
+        <v>92.41655192949844</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>57.43805969278198</v>
+        <v>83.85270220388304</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>15.16672322900101</v>
+        <v>4.700725251956772</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.39059699311642</v>
+        <v>36.9778274831436</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>38.21250205635674</v>
+        <v>48.28742197372436</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.31988120650029</v>
+        <v>18.05707703467284</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.68750518899082</v>
+        <v>42.21734627588165</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.90548026651994</v>
+        <v>42.09381249618443</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>13.57760868766689</v>
+        <v>3.114931872446121</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.72421685095442</v>
+        <v>37.60791393903037</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.7259649136195</v>
+        <v>42.22348567475292</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.97484716861692</v>
+        <v>6.492931083811598</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>46.77628254753157</v>
+        <v>61.40679934905677</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>15.81333494961872</v>
+        <v>6.758486539900009</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.51656217659437</v>
+        <v>26.91727771640403</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.54475454644098</v>
+        <v>40.91474738706007</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>14.10592784654622</v>
+        <v>4.582657431210606</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>38.36454906979114</v>
+        <v>52.37332331639529</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>42.82962121263819</v>
+        <v>58.54041618098942</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.44731418273399</v>
+        <v>4.878739343113708</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.5922025383019</v>
+        <v>78.80422336335647</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>53.21493098422201</v>
+        <v>78.88791245334099</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>51.63788607650726</v>
+        <v>76.57370530093273</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.64304598904195</v>
+        <v>83.84791406535113</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>57.63360126635507</v>
+        <v>85.93866984785247</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>15.37809942561799</v>
+        <v>6.002935080416613</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.12072041837328</v>
+        <v>37.77837920780512</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>41.47159038860834</v>
+        <v>54.47699131179545</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.42765518635044</v>
+        <v>12.13218864257388</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.4807998355285</v>
+        <v>39.85161045415151</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.59690052539106</v>
+        <v>43.37620931455325</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>13.66482850621201</v>
+        <v>3.053467165278249</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.33891081958568</v>
+        <v>36.0256033786065</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.09468671829993</v>
+        <v>44.3649814898798</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>14.29385519788521</v>
+        <v>5.442098927419032</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>43.4230081555298</v>
+        <v>56.74573173656536</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>33.020878719839</v>
+        <v>36.97312521506167</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.29166739613943</v>
+        <v>31.52204766662733</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>39.55821965282374</v>
+        <v>45.76126245740991</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>42.71913521046331</v>
+        <v>52.65911067401787</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.08726700072433</v>
+        <v>13.79411438080677</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.40036320594382</v>
+        <v>31.74031151107376</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.68460884459117</v>
+        <v>40.44903910499546</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>20.39729142626274</v>
+        <v>13.67861886215234</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.13703407539984</v>
+        <v>32.1134469779022</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.98288466696341</v>
+        <v>41.27142449182604</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>13.57742020346698</v>
+        <v>3.389316253306095</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>20.26851577364194</v>
+        <v>15.43897974487414</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.67466301431003</v>
+        <v>27.59459312173131</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.23004589624606</v>
+        <v>7.12752138920921</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>33.18715698714987</v>
+        <v>38.49241111062349</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>47.55346959620472</v>
+        <v>63.27061030140932</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.46593148134536</v>
+        <v>36.24252679714743</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.68375198802583</v>
+        <v>57.98809476837053</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>50.01001402314701</v>
+        <v>65.24235318871258</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.95136572649222</v>
+        <v>11.83797398027407</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.69421796806894</v>
+        <v>33.19618760766175</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>39.41530319160933</v>
+        <v>49.0998071605696</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>53.61760349310019</v>
+        <v>69.41283345702986</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.01765471445434</v>
+        <v>65.61484787745475</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.23324946568525</v>
+        <v>73.83019746952999</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>56.50091155767812</v>
+        <v>75.23198728640071</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.16161664409721</v>
+        <v>27.18650283327387</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>53.07068168008094</v>
+        <v>68.60859733530874</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.82214135023797</v>
+        <v>69.23254765268463</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.47132267858358</v>
+        <v>29.13459560853577</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>39.28561458308198</v>
+        <v>45.99609964792821</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>39.71475683016185</v>
+        <v>45.75807344239941</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.93406874518273</v>
+        <v>2.86976854002361</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.57734349991993</v>
+        <v>46.13745131257189</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>39.95685119482188</v>
+        <v>45.06815405259144</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.10225608044308</v>
+        <v>4.382403015308949</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>55.42152250891</v>
+        <v>70.50657114832921</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>55.88670898871717</v>
+        <v>72.03630644290547</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>59.20228265676194</v>
+        <v>76.40177828482292</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.70154455399357</v>
+        <v>81.48796292033308</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>63.06585167961872</v>
+        <v>81.52496502083517</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.82633036108934</v>
+        <v>29.06746142283945</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>59.72549650359014</v>
+        <v>77.19379659042849</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>61.0155879067045</v>
+        <v>79.30866232558246</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.89026664006943</v>
+        <v>67.5055141903561</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>47.08789559991143</v>
+        <v>62.04139966088085</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>53.54093436711328</v>
+        <v>72.45216593750821</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>55.90387822675873</v>
+        <v>73.12862308348302</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.26204296604092</v>
+        <v>15.5132399125116</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>50.48795239094144</v>
+        <v>65.61291664870745</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>51.77183172110104</v>
+        <v>66.08525780146303</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.12232236846761</v>
+        <v>16.36125471167428</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.17741402447442</v>
+        <v>40.98383176126914</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>37.89106582407369</v>
+        <v>42.02060815640539</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.49036878295787</v>
+        <v>2.698272782761251</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.7515507239195</v>
+        <v>46.74077425267706</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>38.93049586227281</v>
+        <v>43.87160120374648</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.97942752669601</v>
+        <v>5.765303969904082</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>54.28546372047211</v>
+        <v>71.32478503618341</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>56.38736697493086</v>
+        <v>72.93428778464835</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>59.09514686979529</v>
+        <v>80.06631468249745</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>62.69022746436717</v>
+        <v>85.53749132489574</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>64.81773175260112</v>
+        <v>86.17755585908503</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>19.45947571003384</v>
+        <v>11.16922335198293</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.90022903649222</v>
+        <v>77.14260640582688</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>60.83460438717958</v>
+        <v>79.09095942675208</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>53.4466473213006</v>
+        <v>70.38748341818192</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.80894707793204</v>
+        <v>40.69266686092143</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>41.71642815099978</v>
+        <v>53.13977308650384</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>47.82278767104592</v>
+        <v>60.84009140881692</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>18.01439546465201</v>
+        <v>11.1363192073476</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>48.12508868396461</v>
+        <v>64.11072612406016</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>52.91065521758365</v>
+        <v>69.8542059863906</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>18.37557329999443</v>
+        <v>10.1780093221887</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.98834381456567</v>
+        <v>41.38427458151157</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>40.05281626055338</v>
+        <v>45.58541068632692</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.59441067902011</v>
+        <v>2.44939678423615</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>37.33269869704372</v>
+        <v>43.58300901062687</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>42.14087850558361</v>
+        <v>49.36449588158662</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>14.31224655034873</v>
+        <v>3.250125876115362</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>51.26109712791749</v>
+        <v>66.68892669135076</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>57.2242031025572</v>
+        <v>74.60501058323851</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.54764282040549</v>
+        <v>71.4826894712796</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>60.36782930227491</v>
+        <v>79.97165867685744</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>64.61807950211796</v>
+        <v>86.48913401417676</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>17.59968811730619</v>
+        <v>8.060976058056983</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>57.43719627496262</v>
+        <v>74.54172311029289</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>61.99046757132186</v>
+        <v>81.25113431252346</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.2818315491369</v>
+        <v>13.15778876775831</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.23480896367752</v>
+        <v>14.01351362388506</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.07730970341273</v>
+        <v>21.64943574253464</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>7.990737885545542</v>
+        <v>2.784800187635753</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.20860256498267</v>
+        <v>12.74761248975946</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>19.0994685734351</v>
+        <v>14.52128918726298</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>11.73925217260534</v>
+        <v>7.961242772348111</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.4010895576537</v>
+        <v>26.1460713427194</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.44193680261224</v>
+        <v>27.3389931736084</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.05193376216097</v>
+        <v>13.75106207358073</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>20.2458899703066</v>
+        <v>17.8828608346009</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.4300722607444</v>
+        <v>19.4917390534985</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.9382197152899</v>
+        <v>21.32362764851885</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.78714654351056</v>
+        <v>20.76534612638648</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.4310049381027</v>
+        <v>32.93701087756591</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>15.07843694958508</v>
+        <v>10.72725426690445</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.92142245948865</v>
+        <v>22.44780800581713</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.82054447032586</v>
+        <v>33.28005390218635</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>8.399106564286114</v>
+        <v>2.210543329953808</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.55790197702673</v>
+        <v>6.812671694298469</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.93393863385435</v>
+        <v>8.683085083751795</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>7.59224872593277</v>
+        <v>2.403536270893106</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.10533192019272</v>
+        <v>14.48291282360755</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.48577514507795</v>
+        <v>17.80380828314081</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.64030515270588</v>
+        <v>21.95115180730588</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.93110302598012</v>
+        <v>21.90510779705174</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>8.597175771134097</v>
+        <v>2.854717901485262</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.68512416578939</v>
+        <v>24.39349921467428</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.27519012429419</v>
+        <v>26.23263108413925</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>11.76038272503381</v>
+        <v>7.659265877750759</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>35.26602613695108</v>
+        <v>34.46074757602048</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.5845177683993</v>
+        <v>34.31484518716319</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.87617755100288</v>
+        <v>38.27316658664074</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.88139371147306</v>
+        <v>43.07537605725302</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.30827161184506</v>
+        <v>44.86676195396446</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>27.55695998061038</v>
+        <v>28.10604943968466</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>41.37254974702655</v>
+        <v>45.09656815286399</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>43.7454387744382</v>
+        <v>46.70948411353045</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>18.40205722669904</v>
+        <v>14.25590270158668</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.36454564137922</v>
+        <v>30.70676978645219</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>35.68331582281832</v>
+        <v>36.9750209988656</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>8.869776113441436</v>
+        <v>2.535297325657314</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>30.91269969909746</v>
+        <v>29.33471474109222</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.57518644887446</v>
+        <v>40.28899517468577</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.46827688825568</v>
+        <v>3.941799779763397</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.24887346978393</v>
+        <v>48.82174028599459</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.35298959958195</v>
+        <v>8.298939578778612</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>20.25165877752993</v>
+        <v>17.59567690507997</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.4926644873377</v>
+        <v>19.86835741716573</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>7.005509391427545</v>
+        <v>1.122199492884199</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.44012054847781</v>
+        <v>24.37345833036226</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>27.68682065200979</v>
+        <v>26.17376850406552</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>11.32488743687436</v>
+        <v>6.732711750399723</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.16603910621534</v>
+        <v>36.93863382979793</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>38.27373187526543</v>
+        <v>39.90571420839164</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.13030211366015</v>
+        <v>41.02818701531018</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>40.96289879160287</v>
+        <v>42.58580797850294</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>45.25000945922468</v>
+        <v>48.12428616752879</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.11215442386566</v>
+        <v>16.90252076612207</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>32.40491397733648</v>
+        <v>33.07095540411071</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>37.29891223430547</v>
+        <v>39.27913603653362</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.38809496494724</v>
+        <v>7.016414658077707</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.26234224769232</v>
+        <v>26.62865202108841</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>34.94660706362279</v>
+        <v>36.19192358114887</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>8.039075761849684</v>
+        <v>2.2415561276385</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.78506321740574</v>
+        <v>19.31080768516178</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>37.06916898491141</v>
+        <v>38.42673566691806</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>8.39907478402068</v>
+        <v>3.295867463357652</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.32643615250221</v>
+        <v>34.34120065616142</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>10.96048165336838</v>
+        <v>6.727872181930021</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>17.09031317801023</v>
+        <v>12.80501801451033</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.07511469583751</v>
+        <v>17.60779271140978</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.456409543809219</v>
+        <v>1.250149846635246</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.59262911174858</v>
+        <v>19.60883117188876</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.9866660060333</v>
+        <v>27.01521484486597</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.489372080629071</v>
+        <v>3.36229723684016</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.74287571992205</v>
+        <v>32.61486583173834</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.98674709718823</v>
+        <v>36.57903094228818</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.32802937825768</v>
+        <v>32.7675066998834</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.48662849246566</v>
+        <v>35.28859615953741</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.79728076010782</v>
+        <v>40.47732457268176</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.80582754558629</v>
+        <v>16.60993205731199</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>30.15045768373797</v>
+        <v>29.70696806326217</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.8563201217525</v>
+        <v>38.79766395248167</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>10.86924168067549</v>
+        <v>5.159797164655739</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.47723907587183</v>
+        <v>21.92564257142215</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.5003987228104</v>
+        <v>32.87824585519319</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>8.633478013974653</v>
+        <v>2.709328270740347</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.22071583683795</v>
+        <v>17.95701900481355</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.4649846874988</v>
+        <v>37.70311138757987</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.252389181133687</v>
+        <v>1.77241528925455</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.73946428988546</v>
+        <v>29.44820108152424</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.67611260307824</v>
+        <v>18.88098405541292</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.42377332965611</v>
+        <v>18.44097592422056</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.47413199422618</v>
+        <v>36.88820653192161</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>41.84240379378339</v>
+        <v>43.68310574416397</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.688289947515951</v>
+        <v>4.239733593736378</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.40350663120618</v>
+        <v>11.77160264681753</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.64561044590819</v>
+        <v>19.52665387586166</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.36232250819043</v>
+        <v>11.62371097359636</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.14202051158659</v>
+        <v>20.86177008237557</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>31.00806812874809</v>
+        <v>30.33399575795224</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>7.937661965339867</v>
+        <v>2.013919665577589</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>11.59687976376702</v>
+        <v>5.848049631523928</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.98400438122028</v>
+        <v>9.700819279067492</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.027876070110516</v>
+        <v>2.797636421869232</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>19.28296500506441</v>
+        <v>15.51388594587215</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.02735589346364</v>
+        <v>26.0195042589698</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.45129306207368</v>
+        <v>19.40186306251343</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.41561233100052</v>
+        <v>38.99726320937684</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>44.27065752372715</v>
+        <v>45.95905816343265</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>10.41663904515795</v>
+        <v>5.170817868369479</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.00290112010378</v>
+        <v>15.3347390948895</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.33318283728951</v>
+        <v>22.40625375286755</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>55.13852643376163</v>
+        <v>60.66513571518306</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>48.38263707667721</v>
+        <v>51.46335585950754</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>58.70189559760196</v>
+        <v>64.42485749043584</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>60.45235837282669</v>
+        <v>67.35212023933238</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>18.24017770687462</v>
+        <v>13.78369478071912</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>54.78432386033401</v>
+        <v>60.2697339332874</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>58.10437086133433</v>
+        <v>64.59535045413125</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.10158056462197</v>
+        <v>23.93636679416801</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>37.91533033096198</v>
+        <v>39.08589691443862</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>41.62404790335431</v>
+        <v>44.7507926774533</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.20750305816665</v>
+        <v>4.443618498942776</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.45075832399947</v>
+        <v>35.8612148555918</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.52544729310642</v>
+        <v>46.24977131146426</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.33254451804541</v>
+        <v>9.350054001366182</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>57.44363040994645</v>
+        <v>63.12399871075814</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>62.65415246705581</v>
+        <v>70.28692033857448</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>64.64262225939369</v>
+        <v>73.03623874911466</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>71.81603102033624</v>
+        <v>81.28477229865749</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>76.00135552716928</v>
+        <v>86.8820765047837</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.84381401114589</v>
+        <v>28.42325362200394</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>68.17110250536727</v>
+        <v>77.19988444878967</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>70.80707178080169</v>
+        <v>80.6230068566442</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>57.01206222299653</v>
+        <v>62.93220860194761</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>35.2875990731926</v>
+        <v>34.00580376463042</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>45.08687827361547</v>
+        <v>46.63536683145607</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>59.50346629014652</v>
+        <v>66.10254105358706</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.25653464273874</v>
+        <v>5.363741284704908</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>46.44436252219595</v>
+        <v>48.13619337462238</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>54.50293147911119</v>
+        <v>59.41657613555862</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.95775644441776</v>
+        <v>13.37433799069478</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.38918210208818</v>
+        <v>33.16162314669586</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>40.63740921352829</v>
+        <v>43.25400805141206</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>8.79896183261058</v>
+        <v>3.206991975109116</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.79954943714159</v>
+        <v>32.07452850635914</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>42.88641428068225</v>
+        <v>45.49853847357008</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.51529971796399</v>
+        <v>5.937074424278904</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>50.52821721618822</v>
+        <v>54.10374538537151</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>65.25224490978567</v>
+        <v>73.67086677590441</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>57.90794946136487</v>
+        <v>62.94841293921</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>65.84820854242047</v>
+        <v>73.22598947096451</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>76.57620914915984</v>
+        <v>87.84292428802556</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>18.6679862642068</v>
+        <v>15.61598181694422</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>59.88336186657987</v>
+        <v>65.47524379463748</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>68.69434442283791</v>
+        <v>77.2284934302842</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>52.4077661620031</v>
+        <v>57.11507414015052</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.40835553653621</v>
+        <v>20.68123550648879</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.27886772847636</v>
+        <v>28.67805638977679</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>44.68993183347583</v>
+        <v>46.85639975746822</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>10.31625432499802</v>
+        <v>4.522835886300438</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>37.92998831790539</v>
+        <v>37.15576594207164</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>49.95461775347623</v>
+        <v>53.26448358619878</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>14.64351145634332</v>
+        <v>9.983630611673696</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>31.57764026449223</v>
+        <v>31.29125926246124</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>41.8843267724932</v>
+        <v>44.15304721401999</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>9.399477284156337</v>
+        <v>3.213345288736651</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.75833472298493</v>
+        <v>29.60788922128764</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>44.0087541245585</v>
+        <v>46.66392784034828</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>8.695479856274375</v>
+        <v>2.837698019430718</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.43693630875175</v>
+        <v>47.32501790515414</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>63.9653284418586</v>
+        <v>71.82248162788403</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>48.47495935026614</v>
+        <v>50.99733524451318</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>58.5648069816838</v>
+        <v>63.31692777828081</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>73.86193702198864</v>
+        <v>84.22045645064723</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>15.82465177932037</v>
+        <v>11.40239705353638</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.8824935424462</v>
+        <v>59.14901158764641</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>67.57606883041456</v>
+        <v>75.25366140621563</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.28109741888996</v>
+        <v>13.60737482611264</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.52966896292489</v>
+        <v>16.07735176291085</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.75785893743217</v>
+        <v>20.48073306022713</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.63192733246242</v>
+        <v>6.259328452641206</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.97567589847056</v>
+        <v>11.8065046876369</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.73621112074918</v>
+        <v>12.43028061266511</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.83678268641521</v>
+        <v>10.53324042697538</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.09778548805045</v>
+        <v>21.20753516647597</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.03859846503611</v>
+        <v>23.03811902756058</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.9611471519902</v>
+        <v>14.62578764458986</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.13558295734807</v>
+        <v>18.55471064357345</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.06277731720853</v>
+        <v>20.9237294824052</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.8198769155443</v>
+        <v>15.36613132800466</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>23.1340571664524</v>
+        <v>16.04670595763442</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.45444839923002</v>
+        <v>20.60608026270135</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.16266494254442</v>
+        <v>13.67185952100894</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.39618498434105</v>
+        <v>25.07662399528652</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>31.33456267182826</v>
+        <v>32.65760407414791</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.40685300970986</v>
+        <v>4.885705147000358</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.1067082344436</v>
+        <v>9.330444978403303</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.81180819234936</v>
+        <v>11.64458529349272</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.57581192599999</v>
+        <v>6.322747801886539</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.75869410422892</v>
+        <v>19.56658271939018</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>23.42309760872387</v>
+        <v>16.91776370917114</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.83744183068745</v>
+        <v>21.69823096450185</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.49945789546943</v>
+        <v>20.38558888481386</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.11198485650901</v>
+        <v>6.59162727509052</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.66812979495876</v>
+        <v>21.65698171610328</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>27.90251130386335</v>
+        <v>24.11934725039654</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18.69914643493885</v>
+        <v>9.82613928798548</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>31.9943228054964</v>
+        <v>30.49945058905273</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.44365880306217</v>
+        <v>29.81531664781895</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.81345147262868</v>
+        <v>33.29451426824516</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.6262976789952</v>
+        <v>38.53599081588513</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.23901813695126</v>
+        <v>39.55966075446454</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.0262426766721</v>
+        <v>18.9803411726326</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>32.86649104915433</v>
+        <v>32.41888026292343</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>33.83986787124217</v>
+        <v>32.65489892670385</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.59304326065639</v>
+        <v>15.4833622346942</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.49713862136814</v>
+        <v>31.70868449359072</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>33.40460838774584</v>
+        <v>36.26433315637068</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.62782558023297</v>
+        <v>5.492052998142228</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.99654191742776</v>
+        <v>28.89927794665864</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.08687049270596</v>
+        <v>37.70766148531622</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.25381297139907</v>
+        <v>7.00081776458449</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>39.54811261195817</v>
+        <v>48.28904379671233</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.97327944686121</v>
+        <v>10.28636328734498</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.98291851374848</v>
+        <v>16.44986746642797</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.98339222549411</v>
+        <v>17.58576193510633</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>16.1339768763416</v>
+        <v>4.826742863333731</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.9580295819879</v>
+        <v>20.27378700886196</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.54662973129302</v>
+        <v>21.43596833591101</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>18.18502735479417</v>
+        <v>8.825645454506144</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.37212007862494</v>
+        <v>29.62056679456348</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>32.44931306144432</v>
+        <v>31.88716205775685</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.49557974301774</v>
+        <v>33.38914483625412</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.02607285363335</v>
+        <v>36.3390535955908</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>37.13411627120156</v>
+        <v>39.91377096359437</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>20.40114668307508</v>
+        <v>12.50851856717161</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.81170787969792</v>
+        <v>22.0939131988394</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.3449424494161</v>
+        <v>25.65647721387263</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>18.98514975975057</v>
+        <v>9.253833148704885</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.40663230584832</v>
+        <v>26.12004280498993</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.94712367860096</v>
+        <v>35.99605517074805</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>16.09354228069305</v>
+        <v>4.619390436699074</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.05079879111295</v>
+        <v>19.60685314679319</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.62408793799862</v>
+        <v>36.49823335866155</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>16.81868732856278</v>
+        <v>6.413687192139573</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>32.88192778198997</v>
+        <v>31.92527453978098</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>18.32272077284422</v>
+        <v>9.087332181473577</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.55001847170528</v>
+        <v>13.38481136866131</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.5659009597162</v>
+        <v>16.72625795836023</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>16.2649042628728</v>
+        <v>4.916058484603145</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.22518155087366</v>
+        <v>16.69579098247237</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.51110587954736</v>
+        <v>22.65632048242378</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>16.92864483774157</v>
+        <v>6.579047065737921</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.07529787168301</v>
+        <v>26.74491760659138</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>32.23677793856622</v>
+        <v>30.63169452879066</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.62857146657746</v>
+        <v>25.89738033970156</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>31.35476335431424</v>
+        <v>29.1370817962026</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.66701753032944</v>
+        <v>32.84741417695481</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>20.42836195210434</v>
+        <v>12.50252857288822</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.32628252856046</v>
+        <v>21.51148817296249</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.4448707959653</v>
+        <v>24.93807260108722</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>18.34689846997385</v>
+        <v>8.25543328745507</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.45434348585201</v>
+        <v>22.74804111819013</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>31.45918147562015</v>
+        <v>33.12216548310325</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16.48198835985905</v>
+        <v>5.253365754711766</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.55523505546144</v>
+        <v>18.46278022559145</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.61281132598756</v>
+        <v>35.04432912983429</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>16.3735676994789</v>
+        <v>5.732914131195646</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.51873564559381</v>
+        <v>28.95269494053296</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.54932057313949</v>
+        <v>22.8492224893732</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.38882404526403</v>
+        <v>21.5394634461901</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.52490094503861</v>
+        <v>38.26543757803267</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>37.61434056943407</v>
+        <v>44.30005819324462</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>17.98644375332865</v>
+        <v>8.092416590341312</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.7927067213574</v>
+        <v>16.57251866249857</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.79580161984113</v>
+        <v>23.94113766635936</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.40623099035612</v>
+        <v>14.96547005032535</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.90100113649104</v>
+        <v>24.5392897137777</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.12860066640018</v>
+        <v>31.49423727774755</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>15.99268360990439</v>
+        <v>4.619750346120597</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.23968618488608</v>
+        <v>7.668964013633083</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.25531160291299</v>
+        <v>10.78900037220492</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>16.77832595603041</v>
+        <v>6.566981461886396</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>23.93267152135254</v>
+        <v>18.14400234743223</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.32274505045634</v>
+        <v>25.93033669936833</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.28448516643965</v>
+        <v>22.35762991551196</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.78900377939195</v>
+        <v>39.47436638513439</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.0738334190092</v>
+        <v>45.03860000047541</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.31877396519727</v>
+        <v>8.887923931882007</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>23.55079830151781</v>
+        <v>17.43905978496343</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>27.03500337578214</v>
+        <v>22.56571704406176</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.81399576951016</v>
+        <v>56.66392218540128</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>40.9809144367868</v>
+        <v>49.24765296770697</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.31179161748794</v>
+        <v>60.81737101535118</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.22519928216401</v>
+        <v>63.01297147677111</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.22017035203387</v>
+        <v>14.517589592973</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.2157431510159</v>
+        <v>57.9727469462387</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.67117171913497</v>
+        <v>60.49873933495488</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.55518312112353</v>
+        <v>23.74807037908101</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.87220641946185</v>
+        <v>38.74799717226255</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.11409525598071</v>
+        <v>43.17978158895875</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>17.41511045556802</v>
+        <v>6.832957007296478</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>33.30749869436535</v>
+        <v>34.15410657260213</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.86539974174149</v>
+        <v>44.00255654645558</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>20.07607917107722</v>
+        <v>12.47878596169424</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>46.99329359074198</v>
+        <v>60.34104349074062</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>49.29095637135353</v>
+        <v>64.3687519602793</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>50.62164096082851</v>
+        <v>66.30468850243915</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.94474403558244</v>
+        <v>74.86158168032858</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>57.17601886072122</v>
+        <v>78.24642788524405</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.28923179989951</v>
+        <v>28.2084872956323</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>53.73686116525798</v>
+        <v>73.03906221591815</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>54.9253473572516</v>
+        <v>75.16205577961978</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>45.96750263586166</v>
+        <v>58.5796763674244</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.97759729927539</v>
+        <v>33.10336318892975</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.22480377687704</v>
+        <v>45.37542319840526</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>47.83284421064285</v>
+        <v>62.6636528017899</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>18.33892075310332</v>
+        <v>8.060228940756645</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>39.74609312952459</v>
+        <v>46.65383817146666</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>45.03229909656104</v>
+        <v>57.17045415183105</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>21.34820745216752</v>
+        <v>13.7886431617123</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>31.70884059719891</v>
+        <v>31.92468054675554</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.22553968446676</v>
+        <v>41.21982032629339</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>16.56506943477029</v>
+        <v>5.397003036288254</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>31.35169430687142</v>
+        <v>30.89845613405366</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>37.94202280107308</v>
+        <v>43.92105120684113</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>17.94237461091046</v>
+        <v>8.46051359343895</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.05003767776181</v>
+        <v>50.15492142173747</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.7081192607204</v>
+        <v>66.90351968764313</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.57074971212371</v>
+        <v>57.93669542096431</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>51.88548763400941</v>
+        <v>68.21128813348489</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>57.29467280188268</v>
+        <v>78.31800251385857</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.10261135943554</v>
+        <v>17.77956480195703</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>48.79798804364802</v>
+        <v>62.95106745045047</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>53.68792086084109</v>
+        <v>72.27261084123532</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>43.47061110666929</v>
+        <v>54.47554833209497</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.91860815179104</v>
+        <v>22.61956982173279</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.28029888816372</v>
+        <v>31.89629936031493</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.36574995658625</v>
+        <v>47.22503244229215</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>17.96496661962266</v>
+        <v>7.963999447982964</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.06607032007704</v>
+        <v>36.58499696386645</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.23522604094775</v>
+        <v>52.09876366598111</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>20.41056467280015</v>
+        <v>12.08257113080749</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>30.89708262039848</v>
+        <v>31.29762430947032</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.29082383621189</v>
+        <v>43.21877326480141</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>16.86078392858455</v>
+        <v>5.954627155279809</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.48031620345671</v>
+        <v>29.85853300082718</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.94834125818031</v>
+        <v>44.31074573509645</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>17.0909490254953</v>
+        <v>6.874125169200205</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.89553478280671</v>
+        <v>46.48697259235296</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>50.53103566963739</v>
+        <v>66.80844008111679</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.07514829832944</v>
+        <v>50.07148949369729</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>48.39855816341766</v>
+        <v>62.02977400816324</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.37654887517468</v>
+        <v>77.28143436622835</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>21.19944006741274</v>
+        <v>14.11733817641143</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.21196876475073</v>
+        <v>58.40129651790803</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>53.06126918295375</v>
+        <v>70.7398707995057</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.05126597383943</v>
+        <v>12.29914733143512</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.31293037046246</v>
+        <v>17.78079001787452</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>31.02814526425901</v>
+        <v>31.83786752984785</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>7.987347899618491</v>
+        <v>1.4433606383</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.95393891597513</v>
+        <v>14.35245676126238</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.5824412542634</v>
+        <v>17.81077687661082</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>9.811566246819659</v>
+        <v>3.908292515469363</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.26293987857723</v>
+        <v>37.6302829465879</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>39.92353034869949</v>
+        <v>43.85567013604141</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.06819056542034</v>
+        <v>21.08972735368565</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.68499536903649</v>
+        <v>24.95491694568305</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.94950483082278</v>
+        <v>25.78635823935229</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.85887679068749</v>
+        <v>11.05673058895409</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.62307609366734</v>
+        <v>18.91115053618019</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.2038887246564</v>
+        <v>33.47200916954915</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>16.34907440914978</v>
+        <v>12.11499024068779</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.02423923029494</v>
+        <v>26.08267508898656</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>30.96576238333988</v>
+        <v>31.7264312782476</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>8.358555416519703</v>
+        <v>1.242122590995621</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.92950238320928</v>
+        <v>9.915868386781639</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.14975170013193</v>
+        <v>11.95078988774095</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>8.353029446927842</v>
+        <v>2.028300206340081</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.74756807884658</v>
+        <v>22.92482304573014</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.02866216085113</v>
+        <v>21.07265932514678</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>31.68165711836603</v>
+        <v>33.46068452515418</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>32.40739849542103</v>
+        <v>34.68062657697848</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>8.88724190879174</v>
+        <v>2.42504436451545</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>34.02252256423269</v>
+        <v>36.46145776576637</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>35.48004715153037</v>
+        <v>37.55894620102316</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>10.72441214922554</v>
+        <v>4.940438011561351</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.95424358961545</v>
+        <v>54.37245283872504</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>47.50107232639814</v>
+        <v>53.86321906130109</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.83050365531247</v>
+        <v>54.64785871135621</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.60192140016824</v>
+        <v>58.99196868401586</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>52.65009634412949</v>
+        <v>60.8212843680129</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.00082615783539</v>
+        <v>19.95252441642644</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.46081836131417</v>
+        <v>57.65691507252043</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.781848503978</v>
+        <v>59.95790967236157</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>19.83396517031472</v>
+        <v>17.86131086390393</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.33944776147138</v>
+        <v>35.54927088540738</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>34.85503506673049</v>
+        <v>36.49821421536917</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>8.679546805353091</v>
+        <v>1.323718428408615</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>33.33028791433435</v>
+        <v>34.47000441115018</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.08518274414998</v>
+        <v>35.80337438162255</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>9.424144620993012</v>
+        <v>2.376047319783723</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>48.52959230640541</v>
+        <v>55.35934482975499</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.23326296500903</v>
+        <v>5.206720270456788</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.12781530680394</v>
+        <v>24.19005466889062</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.85905984879015</v>
+        <v>29.48292721636583</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.292634390519861</v>
+        <v>1.354551914956254</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.29708356415178</v>
+        <v>34.29406942851102</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>34.09342399355647</v>
+        <v>36.41129311046704</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>11.24884857807093</v>
+        <v>5.433720780107624</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>46.90929664596268</v>
+        <v>54.04460269238053</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>48.12756151880227</v>
+        <v>55.92504812665243</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>52.28242419859782</v>
+        <v>60.85844888040873</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>53.67242494944588</v>
+        <v>62.13352648218804</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>56.08896115821655</v>
+        <v>66.26509854987904</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.88619522349409</v>
+        <v>5.101510081830913</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>34.3844579946312</v>
+        <v>36.84374537078986</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>38.94365939018776</v>
+        <v>43.19965924472396</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.38398659002297</v>
+        <v>10.29224914602064</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.75360613472661</v>
+        <v>33.2486842616241</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.28944558460807</v>
+        <v>36.684688885498</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>8.513491111396256</v>
+        <v>2.154647843942929</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.3871713417162</v>
+        <v>30.00789542027144</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.81410163620248</v>
+        <v>39.80195662481565</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.20863406429454</v>
+        <v>4.858555453560832</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.67443476885467</v>
+        <v>47.24549528076629</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>10.45994670223349</v>
+        <v>3.951590121441985</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.16240640074371</v>
+        <v>16.5016401561326</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.08172012744516</v>
+        <v>28.43599407682513</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>8.331997110314667</v>
+        <v>0.8864465142942564</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>20.7305780974724</v>
+        <v>18.24060477474122</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.13817034990769</v>
+        <v>39.25271683307739</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>8.70814876298256</v>
+        <v>2.322803734422873</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>41.57040347992086</v>
+        <v>46.81854963501748</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.16862630539327</v>
+        <v>55.3408023323326</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.52495207380773</v>
+        <v>51.44439784689541</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.22708230331453</v>
+        <v>55.49569825132966</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>53.03932236820462</v>
+        <v>61.70184124116671</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>11.13856108686197</v>
+        <v>5.326908389918088</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.61249037259245</v>
+        <v>34.23689685024446</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>40.47750876185096</v>
+        <v>45.46100976261826</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>11.97961814903858</v>
+        <v>6.579027974307635</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>27.65357603666206</v>
+        <v>27.67755484396162</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>32.66058411311433</v>
+        <v>33.87226219274002</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>8.664804471369116</v>
+        <v>1.904589489898516</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.98002586734802</v>
+        <v>23.11956863567316</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.14924631398672</v>
+        <v>37.06381643962533</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>8.649178176823067</v>
+        <v>2.268167052132362</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.08280983124605</v>
+        <v>38.37988932234417</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.70504809326589</v>
+        <v>23.54235950043234</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.5232643015185</v>
+        <v>21.99902422754837</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.09839689840227</v>
+        <v>36.38595683742742</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.90484563411538</v>
+        <v>41.48774542185826</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.06772434675557</v>
+        <v>7.407321909705686</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>20.47592003926552</v>
+        <v>17.4008092176911</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.76518645916515</v>
+        <v>24.28535054670915</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>15.01240570343818</v>
+        <v>9.399733012250422</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.65874127612617</v>
+        <v>22.14245956614784</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>32.62412433921295</v>
+        <v>33.15173148276313</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>7.793545167997181</v>
+        <v>1.744460679269601</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.27449697127017</v>
+        <v>8.011341227458779</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.66203722739658</v>
+        <v>13.41072090509022</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>8.70095776381779</v>
+        <v>3.313465505208438</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.81090961226372</v>
+        <v>21.38042262105319</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.90383843875018</v>
+        <v>39.50101000568814</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.8811909447346</v>
+        <v>25.5576856615508</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.87551861438158</v>
+        <v>46.19044290743548</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>47.64258710795593</v>
+        <v>52.490309612158</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>11.45511153424924</v>
+        <v>5.932719503308032</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.53527050224452</v>
+        <v>19.41017406297173</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.51277429991424</v>
+        <v>32.53816263563483</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>53.03300987051534</v>
+        <v>60.12169951103679</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.30525837811507</v>
+        <v>56.91630668885171</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>58.16804757546727</v>
+        <v>66.82413234108266</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>55.86371930062569</v>
+        <v>63.9786041381747</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>18.4218472024743</v>
+        <v>15.56834798453923</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>52.8136696342934</v>
+        <v>60.75581293948074</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>55.58870810765228</v>
+        <v>63.63092770882701</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.58432112912216</v>
+        <v>20.56870722099149</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>37.12773968730656</v>
+        <v>39.60471156370708</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.07032941237883</v>
+        <v>43.08776147268873</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.330020716401627</v>
+        <v>2.469961610607296</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.91714462333411</v>
+        <v>42.74494301694375</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.49536049886874</v>
+        <v>44.87312266107293</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>10.90097474709136</v>
+        <v>4.664822270767228</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>57.80266365246361</v>
+        <v>65.55927467706849</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>59.42284310567868</v>
+        <v>68.05595696456828</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.36533425431132</v>
+        <v>76.08315666052246</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>69.79518450413775</v>
+        <v>81.82646137576549</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>72.06557112995287</v>
+        <v>84.77416397653951</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>20.4509024524078</v>
+        <v>17.06332965460751</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.1522388030633</v>
+        <v>76.37961370144953</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>66.6279666284877</v>
+        <v>78.35278519497631</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.45456095408341</v>
+        <v>62.55477347561148</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.75333669902221</v>
+        <v>48.89248162253136</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>50.34162872844529</v>
+        <v>57.47401049076448</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>55.3336109445397</v>
+        <v>64.02765067735464</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.2735323429655</v>
+        <v>8.611539528250834</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.05583358521419</v>
+        <v>53.66433287772628</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>53.3645076689523</v>
+        <v>61.02138701274526</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>15.36215694986204</v>
+        <v>10.5004765291032</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.05068307319313</v>
+        <v>34.94050378945487</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>39.31628403686265</v>
+        <v>42.70540759172987</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>8.744066790969356</v>
+        <v>2.143045869604407</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>35.49120078565402</v>
+        <v>37.08408710231045</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>42.20077471516458</v>
+        <v>46.23920873147336</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>10.84592266546018</v>
+        <v>5.63295761382993</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>51.98536758765532</v>
+        <v>58.27895572895265</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>62.70905676846338</v>
+        <v>73.01827068949828</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>60.66662231121849</v>
+        <v>69.88303589250393</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>67.49261561277648</v>
+        <v>78.49713632083899</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>73.94554304849785</v>
+        <v>88.2711849636496</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>14.5057407465142</v>
+        <v>9.470650752512363</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>60.97422388539307</v>
+        <v>69.3300798225884</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>66.59495480361933</v>
+        <v>77.80553198699525</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>50.16384860798788</v>
+        <v>57.3603415378974</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.56659756270155</v>
+        <v>27.43870088780124</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.24796275104524</v>
+        <v>35.89685980963557</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>42.40572330956667</v>
+        <v>46.01313277422454</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>11.31990824742594</v>
+        <v>5.00651577705618</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.09947275795093</v>
+        <v>26.588950143021</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>49.13734490499391</v>
+        <v>54.95422542191091</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>12.93267965318866</v>
+        <v>6.370029150182997</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.30953577916353</v>
+        <v>31.53555381371154</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>40.24488479886094</v>
+        <v>43.1970020708749</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>8.908628652631251</v>
+        <v>1.320388615863926</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.69507710201842</v>
+        <v>30.36518978669955</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.81367646004377</v>
+        <v>45.83179219596057</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>9.064845739818889</v>
+        <v>1.472032837946507</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.22354737953206</v>
+        <v>47.61642356551477</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>61.27850418911614</v>
+        <v>70.90423341284628</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.59590737999697</v>
+        <v>53.06972932247795</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>58.82742127005633</v>
+        <v>65.82349660189433</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>72.49670443049889</v>
+        <v>85.67230002888482</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>12.48702881507633</v>
+        <v>6.49045331664205</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.43953105858341</v>
+        <v>60.30582394538122</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>67.19621825014828</v>
+        <v>77.95955083389777</v>
       </c>
     </row>
   </sheetData>
